--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F18BB1D-B505-40A5-B1DA-7F6A4CF964F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18A47B-AA8E-4DA4-B9F0-82ADDE35F2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -2658,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
@@ -5782,9 +5782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1320"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D457" sqref="D457"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D749" sqref="D749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18A47B-AA8E-4DA4-B9F0-82ADDE35F2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2DF4C-9008-4187-84D5-528E60F49506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="630">
   <si>
     <t>dbo.section</t>
   </si>
@@ -455,120 +455,6 @@
     <t>return_air_co2_concentration_s</t>
   </si>
   <si>
-    <t>supply_air_isolation_dam_sts_2</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_2</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_3</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_3</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_4</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_4</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_5</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_5</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_6</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_6</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_7</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_7</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_8</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_8</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_9</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_9</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_10</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_10</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_11</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_11</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_12</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_12</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_13</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_13</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_14</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_14</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_15</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_15</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_16</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_16</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_17</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_17</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_18</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_18</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_19</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_19</t>
-  </si>
-  <si>
-    <t>supply_air_isolation_dam_sts_20</t>
-  </si>
-  <si>
-    <t>return_air_isolation_dam_sts_20</t>
-  </si>
-  <si>
     <t>cb_14_run_status</t>
   </si>
   <si>
@@ -2034,6 +1920,9 @@
   </si>
   <si>
     <t>6705284d-e4d1-3abb-4675-cc65fa32d1fd</t>
+  </si>
+  <si>
+    <t>supply_air_isolation_dam_sts_1</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3012,7 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3153,10 +3042,10 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="L9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="M9" t="s">
         <v>60</v>
@@ -3769,7 +3658,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3781,7 +3670,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -3793,16 +3682,16 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>659</v>
+        <v>621</v>
       </c>
       <c r="J22" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="M22" t="s">
         <v>60</v>
@@ -3819,7 +3708,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3831,7 +3720,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -3843,16 +3732,16 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="M23" t="s">
         <v>60</v>
@@ -3869,7 +3758,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3881,7 +3770,7 @@
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -3893,16 +3782,16 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="M24" t="s">
         <v>60</v>
@@ -3919,7 +3808,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3931,7 +3820,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -3943,16 +3832,16 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="M25" t="s">
         <v>60</v>
@@ -3969,7 +3858,7 @@
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3981,7 +3870,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3993,16 +3882,16 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="M26" t="s">
         <v>60</v>
@@ -5783,8 +5672,8 @@
   <dimension ref="A1:G1320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D749" sqref="D749"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6214,7 +6103,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>140</v>
+        <v>629</v>
       </c>
       <c r="C32" t="s">
         <v>117</v>
@@ -6278,7 +6167,7 @@
         <v>62</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>117</v>
@@ -6454,7 +6343,7 @@
         <v>65</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
@@ -6517,7 +6406,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
@@ -6693,7 +6582,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
         <v>117</v>
@@ -6756,7 +6645,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
         <v>117</v>
@@ -6932,7 +6821,7 @@
         <v>71</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
         <v>117</v>
@@ -6995,7 +6884,7 @@
         <v>71</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
         <v>117</v>
@@ -7173,7 +7062,7 @@
         <v>74</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
         <v>117</v>
@@ -7236,7 +7125,7 @@
         <v>74</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
         <v>117</v>
@@ -7411,7 +7300,7 @@
         <v>77</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
         <v>117</v>
@@ -7474,7 +7363,7 @@
         <v>77</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
         <v>117</v>
@@ -7509,7 +7398,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>116</v>
@@ -7522,7 +7411,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>118</v>
@@ -7535,7 +7424,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>119</v>
@@ -7548,7 +7437,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>120</v>
@@ -7560,7 +7449,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>121</v>
@@ -7572,7 +7461,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>122</v>
@@ -7585,7 +7474,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>124</v>
@@ -7598,7 +7487,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>126</v>
@@ -7611,7 +7500,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>128</v>
@@ -7623,7 +7512,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>129</v>
@@ -7635,7 +7524,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>130</v>
@@ -7648,10 +7537,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C146" t="s">
         <v>117</v>
@@ -7661,7 +7550,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>132</v>
@@ -7674,7 +7563,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>133</v>
@@ -7686,7 +7575,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>134</v>
@@ -7698,7 +7587,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>136</v>
@@ -7711,10 +7600,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s">
         <v>117</v>
@@ -7724,7 +7613,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>138</v>
@@ -7737,7 +7626,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>139</v>
@@ -7890,7 +7779,7 @@
         <v>82</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C165" t="s">
         <v>117</v>
@@ -7953,7 +7842,7 @@
         <v>82</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C170" t="s">
         <v>117</v>
@@ -8129,7 +8018,7 @@
         <v>85</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>156</v>
+        <v>629</v>
       </c>
       <c r="C184" t="s">
         <v>117</v>
@@ -8192,7 +8081,7 @@
         <v>85</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C189" t="s">
         <v>117</v>
@@ -8370,7 +8259,7 @@
         <v>88</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C203" t="s">
         <v>117</v>
@@ -8433,7 +8322,7 @@
         <v>88</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C208" t="s">
         <v>117</v>
@@ -8608,7 +8497,7 @@
         <v>91</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C222" t="s">
         <v>117</v>
@@ -8671,7 +8560,7 @@
         <v>91</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C227" t="s">
         <v>117</v>
@@ -8848,7 +8737,7 @@
         <v>94</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C241" t="s">
         <v>117</v>
@@ -8911,7 +8800,7 @@
         <v>94</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C246" t="s">
         <v>117</v>
@@ -9087,7 +8976,7 @@
         <v>97</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C260" t="s">
         <v>117</v>
@@ -9150,7 +9039,7 @@
         <v>97</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C265" t="s">
         <v>117</v>
@@ -9326,7 +9215,7 @@
         <v>100</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C279" t="s">
         <v>117</v>
@@ -9389,7 +9278,7 @@
         <v>100</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C284" t="s">
         <v>117</v>
@@ -9567,7 +9456,7 @@
         <v>103</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C298" t="s">
         <v>117</v>
@@ -9630,7 +9519,7 @@
         <v>103</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C303" t="s">
         <v>117</v>
@@ -9805,7 +9694,7 @@
         <v>106</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C317" t="s">
         <v>117</v>
@@ -9868,7 +9757,7 @@
         <v>106</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C322" t="s">
         <v>117</v>
@@ -10045,7 +9934,7 @@
         <v>109</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="C336" t="s">
         <v>117</v>
@@ -10108,7 +9997,7 @@
         <v>109</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C341" t="s">
         <v>117</v>
@@ -10284,7 +10173,7 @@
         <v>112</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C355" t="s">
         <v>117</v>
@@ -10347,7 +10236,7 @@
         <v>112</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C360" t="s">
         <v>117</v>
@@ -10523,7 +10412,7 @@
         <v>114</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>176</v>
+        <v>629</v>
       </c>
       <c r="C374" t="s">
         <v>117</v>
@@ -10586,7 +10475,7 @@
         <v>114</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C379" t="s">
         <v>117</v>
@@ -10625,7 +10514,7 @@
         <v>68</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C382" t="s">
         <v>117</v>
@@ -10638,7 +10527,7 @@
         <v>68</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C383" t="s">
         <v>117</v>
@@ -10651,7 +10540,7 @@
         <v>68</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C384" t="s">
         <v>117</v>
@@ -10663,7 +10552,7 @@
         <v>68</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C385" t="s">
         <v>117</v>
@@ -10672,10 +10561,10 @@
     </row>
     <row r="386" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="C386" t="s">
         <v>117</v>
@@ -10685,10 +10574,10 @@
     </row>
     <row r="387" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="C387" t="s">
         <v>117</v>
@@ -10698,10 +10587,10 @@
     </row>
     <row r="388" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="C388" t="s">
         <v>117</v>
@@ -10711,10 +10600,10 @@
     </row>
     <row r="389" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="C389" t="s">
         <v>117</v>
@@ -10723,10 +10612,10 @@
     </row>
     <row r="390" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="C390" t="s">
         <v>117</v>
@@ -10735,10 +10624,10 @@
     </row>
     <row r="391" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="C391" t="s">
         <v>117</v>
@@ -10748,10 +10637,10 @@
     </row>
     <row r="392" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="C392" t="s">
         <v>117</v>
@@ -10761,10 +10650,10 @@
     </row>
     <row r="393" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="C393" t="s">
         <v>117</v>
@@ -10774,10 +10663,10 @@
     </row>
     <row r="394" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="C394" t="s">
         <v>117</v>
@@ -10786,10 +10675,10 @@
     </row>
     <row r="395" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="C395" t="s">
         <v>117</v>
@@ -10798,10 +10687,10 @@
     </row>
     <row r="396" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="C396" t="s">
         <v>117</v>
@@ -10811,10 +10700,10 @@
     </row>
     <row r="397" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="C397" t="s">
         <v>117</v>
@@ -10824,10 +10713,10 @@
     </row>
     <row r="398" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="C398" t="s">
         <v>117</v>
@@ -10837,10 +10726,10 @@
     </row>
     <row r="399" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="C399" t="s">
         <v>117</v>
@@ -10849,10 +10738,10 @@
     </row>
     <row r="400" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="C400" t="s">
         <v>117</v>
@@ -10861,10 +10750,10 @@
     </row>
     <row r="401" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="C401" t="s">
         <v>117</v>
@@ -10874,10 +10763,10 @@
     </row>
     <row r="402" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="C402" t="s">
         <v>117</v>
@@ -10887,10 +10776,10 @@
     </row>
     <row r="403" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="C403" t="s">
         <v>117</v>
@@ -10900,10 +10789,10 @@
     </row>
     <row r="404" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C404" t="s">
         <v>117</v>
@@ -10912,10 +10801,10 @@
     </row>
     <row r="405" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C405" t="s">
         <v>117</v>
@@ -10924,10 +10813,10 @@
     </row>
     <row r="406" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C406" t="s">
         <v>117</v>
@@ -10937,10 +10826,10 @@
     </row>
     <row r="407" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C407" t="s">
         <v>117</v>
@@ -10950,10 +10839,10 @@
     </row>
     <row r="408" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C408" t="s">
         <v>117</v>
@@ -10963,10 +10852,10 @@
     </row>
     <row r="409" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="C409" t="s">
         <v>117</v>
@@ -10975,10 +10864,10 @@
     </row>
     <row r="410" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C410" t="s">
         <v>117</v>
@@ -10987,10 +10876,10 @@
     </row>
     <row r="411" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C411" t="s">
         <v>117</v>
@@ -11003,7 +10892,7 @@
         <v>65</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C412" t="s">
         <v>117</v>
@@ -11016,7 +10905,7 @@
         <v>65</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C413" t="s">
         <v>117</v>
@@ -11029,7 +10918,7 @@
         <v>65</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C414" t="s">
         <v>117</v>
@@ -11041,7 +10930,7 @@
         <v>65</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C415" t="s">
         <v>117</v>
@@ -11053,7 +10942,7 @@
         <v>62</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C416" t="s">
         <v>117</v>
@@ -11066,7 +10955,7 @@
         <v>62</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C417" t="s">
         <v>117</v>
@@ -11079,7 +10968,7 @@
         <v>62</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C418" t="s">
         <v>117</v>
@@ -11092,7 +10981,7 @@
         <v>62</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C419" t="s">
         <v>117</v>
@@ -11104,7 +10993,7 @@
         <v>62</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C420" t="s">
         <v>117</v>
@@ -11116,7 +11005,7 @@
         <v>62</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C421" t="s">
         <v>117</v>
@@ -11129,7 +11018,7 @@
         <v>62</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C422" t="s">
         <v>117</v>
@@ -11142,7 +11031,7 @@
         <v>62</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C423" t="s">
         <v>117</v>
@@ -11155,7 +11044,7 @@
         <v>56</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C424" t="s">
         <v>117</v>
@@ -11167,7 +11056,7 @@
         <v>56</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C425" t="s">
         <v>117</v>
@@ -11179,7 +11068,7 @@
         <v>56</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C426" t="s">
         <v>117</v>
@@ -11192,7 +11081,7 @@
         <v>56</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C427" t="s">
         <v>117</v>
@@ -11205,7 +11094,7 @@
         <v>56</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C428" t="s">
         <v>117</v>
@@ -11218,7 +11107,7 @@
         <v>56</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C429" t="s">
         <v>117</v>
@@ -11230,7 +11119,7 @@
         <v>74</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C430" t="s">
         <v>117</v>
@@ -11242,7 +11131,7 @@
         <v>74</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C431" t="s">
         <v>117</v>
@@ -11255,7 +11144,7 @@
         <v>74</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C432" t="s">
         <v>117</v>
@@ -11268,7 +11157,7 @@
         <v>74</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C433" t="s">
         <v>117</v>
@@ -11281,7 +11170,7 @@
         <v>71</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C434" t="s">
         <v>117</v>
@@ -11293,7 +11182,7 @@
         <v>71</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C435" t="s">
         <v>117</v>
@@ -11305,7 +11194,7 @@
         <v>71</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C436" t="s">
         <v>117</v>
@@ -11318,7 +11207,7 @@
         <v>71</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C437" t="s">
         <v>117</v>
@@ -11331,7 +11220,7 @@
         <v>71</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C438" t="s">
         <v>117</v>
@@ -11344,7 +11233,7 @@
         <v>71</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C439" t="s">
         <v>117</v>
@@ -11356,7 +11245,7 @@
         <v>71</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C440" t="s">
         <v>117</v>
@@ -11368,7 +11257,7 @@
         <v>71</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C441" t="s">
         <v>117</v>
@@ -11381,7 +11270,7 @@
         <v>71</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C442" t="s">
         <v>117</v>
@@ -11394,7 +11283,7 @@
         <v>71</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C443" t="s">
         <v>117</v>
@@ -11407,7 +11296,7 @@
         <v>71</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C444" t="s">
         <v>117</v>
@@ -11419,7 +11308,7 @@
         <v>71</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C445" t="s">
         <v>117</v>
@@ -11431,7 +11320,7 @@
         <v>71</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C446" t="s">
         <v>117</v>
@@ -11444,7 +11333,7 @@
         <v>71</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C447" t="s">
         <v>117</v>
@@ -11457,7 +11346,7 @@
         <v>71</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C448" t="s">
         <v>117</v>
@@ -11470,7 +11359,7 @@
         <v>71</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C449" t="s">
         <v>117</v>
@@ -11482,7 +11371,7 @@
         <v>71</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C450" t="s">
         <v>117</v>
@@ -11494,7 +11383,7 @@
         <v>71</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C451" t="s">
         <v>117</v>
@@ -11507,7 +11396,7 @@
         <v>71</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C452" t="s">
         <v>117</v>
@@ -11520,7 +11409,7 @@
         <v>71</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C453" t="s">
         <v>117</v>
@@ -11533,7 +11422,7 @@
         <v>71</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C454" t="s">
         <v>117</v>
@@ -11545,7 +11434,7 @@
         <v>71</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C455" t="s">
         <v>117</v>
@@ -11557,7 +11446,7 @@
         <v>71</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C456" t="s">
         <v>117</v>
@@ -11570,7 +11459,7 @@
         <v>71</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C457" t="s">
         <v>117</v>
@@ -11583,7 +11472,7 @@
         <v>71</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C458" t="s">
         <v>117</v>
@@ -11596,7 +11485,7 @@
         <v>71</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C459" t="s">
         <v>117</v>
@@ -11608,7 +11497,7 @@
         <v>71</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C460" t="s">
         <v>117</v>
@@ -11620,7 +11509,7 @@
         <v>71</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C461" t="s">
         <v>117</v>
@@ -11633,7 +11522,7 @@
         <v>71</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C462" t="s">
         <v>117</v>
@@ -11646,7 +11535,7 @@
         <v>71</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C463" t="s">
         <v>117</v>
@@ -11659,7 +11548,7 @@
         <v>71</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C464" t="s">
         <v>117</v>
@@ -11671,7 +11560,7 @@
         <v>71</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C465" t="s">
         <v>117</v>
@@ -11683,7 +11572,7 @@
         <v>71</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C466" t="s">
         <v>117</v>
@@ -11696,7 +11585,7 @@
         <v>71</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C467" t="s">
         <v>117</v>
@@ -11709,7 +11598,7 @@
         <v>71</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C468" t="s">
         <v>117</v>
@@ -11722,7 +11611,7 @@
         <v>71</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C469" t="s">
         <v>117</v>
@@ -11734,7 +11623,7 @@
         <v>71</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="C470" t="s">
         <v>117</v>
@@ -11746,7 +11635,7 @@
         <v>71</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C471" t="s">
         <v>117</v>
@@ -11759,7 +11648,7 @@
         <v>71</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C472" t="s">
         <v>117</v>
@@ -11772,7 +11661,7 @@
         <v>71</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C473" t="s">
         <v>117</v>
@@ -11782,10 +11671,10 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C474" t="s">
         <v>117</v>
@@ -11794,10 +11683,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C475" t="s">
         <v>117</v>
@@ -11806,10 +11695,10 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C476" t="s">
         <v>117</v>
@@ -11819,10 +11708,10 @@
     </row>
     <row r="477" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C477" t="s">
         <v>117</v>
@@ -11832,10 +11721,10 @@
     </row>
     <row r="478" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C478" t="s">
         <v>117</v>
@@ -11845,10 +11734,10 @@
     </row>
     <row r="479" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="C479" t="s">
         <v>117</v>
@@ -11857,10 +11746,10 @@
     </row>
     <row r="480" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C480" t="s">
         <v>117</v>
@@ -11869,10 +11758,10 @@
     </row>
     <row r="481" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C481" t="s">
         <v>117</v>
@@ -11882,10 +11771,10 @@
     </row>
     <row r="482" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C482" t="s">
         <v>117</v>
@@ -11895,10 +11784,10 @@
     </row>
     <row r="483" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C483" t="s">
         <v>117</v>
@@ -11908,10 +11797,10 @@
     </row>
     <row r="484" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C484" t="s">
         <v>117</v>
@@ -11920,10 +11809,10 @@
     </row>
     <row r="485" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C485" t="s">
         <v>117</v>
@@ -11932,10 +11821,10 @@
     </row>
     <row r="486" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C486" t="s">
         <v>117</v>
@@ -11945,10 +11834,10 @@
     </row>
     <row r="487" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C487" t="s">
         <v>117</v>
@@ -11958,10 +11847,10 @@
     </row>
     <row r="488" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C488" t="s">
         <v>117</v>
@@ -11971,10 +11860,10 @@
     </row>
     <row r="489" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="C489" t="s">
         <v>117</v>
@@ -11983,10 +11872,10 @@
     </row>
     <row r="490" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C490" t="s">
         <v>117</v>
@@ -11995,10 +11884,10 @@
     </row>
     <row r="491" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C491" t="s">
         <v>117</v>
@@ -12008,10 +11897,10 @@
     </row>
     <row r="492" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="C492" t="s">
         <v>117</v>
@@ -12021,10 +11910,10 @@
     </row>
     <row r="493" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C493" t="s">
         <v>117</v>
@@ -12034,10 +11923,10 @@
     </row>
     <row r="494" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C494" t="s">
         <v>117</v>
@@ -12046,10 +11935,10 @@
     </row>
     <row r="495" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C495" t="s">
         <v>117</v>
@@ -12058,10 +11947,10 @@
     </row>
     <row r="496" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="C496" t="s">
         <v>117</v>
@@ -12071,10 +11960,10 @@
     </row>
     <row r="497" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C497" t="s">
         <v>117</v>
@@ -12084,10 +11973,10 @@
     </row>
     <row r="498" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C498" t="s">
         <v>117</v>
@@ -12097,10 +11986,10 @@
     </row>
     <row r="499" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="C499" t="s">
         <v>117</v>
@@ -12109,10 +11998,10 @@
     </row>
     <row r="500" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C500" t="s">
         <v>117</v>
@@ -12121,10 +12010,10 @@
     </row>
     <row r="501" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="C501" t="s">
         <v>117</v>
@@ -12134,10 +12023,10 @@
     </row>
     <row r="502" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C502" t="s">
         <v>117</v>
@@ -12147,10 +12036,10 @@
     </row>
     <row r="503" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C503" t="s">
         <v>117</v>
@@ -12160,10 +12049,10 @@
     </row>
     <row r="504" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C504" t="s">
         <v>117</v>
@@ -12172,10 +12061,10 @@
     </row>
     <row r="505" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C505" t="s">
         <v>117</v>
@@ -12184,10 +12073,10 @@
     </row>
     <row r="506" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C506" t="s">
         <v>117</v>
@@ -12197,10 +12086,10 @@
     </row>
     <row r="507" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C507" t="s">
         <v>117</v>
@@ -12210,10 +12099,10 @@
     </row>
     <row r="508" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C508" t="s">
         <v>117</v>
@@ -12223,10 +12112,10 @@
     </row>
     <row r="509" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="C509" t="s">
         <v>117</v>
@@ -12235,10 +12124,10 @@
     </row>
     <row r="510" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="C510" t="s">
         <v>117</v>
@@ -12247,10 +12136,10 @@
     </row>
     <row r="511" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="C511" t="s">
         <v>117</v>
@@ -12260,10 +12149,10 @@
     </row>
     <row r="512" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C512" t="s">
         <v>117</v>
@@ -12273,10 +12162,10 @@
     </row>
     <row r="513" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="C513" t="s">
         <v>117</v>
@@ -12286,10 +12175,10 @@
     </row>
     <row r="514" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C514" t="s">
         <v>117</v>
@@ -12298,10 +12187,10 @@
     </row>
     <row r="515" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C515" t="s">
         <v>117</v>
@@ -12310,10 +12199,10 @@
     </row>
     <row r="516" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C516" t="s">
         <v>117</v>
@@ -12323,10 +12212,10 @@
     </row>
     <row r="517" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C517" t="s">
         <v>117</v>
@@ -12336,10 +12225,10 @@
     </row>
     <row r="518" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C518" t="s">
         <v>117</v>
@@ -12349,10 +12238,10 @@
     </row>
     <row r="519" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C519" t="s">
         <v>117</v>
@@ -12361,10 +12250,10 @@
     </row>
     <row r="520" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C520" t="s">
         <v>117</v>
@@ -12373,10 +12262,10 @@
     </row>
     <row r="521" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="C521" t="s">
         <v>117</v>
@@ -12386,10 +12275,10 @@
     </row>
     <row r="522" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="C522" t="s">
         <v>117</v>
@@ -12399,10 +12288,10 @@
     </row>
     <row r="523" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="C523" t="s">
         <v>117</v>
@@ -12412,10 +12301,10 @@
     </row>
     <row r="524" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C524" t="s">
         <v>117</v>
@@ -12424,10 +12313,10 @@
     </row>
     <row r="525" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="C525" t="s">
         <v>117</v>
@@ -12436,10 +12325,10 @@
     </row>
     <row r="526" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C526" t="s">
         <v>117</v>
@@ -12449,10 +12338,10 @@
     </row>
     <row r="527" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C527" t="s">
         <v>117</v>
@@ -12462,10 +12351,10 @@
     </row>
     <row r="528" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="C528" t="s">
         <v>117</v>
@@ -12475,10 +12364,10 @@
     </row>
     <row r="529" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="C529" t="s">
         <v>117</v>
@@ -12487,10 +12376,10 @@
     </row>
     <row r="530" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="C530" t="s">
         <v>117</v>
@@ -12499,10 +12388,10 @@
     </row>
     <row r="531" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C531" t="s">
         <v>117</v>
@@ -12512,10 +12401,10 @@
     </row>
     <row r="532" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C532" t="s">
         <v>117</v>
@@ -12525,10 +12414,10 @@
     </row>
     <row r="533" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="C533" t="s">
         <v>117</v>
@@ -12538,10 +12427,10 @@
     </row>
     <row r="534" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="C534" t="s">
         <v>117</v>
@@ -12550,10 +12439,10 @@
     </row>
     <row r="535" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="C535" t="s">
         <v>117</v>
@@ -12562,10 +12451,10 @@
     </row>
     <row r="536" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="C536" t="s">
         <v>117</v>
@@ -12575,10 +12464,10 @@
     </row>
     <row r="537" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="C537" t="s">
         <v>117</v>
@@ -12588,10 +12477,10 @@
     </row>
     <row r="538" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="C538" t="s">
         <v>117</v>
@@ -12601,10 +12490,10 @@
     </row>
     <row r="539" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="C539" t="s">
         <v>117</v>
@@ -12613,10 +12502,10 @@
     </row>
     <row r="540" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C540" t="s">
         <v>117</v>
@@ -12625,10 +12514,10 @@
     </row>
     <row r="541" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="C541" t="s">
         <v>117</v>
@@ -12638,10 +12527,10 @@
     </row>
     <row r="542" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="C542" t="s">
         <v>117</v>
@@ -12651,10 +12540,10 @@
     </row>
     <row r="543" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C543" t="s">
         <v>117</v>
@@ -12664,10 +12553,10 @@
     </row>
     <row r="544" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="C544" t="s">
         <v>117</v>
@@ -12676,10 +12565,10 @@
     </row>
     <row r="545" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="C545" t="s">
         <v>117</v>
@@ -12688,10 +12577,10 @@
     </row>
     <row r="546" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="C546" t="s">
         <v>117</v>
@@ -12701,10 +12590,10 @@
     </row>
     <row r="547" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="C547" t="s">
         <v>117</v>
@@ -12714,10 +12603,10 @@
     </row>
     <row r="548" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="C548" t="s">
         <v>117</v>
@@ -12727,10 +12616,10 @@
     </row>
     <row r="549" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="C549" t="s">
         <v>117</v>
@@ -12739,10 +12628,10 @@
     </row>
     <row r="550" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="C550" t="s">
         <v>117</v>
@@ -12751,10 +12640,10 @@
     </row>
     <row r="551" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C551" t="s">
         <v>117</v>
@@ -12764,10 +12653,10 @@
     </row>
     <row r="552" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C552" t="s">
         <v>117</v>
@@ -12777,10 +12666,10 @@
     </row>
     <row r="553" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C553" t="s">
         <v>117</v>
@@ -12790,10 +12679,10 @@
     </row>
     <row r="554" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C554" t="s">
         <v>117</v>
@@ -12802,10 +12691,10 @@
     </row>
     <row r="555" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="C555" t="s">
         <v>117</v>
@@ -12814,10 +12703,10 @@
     </row>
     <row r="556" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="C556" t="s">
         <v>117</v>
@@ -12827,10 +12716,10 @@
     </row>
     <row r="557" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="C557" t="s">
         <v>117</v>
@@ -12840,10 +12729,10 @@
     </row>
     <row r="558" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="C558" t="s">
         <v>117</v>
@@ -12853,10 +12742,10 @@
     </row>
     <row r="559" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="C559" t="s">
         <v>117</v>
@@ -12865,10 +12754,10 @@
     </row>
     <row r="560" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="C560" t="s">
         <v>117</v>
@@ -12877,10 +12766,10 @@
     </row>
     <row r="561" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="C561" t="s">
         <v>117</v>
@@ -12890,10 +12779,10 @@
     </row>
     <row r="562" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C562" t="s">
         <v>117</v>
@@ -12903,10 +12792,10 @@
     </row>
     <row r="563" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C563" t="s">
         <v>117</v>
@@ -12916,10 +12805,10 @@
     </row>
     <row r="564" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="C564" t="s">
         <v>117</v>
@@ -12928,10 +12817,10 @@
     </row>
     <row r="565" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C565" t="s">
         <v>117</v>
@@ -12940,10 +12829,10 @@
     </row>
     <row r="566" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C566" t="s">
         <v>117</v>
@@ -12953,10 +12842,10 @@
     </row>
     <row r="567" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C567" t="s">
         <v>117</v>
@@ -12966,10 +12855,10 @@
     </row>
     <row r="568" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C568" t="s">
         <v>117</v>
@@ -12979,10 +12868,10 @@
     </row>
     <row r="569" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C569" t="s">
         <v>117</v>
@@ -12991,10 +12880,10 @@
     </row>
     <row r="570" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C570" t="s">
         <v>117</v>
@@ -13003,10 +12892,10 @@
     </row>
     <row r="571" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C571" t="s">
         <v>117</v>
@@ -13016,10 +12905,10 @@
     </row>
     <row r="572" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C572" t="s">
         <v>117</v>
@@ -13029,10 +12918,10 @@
     </row>
     <row r="573" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="C573" t="s">
         <v>117</v>
@@ -13042,10 +12931,10 @@
     </row>
     <row r="574" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="C574" t="s">
         <v>117</v>
@@ -13054,10 +12943,10 @@
     </row>
     <row r="575" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="C575" t="s">
         <v>117</v>
@@ -13066,10 +12955,10 @@
     </row>
     <row r="576" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C576" t="s">
         <v>117</v>
@@ -13079,10 +12968,10 @@
     </row>
     <row r="577" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="C577" t="s">
         <v>117</v>
@@ -13092,10 +12981,10 @@
     </row>
     <row r="578" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="C578" t="s">
         <v>117</v>
@@ -13105,10 +12994,10 @@
     </row>
     <row r="579" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C579" t="s">
         <v>117</v>
@@ -13117,10 +13006,10 @@
     </row>
     <row r="580" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="C580" t="s">
         <v>117</v>
@@ -13129,10 +13018,10 @@
     </row>
     <row r="581" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="C581" t="s">
         <v>117</v>
@@ -13142,10 +13031,10 @@
     </row>
     <row r="582" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C582" t="s">
         <v>117</v>
@@ -13155,10 +13044,10 @@
     </row>
     <row r="583" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="C583" t="s">
         <v>117</v>
@@ -13168,10 +13057,10 @@
     </row>
     <row r="584" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="C584" t="s">
         <v>117</v>
@@ -13180,10 +13069,10 @@
     </row>
     <row r="585" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="C585" t="s">
         <v>117</v>
@@ -13192,10 +13081,10 @@
     </row>
     <row r="586" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="C586" t="s">
         <v>117</v>
@@ -13205,10 +13094,10 @@
     </row>
     <row r="587" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="C587" t="s">
         <v>117</v>
@@ -13218,10 +13107,10 @@
     </row>
     <row r="588" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C588" t="s">
         <v>117</v>
@@ -13231,10 +13120,10 @@
     </row>
     <row r="589" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C589" t="s">
         <v>117</v>
@@ -13243,10 +13132,10 @@
     </row>
     <row r="590" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C590" t="s">
         <v>117</v>
@@ -13255,10 +13144,10 @@
     </row>
     <row r="591" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="C591" t="s">
         <v>117</v>
@@ -13268,10 +13157,10 @@
     </row>
     <row r="592" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="C592" t="s">
         <v>117</v>
@@ -13281,10 +13170,10 @@
     </row>
     <row r="593" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C593" t="s">
         <v>117</v>
@@ -13294,10 +13183,10 @@
     </row>
     <row r="594" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="C594" t="s">
         <v>117</v>
@@ -13306,10 +13195,10 @@
     </row>
     <row r="595" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="C595" t="s">
         <v>117</v>
@@ -13318,10 +13207,10 @@
     </row>
     <row r="596" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="C596" t="s">
         <v>117</v>
@@ -13331,10 +13220,10 @@
     </row>
     <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="C597" t="s">
         <v>117</v>
@@ -13344,10 +13233,10 @@
     </row>
     <row r="598" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="C598" t="s">
         <v>117</v>
@@ -13357,10 +13246,10 @@
     </row>
     <row r="599" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C599" t="s">
         <v>117</v>
@@ -13369,10 +13258,10 @@
     </row>
     <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C600" t="s">
         <v>117</v>
@@ -13382,10 +13271,10 @@
     </row>
     <row r="601" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="C601" t="s">
         <v>117</v>
@@ -13394,10 +13283,10 @@
     </row>
     <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="C602" t="s">
         <v>117</v>
@@ -13407,10 +13296,10 @@
     </row>
     <row r="603" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="C603" t="s">
         <v>117</v>
@@ -13420,10 +13309,10 @@
     </row>
     <row r="604" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="C604" t="s">
         <v>117</v>
@@ -13432,10 +13321,10 @@
     </row>
     <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C605" t="s">
         <v>117</v>
@@ -13445,10 +13334,10 @@
     </row>
     <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="C606" t="s">
         <v>117</v>
@@ -13457,10 +13346,10 @@
     </row>
     <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C607" t="s">
         <v>117</v>
@@ -13470,10 +13359,10 @@
     </row>
     <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="C608" t="s">
         <v>117</v>
@@ -13483,10 +13372,10 @@
     </row>
     <row r="609" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="C609" t="s">
         <v>117</v>
@@ -13496,10 +13385,10 @@
     </row>
     <row r="610" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="C610" t="s">
         <v>117</v>
@@ -13508,10 +13397,10 @@
     </row>
     <row r="611" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C611" t="s">
         <v>117</v>
@@ -13520,10 +13409,10 @@
     </row>
     <row r="612" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="C612" t="s">
         <v>117</v>
@@ -13533,10 +13422,10 @@
     </row>
     <row r="613" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C613" t="s">
         <v>117</v>
@@ -13546,10 +13435,10 @@
     </row>
     <row r="614" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="C614" t="s">
         <v>117</v>
@@ -13558,10 +13447,10 @@
     </row>
     <row r="615" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="C615" t="s">
         <v>117</v>
@@ -13571,10 +13460,10 @@
     </row>
     <row r="616" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="C616" t="s">
         <v>117</v>
@@ -13584,10 +13473,10 @@
     </row>
     <row r="617" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="C617" t="s">
         <v>117</v>
@@ -13596,10 +13485,10 @@
     </row>
     <row r="618" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="C618" t="s">
         <v>117</v>
@@ -13609,10 +13498,10 @@
     </row>
     <row r="619" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="C619" t="s">
         <v>117</v>
@@ -13621,10 +13510,10 @@
     </row>
     <row r="620" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="C620" t="s">
         <v>117</v>
@@ -13634,10 +13523,10 @@
     </row>
     <row r="621" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="C621" t="s">
         <v>117</v>
@@ -13650,7 +13539,7 @@
         <v>77</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="C622" t="s">
         <v>117</v>
@@ -13662,7 +13551,7 @@
         <v>77</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="C623" t="s">
         <v>117</v>
@@ -13675,7 +13564,7 @@
         <v>77</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="C624" t="s">
         <v>117</v>
@@ -13688,7 +13577,7 @@
         <v>77</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="C625" t="s">
         <v>117</v>
@@ -13701,7 +13590,7 @@
         <v>77</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="C626" t="s">
         <v>117</v>
@@ -13713,7 +13602,7 @@
         <v>77</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="C627" t="s">
         <v>117</v>
@@ -13725,7 +13614,7 @@
         <v>77</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C628" t="s">
         <v>117</v>
@@ -13737,7 +13626,7 @@
         <v>77</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="C629" t="s">
         <v>117</v>
@@ -13749,7 +13638,7 @@
         <v>77</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="C630" t="s">
         <v>117</v>
@@ -13761,7 +13650,7 @@
         <v>77</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C631" t="s">
         <v>117</v>
@@ -13773,7 +13662,7 @@
         <v>77</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="C632" t="s">
         <v>117</v>
@@ -13785,7 +13674,7 @@
         <v>77</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="C633" t="s">
         <v>117</v>
@@ -13797,7 +13686,7 @@
         <v>77</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="C634" t="s">
         <v>117</v>
@@ -13809,7 +13698,7 @@
         <v>77</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="C635" t="s">
         <v>117</v>
@@ -13821,7 +13710,7 @@
         <v>85</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="C636" t="s">
         <v>117</v>
@@ -13833,7 +13722,7 @@
         <v>85</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="C637" t="s">
         <v>117</v>
@@ -13845,7 +13734,7 @@
         <v>85</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="C638" t="s">
         <v>117</v>
@@ -13857,7 +13746,7 @@
         <v>85</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="C639" t="s">
         <v>117</v>
@@ -13869,7 +13758,7 @@
         <v>82</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C640" t="s">
         <v>117</v>
@@ -13881,7 +13770,7 @@
         <v>82</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C641" t="s">
         <v>117</v>
@@ -13893,7 +13782,7 @@
         <v>82</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="C642" t="s">
         <v>117</v>
@@ -13905,7 +13794,7 @@
         <v>82</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="C643" t="s">
         <v>117</v>
@@ -13917,7 +13806,7 @@
         <v>82</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="C644" t="s">
         <v>117</v>
@@ -13929,7 +13818,7 @@
         <v>82</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="C645" t="s">
         <v>117</v>
@@ -13941,7 +13830,7 @@
         <v>82</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="C646" t="s">
         <v>117</v>
@@ -13953,7 +13842,7 @@
         <v>82</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C647" t="s">
         <v>117</v>
@@ -13965,7 +13854,7 @@
         <v>82</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C648" t="s">
         <v>117</v>
@@ -13977,7 +13866,7 @@
         <v>82</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="C649" t="s">
         <v>117</v>
@@ -13989,7 +13878,7 @@
         <v>82</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="C650" t="s">
         <v>117</v>
@@ -14001,7 +13890,7 @@
         <v>82</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C651" t="s">
         <v>117</v>
@@ -14013,7 +13902,7 @@
         <v>82</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="C652" t="s">
         <v>117</v>
@@ -14025,7 +13914,7 @@
         <v>82</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C653" t="s">
         <v>117</v>
@@ -14037,7 +13926,7 @@
         <v>85</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="C654" t="s">
         <v>117</v>
@@ -14049,7 +13938,7 @@
         <v>85</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="C655" t="s">
         <v>117</v>
@@ -14061,7 +13950,7 @@
         <v>85</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="C656" t="s">
         <v>117</v>
@@ -14073,7 +13962,7 @@
         <v>85</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="C657" t="s">
         <v>117</v>
@@ -14085,7 +13974,7 @@
         <v>88</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="C658" t="s">
         <v>117</v>
@@ -14097,7 +13986,7 @@
         <v>88</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="C659" t="s">
         <v>117</v>
@@ -14109,7 +13998,7 @@
         <v>88</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="C660" t="s">
         <v>117</v>
@@ -14121,7 +14010,7 @@
         <v>88</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C661" t="s">
         <v>117</v>
@@ -14133,7 +14022,7 @@
         <v>88</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="C662" t="s">
         <v>117</v>
@@ -14145,7 +14034,7 @@
         <v>88</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="C663" t="s">
         <v>117</v>
@@ -14157,7 +14046,7 @@
         <v>88</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C664" t="s">
         <v>117</v>
@@ -14169,7 +14058,7 @@
         <v>88</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C665" t="s">
         <v>117</v>
@@ -14181,7 +14070,7 @@
         <v>88</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="C666" t="s">
         <v>117</v>
@@ -14193,7 +14082,7 @@
         <v>88</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C667" t="s">
         <v>117</v>
@@ -14205,7 +14094,7 @@
         <v>88</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="C668" t="s">
         <v>117</v>
@@ -14217,7 +14106,7 @@
         <v>88</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="C669" t="s">
         <v>117</v>
@@ -14229,7 +14118,7 @@
         <v>88</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="C670" t="s">
         <v>117</v>
@@ -14241,7 +14130,7 @@
         <v>88</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="C671" t="s">
         <v>117</v>
@@ -14253,7 +14142,7 @@
         <v>97</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C672" t="s">
         <v>117</v>
@@ -14265,7 +14154,7 @@
         <v>97</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C673" t="s">
         <v>117</v>
@@ -14277,7 +14166,7 @@
         <v>97</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C674" t="s">
         <v>117</v>
@@ -14289,7 +14178,7 @@
         <v>97</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C675" t="s">
         <v>117</v>
@@ -14301,7 +14190,7 @@
         <v>94</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="C676" t="s">
         <v>117</v>
@@ -14313,7 +14202,7 @@
         <v>94</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="C677" t="s">
         <v>117</v>
@@ -14325,7 +14214,7 @@
         <v>94</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="C678" t="s">
         <v>117</v>
@@ -14337,7 +14226,7 @@
         <v>94</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="C679" t="s">
         <v>117</v>
@@ -14349,7 +14238,7 @@
         <v>94</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="C680" t="s">
         <v>117</v>
@@ -14361,7 +14250,7 @@
         <v>94</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="C681" t="s">
         <v>117</v>
@@ -14373,7 +14262,7 @@
         <v>94</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="C682" t="s">
         <v>117</v>
@@ -14385,7 +14274,7 @@
         <v>94</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="C683" t="s">
         <v>117</v>
@@ -14397,7 +14286,7 @@
         <v>94</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="C684" t="s">
         <v>117</v>
@@ -14409,7 +14298,7 @@
         <v>94</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="C685" t="s">
         <v>117</v>
@@ -14421,7 +14310,7 @@
         <v>94</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C686" t="s">
         <v>117</v>
@@ -14433,7 +14322,7 @@
         <v>94</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="C687" t="s">
         <v>117</v>
@@ -14445,7 +14334,7 @@
         <v>94</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="C688" t="s">
         <v>117</v>
@@ -14457,7 +14346,7 @@
         <v>94</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C689" t="s">
         <v>117</v>
@@ -14469,7 +14358,7 @@
         <v>94</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="C690" t="s">
         <v>117</v>
@@ -14481,7 +14370,7 @@
         <v>94</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C691" t="s">
         <v>117</v>
@@ -14493,7 +14382,7 @@
         <v>94</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="C692" t="s">
         <v>117</v>
@@ -14505,7 +14394,7 @@
         <v>94</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="C693" t="s">
         <v>117</v>
@@ -14517,7 +14406,7 @@
         <v>94</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="C694" t="s">
         <v>117</v>
@@ -14529,7 +14418,7 @@
         <v>94</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="C695" t="s">
         <v>117</v>
@@ -14541,7 +14430,7 @@
         <v>94</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="C696" t="s">
         <v>117</v>
@@ -14553,7 +14442,7 @@
         <v>94</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="C697" t="s">
         <v>117</v>
@@ -14565,7 +14454,7 @@
         <v>94</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="C698" t="s">
         <v>117</v>
@@ -14577,7 +14466,7 @@
         <v>94</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="C699" t="s">
         <v>117</v>
@@ -14589,7 +14478,7 @@
         <v>94</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="C700" t="s">
         <v>117</v>
@@ -14601,7 +14490,7 @@
         <v>94</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="C701" t="s">
         <v>117</v>
@@ -14613,7 +14502,7 @@
         <v>94</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="C702" t="s">
         <v>117</v>
@@ -14625,7 +14514,7 @@
         <v>94</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="C703" t="s">
         <v>117</v>
@@ -14637,7 +14526,7 @@
         <v>94</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="C704" t="s">
         <v>117</v>
@@ -14649,7 +14538,7 @@
         <v>94</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="C705" t="s">
         <v>117</v>
@@ -14661,7 +14550,7 @@
         <v>94</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C706" t="s">
         <v>117</v>
@@ -14673,7 +14562,7 @@
         <v>94</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="C707" t="s">
         <v>117</v>
@@ -14685,7 +14574,7 @@
         <v>94</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="C708" t="s">
         <v>117</v>
@@ -14697,7 +14586,7 @@
         <v>94</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C709" t="s">
         <v>117</v>
@@ -14709,7 +14598,7 @@
         <v>94</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="C710" t="s">
         <v>117</v>
@@ -14721,7 +14610,7 @@
         <v>94</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C711" t="s">
         <v>117</v>
@@ -14733,7 +14622,7 @@
         <v>94</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="C712" t="s">
         <v>117</v>
@@ -14745,7 +14634,7 @@
         <v>94</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="C713" t="s">
         <v>117</v>
@@ -14757,7 +14646,7 @@
         <v>94</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="C714" t="s">
         <v>117</v>
@@ -14769,7 +14658,7 @@
         <v>94</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="C715" t="s">
         <v>117</v>
@@ -14781,7 +14670,7 @@
         <v>103</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="C716" t="s">
         <v>117</v>
@@ -14793,7 +14682,7 @@
         <v>103</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C717" t="s">
         <v>117</v>
@@ -14805,7 +14694,7 @@
         <v>103</v>
       </c>
       <c r="B718" s="8" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="C718" t="s">
         <v>117</v>
@@ -14817,7 +14706,7 @@
         <v>103</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="C719" t="s">
         <v>117</v>
@@ -14829,7 +14718,7 @@
         <v>100</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="C720" t="s">
         <v>117</v>
@@ -14841,7 +14730,7 @@
         <v>100</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="C721" t="s">
         <v>117</v>
@@ -14853,7 +14742,7 @@
         <v>100</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C722" t="s">
         <v>117</v>
@@ -14865,7 +14754,7 @@
         <v>100</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C723" t="s">
         <v>117</v>
@@ -14877,7 +14766,7 @@
         <v>100</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="C724" t="s">
         <v>117</v>
@@ -14889,7 +14778,7 @@
         <v>100</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="C725" t="s">
         <v>117</v>
@@ -14901,7 +14790,7 @@
         <v>100</v>
       </c>
       <c r="B726" s="8" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="C726" t="s">
         <v>117</v>
@@ -14913,7 +14802,7 @@
         <v>100</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="C727" t="s">
         <v>117</v>
@@ -14925,7 +14814,7 @@
         <v>100</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="C728" t="s">
         <v>117</v>
@@ -14937,7 +14826,7 @@
         <v>100</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C729" t="s">
         <v>117</v>
@@ -14949,7 +14838,7 @@
         <v>100</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="C730" t="s">
         <v>117</v>
@@ -14961,7 +14850,7 @@
         <v>100</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="C731" t="s">
         <v>117</v>
@@ -14973,7 +14862,7 @@
         <v>100</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="C732" t="s">
         <v>117</v>
@@ -14985,7 +14874,7 @@
         <v>100</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="C733" t="s">
         <v>117</v>
@@ -14997,7 +14886,7 @@
         <v>114</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="C734" t="s">
         <v>117</v>
@@ -15009,7 +14898,7 @@
         <v>114</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="C735" t="s">
         <v>117</v>
@@ -15021,7 +14910,7 @@
         <v>114</v>
       </c>
       <c r="B736" s="8" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="C736" t="s">
         <v>117</v>
@@ -15033,7 +14922,7 @@
         <v>114</v>
       </c>
       <c r="B737" s="8" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="C737" t="s">
         <v>117</v>
@@ -15045,7 +14934,7 @@
         <v>109</v>
       </c>
       <c r="B738" s="8" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="C738" t="s">
         <v>117</v>
@@ -15057,7 +14946,7 @@
         <v>109</v>
       </c>
       <c r="B739" s="8" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="C739" t="s">
         <v>117</v>
@@ -15069,7 +14958,7 @@
         <v>109</v>
       </c>
       <c r="B740" s="8" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="C740" t="s">
         <v>117</v>
@@ -15081,7 +14970,7 @@
         <v>109</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="C741" t="s">
         <v>117</v>
@@ -15093,7 +14982,7 @@
         <v>109</v>
       </c>
       <c r="B742" s="8" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C742" t="s">
         <v>117</v>
@@ -15105,7 +14994,7 @@
         <v>109</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="C743" t="s">
         <v>117</v>
@@ -15117,7 +15006,7 @@
         <v>109</v>
       </c>
       <c r="B744" s="8" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="C744" t="s">
         <v>117</v>
@@ -15129,7 +15018,7 @@
         <v>109</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="C745" t="s">
         <v>117</v>
@@ -15141,7 +15030,7 @@
         <v>109</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="C746" t="s">
         <v>117</v>
@@ -15153,7 +15042,7 @@
         <v>109</v>
       </c>
       <c r="B747" s="8" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="C747" t="s">
         <v>117</v>
@@ -15165,7 +15054,7 @@
         <v>109</v>
       </c>
       <c r="B748" s="8" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="C748" t="s">
         <v>117</v>
@@ -15177,7 +15066,7 @@
         <v>109</v>
       </c>
       <c r="B749" s="8" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="C749" t="s">
         <v>117</v>
@@ -15189,7 +15078,7 @@
         <v>109</v>
       </c>
       <c r="B750" s="8" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="C750" t="s">
         <v>117</v>
@@ -15201,7 +15090,7 @@
         <v>109</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="C751" t="s">
         <v>117</v>
@@ -15213,7 +15102,7 @@
         <v>106</v>
       </c>
       <c r="B752" s="8" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="C752" t="s">
         <v>117</v>
@@ -15225,7 +15114,7 @@
         <v>106</v>
       </c>
       <c r="B753" s="8" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="C753" t="s">
         <v>117</v>
@@ -15237,7 +15126,7 @@
         <v>106</v>
       </c>
       <c r="B754" s="8" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="C754" t="s">
         <v>117</v>
@@ -15249,7 +15138,7 @@
         <v>106</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="C755" t="s">
         <v>117</v>
@@ -15261,7 +15150,7 @@
         <v>106</v>
       </c>
       <c r="B756" s="8" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="C756" t="s">
         <v>117</v>
@@ -15273,7 +15162,7 @@
         <v>106</v>
       </c>
       <c r="B757" s="8" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="C757" t="s">
         <v>117</v>
@@ -15285,7 +15174,7 @@
         <v>106</v>
       </c>
       <c r="B758" s="8" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="C758" t="s">
         <v>117</v>
@@ -15297,7 +15186,7 @@
         <v>106</v>
       </c>
       <c r="B759" s="8" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="C759" t="s">
         <v>117</v>
@@ -15309,7 +15198,7 @@
         <v>106</v>
       </c>
       <c r="B760" s="8" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="C760" t="s">
         <v>117</v>
@@ -15321,7 +15210,7 @@
         <v>106</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
       <c r="C761" t="s">
         <v>117</v>
@@ -15333,7 +15222,7 @@
         <v>106</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="C762" t="s">
         <v>117</v>
@@ -15345,7 +15234,7 @@
         <v>106</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="C763" t="s">
         <v>117</v>
@@ -15357,7 +15246,7 @@
         <v>106</v>
       </c>
       <c r="B764" s="8" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="C764" t="s">
         <v>117</v>
@@ -15369,7 +15258,7 @@
         <v>106</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="C765" t="s">
         <v>117</v>
@@ -15381,7 +15270,7 @@
         <v>106</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="C766" t="s">
         <v>117</v>
@@ -15393,7 +15282,7 @@
         <v>106</v>
       </c>
       <c r="B767" s="8" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C767" t="s">
         <v>117</v>
@@ -15405,7 +15294,7 @@
         <v>106</v>
       </c>
       <c r="B768" s="8" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="C768" t="s">
         <v>117</v>
@@ -15417,7 +15306,7 @@
         <v>106</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="C769" t="s">
         <v>117</v>
@@ -15429,7 +15318,7 @@
         <v>62</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="C770" s="7" t="s">
         <v>135</v>
@@ -15441,7 +15330,7 @@
         <v>71</v>
       </c>
       <c r="B771" s="8" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="C771" s="7" t="s">
         <v>135</v>
@@ -15453,7 +15342,7 @@
         <v>77</v>
       </c>
       <c r="B772" s="8" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="C772" s="7" t="s">
         <v>135</v>
@@ -15465,7 +15354,7 @@
         <v>82</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="C773" s="7" t="s">
         <v>135</v>
@@ -15477,7 +15366,7 @@
         <v>88</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>135</v>
@@ -15489,7 +15378,7 @@
         <v>94</v>
       </c>
       <c r="B775" s="8" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>135</v>
@@ -15501,7 +15390,7 @@
         <v>100</v>
       </c>
       <c r="B776" s="8" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="C776" s="7" t="s">
         <v>135</v>
@@ -15513,7 +15402,7 @@
         <v>109</v>
       </c>
       <c r="B777" s="8" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="C777" s="7" t="s">
         <v>135</v>
@@ -15522,10 +15411,10 @@
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B778" s="8" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="C778" s="7" t="s">
         <v>127</v>
@@ -15534,10 +15423,10 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B779" s="8" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="C779" s="7" t="s">
         <v>123</v>
@@ -15546,10 +15435,10 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B780" s="8" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="C780" s="7" t="s">
         <v>127</v>
@@ -15558,10 +15447,10 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B781" s="8" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="C781" s="7" t="s">
         <v>123</v>
@@ -15570,10 +15459,10 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B782" s="8" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="C782" s="7" t="s">
         <v>127</v>
@@ -15582,10 +15471,10 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="C783" s="7" t="s">
         <v>123</v>
@@ -15594,10 +15483,10 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B784" s="8" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="C784" s="7" t="s">
         <v>127</v>
@@ -15606,10 +15495,10 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B785" s="8" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="C785" s="7" t="s">
         <v>123</v>
@@ -15618,10 +15507,10 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>127</v>
@@ -15630,10 +15519,10 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B787" s="8" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>123</v>
@@ -15642,10 +15531,10 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B788" s="8" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>127</v>
@@ -15654,10 +15543,10 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B789" s="8" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>123</v>
@@ -15666,10 +15555,10 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>127</v>
@@ -15678,10 +15567,10 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B791" s="8" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="C791" s="7" t="s">
         <v>123</v>
@@ -15690,10 +15579,10 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B792" s="8" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>127</v>
@@ -15702,10 +15591,10 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B793" s="8" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="C793" s="7" t="s">
         <v>123</v>
@@ -15714,10 +15603,10 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B794" s="8" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>127</v>
@@ -15726,10 +15615,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B795" s="8" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="C795" s="7" t="s">
         <v>123</v>
@@ -15738,10 +15627,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B796" s="8" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="C796" s="7" t="s">
         <v>127</v>
@@ -15750,10 +15639,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
       <c r="C797" s="7" t="s">
         <v>123</v>
@@ -15762,10 +15651,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B798" s="8" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
       <c r="C798" s="7" t="s">
         <v>127</v>
@@ -15774,10 +15663,10 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B799" s="8" t="s">
-        <v>654</v>
+        <v>616</v>
       </c>
       <c r="C799" s="7" t="s">
         <v>123</v>
@@ -15789,7 +15678,7 @@
         <v>65</v>
       </c>
       <c r="B800" s="8" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C800" s="7" t="s">
         <v>127</v>
@@ -15801,7 +15690,7 @@
         <v>65</v>
       </c>
       <c r="B801" s="8" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C801" s="7" t="s">
         <v>123</v>
@@ -15813,7 +15702,7 @@
         <v>65</v>
       </c>
       <c r="B802" s="8" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C802" s="7" t="s">
         <v>127</v>
@@ -15825,7 +15714,7 @@
         <v>65</v>
       </c>
       <c r="B803" s="8" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C803" s="7" t="s">
         <v>123</v>
@@ -15837,7 +15726,7 @@
         <v>62</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="C804" s="7" t="s">
         <v>127</v>
@@ -15849,7 +15738,7 @@
         <v>62</v>
       </c>
       <c r="B805" s="8" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="C805" s="7" t="s">
         <v>123</v>
@@ -15861,7 +15750,7 @@
         <v>74</v>
       </c>
       <c r="B806" s="8" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="C806" s="7" t="s">
         <v>127</v>
@@ -15873,7 +15762,7 @@
         <v>74</v>
       </c>
       <c r="B807" s="8" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="C807" s="7" t="s">
         <v>123</v>
@@ -15885,7 +15774,7 @@
         <v>74</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="C808" s="7" t="s">
         <v>127</v>
@@ -15897,7 +15786,7 @@
         <v>74</v>
       </c>
       <c r="B809" s="8" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="C809" s="7" t="s">
         <v>123</v>
@@ -15909,7 +15798,7 @@
         <v>71</v>
       </c>
       <c r="B810" s="8" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="C810" s="7" t="s">
         <v>127</v>
@@ -15921,7 +15810,7 @@
         <v>71</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="C811" s="7" t="s">
         <v>123</v>
@@ -15930,10 +15819,10 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B812" s="8" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="C812" s="7" t="s">
         <v>127</v>
@@ -15942,10 +15831,10 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B813" s="8" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C813" s="7" t="s">
         <v>123</v>
@@ -15954,10 +15843,10 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B814" s="8" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="C814" s="7" t="s">
         <v>127</v>
@@ -15966,10 +15855,10 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B815" s="8" t="s">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="C815" s="7" t="s">
         <v>123</v>
@@ -15978,10 +15867,10 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B816" s="8" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="C816" s="7" t="s">
         <v>127</v>
@@ -15990,10 +15879,10 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B817" s="8" t="s">
-        <v>602</v>
+        <v>564</v>
       </c>
       <c r="C817" s="7" t="s">
         <v>123</v>
@@ -16002,10 +15891,10 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B818" s="8" t="s">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="C818" s="7" t="s">
         <v>127</v>
@@ -16014,10 +15903,10 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="B819" s="8" t="s">
-        <v>604</v>
+        <v>566</v>
       </c>
       <c r="C819" s="7" t="s">
         <v>123</v>
@@ -16026,10 +15915,10 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="C820" s="7" t="s">
         <v>127</v>
@@ -16038,10 +15927,10 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="C821" s="7" t="s">
         <v>123</v>
@@ -16053,7 +15942,7 @@
         <v>77</v>
       </c>
       <c r="B822" s="8" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="C822" s="7" t="s">
         <v>127</v>
@@ -16065,7 +15954,7 @@
         <v>77</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="C823" s="7" t="s">
         <v>123</v>
@@ -16077,7 +15966,7 @@
         <v>85</v>
       </c>
       <c r="B824" s="8" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
       <c r="C824" s="7" t="s">
         <v>127</v>
@@ -16089,7 +15978,7 @@
         <v>85</v>
       </c>
       <c r="B825" s="8" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="C825" s="7" t="s">
         <v>123</v>
@@ -16101,7 +15990,7 @@
         <v>85</v>
       </c>
       <c r="B826" s="8" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="C826" s="7" t="s">
         <v>127</v>
@@ -16113,7 +16002,7 @@
         <v>85</v>
       </c>
       <c r="B827" s="8" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
       <c r="C827" s="7" t="s">
         <v>123</v>
@@ -16125,7 +16014,7 @@
         <v>82</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="C828" s="7" t="s">
         <v>127</v>
@@ -16137,7 +16026,7 @@
         <v>82</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="C829" s="7" t="s">
         <v>123</v>
@@ -16149,7 +16038,7 @@
         <v>82</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="C830" s="7" t="s">
         <v>127</v>
@@ -16161,7 +16050,7 @@
         <v>82</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="C831" s="7" t="s">
         <v>123</v>
@@ -16173,7 +16062,7 @@
         <v>91</v>
       </c>
       <c r="B832" s="8" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="C832" s="7" t="s">
         <v>127</v>
@@ -16185,7 +16074,7 @@
         <v>91</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="C833" s="7" t="s">
         <v>123</v>
@@ -16197,7 +16086,7 @@
         <v>91</v>
       </c>
       <c r="B834" s="8" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="C834" s="7" t="s">
         <v>127</v>
@@ -16209,7 +16098,7 @@
         <v>91</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="C835" s="7" t="s">
         <v>123</v>
@@ -16221,7 +16110,7 @@
         <v>88</v>
       </c>
       <c r="B836" s="8" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="C836" s="7" t="s">
         <v>127</v>
@@ -16233,7 +16122,7 @@
         <v>88</v>
       </c>
       <c r="B837" s="8" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="C837" s="7" t="s">
         <v>123</v>
@@ -16245,7 +16134,7 @@
         <v>97</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="C838" s="7" t="s">
         <v>127</v>
@@ -16257,7 +16146,7 @@
         <v>97</v>
       </c>
       <c r="B839" s="8" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="C839" s="7" t="s">
         <v>123</v>
@@ -16269,7 +16158,7 @@
         <v>97</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="C840" s="7" t="s">
         <v>127</v>
@@ -16281,7 +16170,7 @@
         <v>97</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="C841" s="7" t="s">
         <v>123</v>
@@ -16293,7 +16182,7 @@
         <v>94</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="C842" s="7" t="s">
         <v>127</v>
@@ -16305,7 +16194,7 @@
         <v>94</v>
       </c>
       <c r="B843" s="8" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="C843" s="7" t="s">
         <v>123</v>
@@ -16317,7 +16206,7 @@
         <v>103</v>
       </c>
       <c r="B844" s="8" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C844" s="7" t="s">
         <v>127</v>
@@ -16329,7 +16218,7 @@
         <v>103</v>
       </c>
       <c r="B845" s="8" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="C845" s="7" t="s">
         <v>123</v>
@@ -16341,7 +16230,7 @@
         <v>103</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C846" s="7" t="s">
         <v>127</v>
@@ -16353,7 +16242,7 @@
         <v>103</v>
       </c>
       <c r="B847" s="8" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="C847" s="7" t="s">
         <v>123</v>
@@ -16365,7 +16254,7 @@
         <v>100</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C848" s="7" t="s">
         <v>127</v>
@@ -16377,7 +16266,7 @@
         <v>100</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="C849" s="7" t="s">
         <v>123</v>
@@ -16389,7 +16278,7 @@
         <v>114</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="C850" s="7" t="s">
         <v>127</v>
@@ -16401,7 +16290,7 @@
         <v>114</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="C851" s="7" t="s">
         <v>123</v>
@@ -16413,7 +16302,7 @@
         <v>114</v>
       </c>
       <c r="B852" s="8" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="C852" s="7" t="s">
         <v>127</v>
@@ -16425,7 +16314,7 @@
         <v>114</v>
       </c>
       <c r="B853" s="8" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="C853" s="7" t="s">
         <v>123</v>
@@ -16437,7 +16326,7 @@
         <v>109</v>
       </c>
       <c r="B854" s="8" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="C854" s="7" t="s">
         <v>127</v>
@@ -16449,7 +16338,7 @@
         <v>109</v>
       </c>
       <c r="B855" s="8" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="C855" s="7" t="s">
         <v>123</v>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F41D68-07BF-4247-B1E4-525559D65704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29F86A-DB0A-4C0C-847C-B2946362E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,18 +476,6 @@
     <t>mts_09_zone_air_relative_humid_s</t>
   </si>
   <si>
-    <t>SF_02_run_command</t>
-  </si>
-  <si>
-    <t>SF_02_run_status</t>
-  </si>
-  <si>
-    <t>SF_02_control_mode</t>
-  </si>
-  <si>
-    <t>SF_02_lost_power_alarm</t>
-  </si>
-  <si>
     <t>cb_10_run_status</t>
   </si>
   <si>
@@ -1928,103 +1916,115 @@
     <t>return_air_relative_humidity_sen</t>
   </si>
   <si>
-    <t>SF_01_run_status</t>
-  </si>
-  <si>
-    <t>SF_01_control_mode</t>
-  </si>
-  <si>
-    <t>SF_01_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_01_run_command</t>
-  </si>
-  <si>
-    <t>SF_03_run_command</t>
-  </si>
-  <si>
-    <t>SF_03_run_status</t>
-  </si>
-  <si>
-    <t>SF_03_control_mode</t>
-  </si>
-  <si>
-    <t>SF_03_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_04_run_command</t>
-  </si>
-  <si>
-    <t>SF_04_run_status</t>
-  </si>
-  <si>
-    <t>SF_04_control_mode</t>
-  </si>
-  <si>
-    <t>SF_04_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_05_run_command</t>
-  </si>
-  <si>
-    <t>SF_05_run_status</t>
-  </si>
-  <si>
-    <t>SF_05_control_mode</t>
-  </si>
-  <si>
-    <t>SF_05_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_06_run_command</t>
-  </si>
-  <si>
-    <t>SF_06_run_status</t>
-  </si>
-  <si>
-    <t>SF_06_control_mode</t>
-  </si>
-  <si>
-    <t>SF_06_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_07_run_command</t>
-  </si>
-  <si>
-    <t>SF_07_run_status</t>
-  </si>
-  <si>
-    <t>SF_07_control_mode</t>
-  </si>
-  <si>
-    <t>SF_07_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_08_run_command</t>
-  </si>
-  <si>
-    <t>SF_08_run_status</t>
-  </si>
-  <si>
-    <t>SF_08_control_mode</t>
-  </si>
-  <si>
-    <t>SF_08_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>SF_09_run_command</t>
-  </si>
-  <si>
-    <t>SF_09_run_status</t>
-  </si>
-  <si>
-    <t>SF_09_control_mode</t>
-  </si>
-  <si>
-    <t>SF_09_lost_power_alarm</t>
-  </si>
-  <si>
     <t>DDC-10</t>
+  </si>
+  <si>
+    <t>sf_01_run_status</t>
+  </si>
+  <si>
+    <t>sf_01_control_mode</t>
+  </si>
+  <si>
+    <t>sf_01_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_02_run_command</t>
+  </si>
+  <si>
+    <t>sf_02_run_status</t>
+  </si>
+  <si>
+    <t>sf_02_control_mode</t>
+  </si>
+  <si>
+    <t>sf_02_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_03_run_command</t>
+  </si>
+  <si>
+    <t>sf_03_run_status</t>
+  </si>
+  <si>
+    <t>sf_03_control_mode</t>
+  </si>
+  <si>
+    <t>sf_03_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_04_run_command</t>
+  </si>
+  <si>
+    <t>sf_04_run_status</t>
+  </si>
+  <si>
+    <t>sf_04_control_mode</t>
+  </si>
+  <si>
+    <t>sf_04_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_05_run_command</t>
+  </si>
+  <si>
+    <t>sf_05_run_status</t>
+  </si>
+  <si>
+    <t>sf_05_control_mode</t>
+  </si>
+  <si>
+    <t>sf_05_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_06_run_command</t>
+  </si>
+  <si>
+    <t>sf_06_run_status</t>
+  </si>
+  <si>
+    <t>sf_06_control_mode</t>
+  </si>
+  <si>
+    <t>sf_06_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_07_run_command</t>
+  </si>
+  <si>
+    <t>sf_07_run_status</t>
+  </si>
+  <si>
+    <t>sf_07_control_mode</t>
+  </si>
+  <si>
+    <t>sf_07_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_08_run_command</t>
+  </si>
+  <si>
+    <t>sf_08_run_status</t>
+  </si>
+  <si>
+    <t>sf_08_control_mode</t>
+  </si>
+  <si>
+    <t>sf_08_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_09_run_command</t>
+  </si>
+  <si>
+    <t>sf_09_run_status</t>
+  </si>
+  <si>
+    <t>sf_09_control_mode</t>
+  </si>
+  <si>
+    <t>sf_09_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>sf_01_run_command</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3144,10 +3144,10 @@
         <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M9" t="s">
         <v>60</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -3784,16 +3784,16 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="J22" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M22" t="s">
         <v>60</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -3834,16 +3834,16 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M23" t="s">
         <v>60</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M24" t="s">
         <v>60</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -3934,16 +3934,16 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M25" t="s">
         <v>60</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3984,16 +3984,16 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M26" t="s">
         <v>60</v>
@@ -5774,8 +5774,8 @@
   <dimension ref="A1:G1372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D672" sqref="D672"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6053,7 +6053,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>123</v>
@@ -6065,7 +6065,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>135</v>
@@ -6217,7 +6217,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C33" t="s">
         <v>117</v>
@@ -6306,7 +6306,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>135</v>
@@ -6319,7 +6319,7 @@
         <v>62</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>123</v>
@@ -6559,7 +6559,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>135</v>
@@ -6571,7 +6571,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>123</v>
@@ -6808,7 +6808,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>135</v>
@@ -6821,7 +6821,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>123</v>
@@ -7062,7 +7062,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>135</v>
@@ -7075,7 +7075,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>123</v>
@@ -7315,7 +7315,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>135</v>
@@ -7327,7 +7327,7 @@
         <v>74</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>123</v>
@@ -7565,7 +7565,7 @@
         <v>77</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C140" s="17" t="s">
         <v>135</v>
@@ -7578,7 +7578,7 @@
         <v>77</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C141" s="17" t="s">
         <v>123</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>116</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>118</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>119</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>120</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>121</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>122</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>124</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>126</v>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>128</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>129</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>130</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>131</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>132</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>133</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>134</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B157" s="17" t="s">
         <v>136</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>137</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>138</v>
@@ -7816,10 +7816,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>135</v>
@@ -7828,10 +7828,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>123</v>
@@ -8068,7 +8068,7 @@
         <v>82</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>135</v>
@@ -8081,7 +8081,7 @@
         <v>82</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C181" s="17" t="s">
         <v>123</v>
@@ -8233,7 +8233,7 @@
         <v>85</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C193" t="s">
         <v>117</v>
@@ -8322,7 +8322,7 @@
         <v>85</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>135</v>
@@ -8335,7 +8335,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>123</v>
@@ -8575,7 +8575,7 @@
         <v>88</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>135</v>
@@ -8587,7 +8587,7 @@
         <v>88</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>123</v>
@@ -8825,7 +8825,7 @@
         <v>91</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C240" s="17" t="s">
         <v>135</v>
@@ -8838,7 +8838,7 @@
         <v>91</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C241" s="17" t="s">
         <v>123</v>
@@ -9079,7 +9079,7 @@
         <v>94</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C260" s="17" t="s">
         <v>135</v>
@@ -9091,7 +9091,7 @@
         <v>94</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C261" s="17" t="s">
         <v>123</v>
@@ -9328,7 +9328,7 @@
         <v>97</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C280" s="17" t="s">
         <v>135</v>
@@ -9341,7 +9341,7 @@
         <v>97</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C281" s="17" t="s">
         <v>123</v>
@@ -9582,7 +9582,7 @@
         <v>100</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C300" s="17" t="s">
         <v>135</v>
@@ -9595,7 +9595,7 @@
         <v>100</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C301" s="17" t="s">
         <v>123</v>
@@ -9835,7 +9835,7 @@
         <v>103</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C320" s="17" t="s">
         <v>135</v>
@@ -9847,7 +9847,7 @@
         <v>103</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C321" s="17" t="s">
         <v>123</v>
@@ -10085,7 +10085,7 @@
         <v>106</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C340" s="17" t="s">
         <v>135</v>
@@ -10098,7 +10098,7 @@
         <v>106</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C341" s="17" t="s">
         <v>123</v>
@@ -10339,7 +10339,7 @@
         <v>109</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C360" s="17" t="s">
         <v>135</v>
@@ -10351,7 +10351,7 @@
         <v>109</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C361" s="17" t="s">
         <v>123</v>
@@ -10588,7 +10588,7 @@
         <v>112</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C380" s="17" t="s">
         <v>135</v>
@@ -10601,7 +10601,7 @@
         <v>112</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C381" s="17" t="s">
         <v>123</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B393" s="17" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C393" t="s">
         <v>117</v>
@@ -10842,7 +10842,7 @@
         <v>114</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C400" s="17" t="s">
         <v>135</v>
@@ -10855,7 +10855,7 @@
         <v>114</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C401" s="17" t="s">
         <v>123</v>
@@ -10868,7 +10868,7 @@
         <v>68</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="C402" t="s">
         <v>117</v>
@@ -10881,7 +10881,7 @@
         <v>68</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C403" t="s">
         <v>117</v>
@@ -10894,7 +10894,7 @@
         <v>68</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C404" t="s">
         <v>117</v>
@@ -10906,7 +10906,7 @@
         <v>68</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C405" t="s">
         <v>117</v>
@@ -10918,7 +10918,7 @@
         <v>56</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>147</v>
+        <v>631</v>
       </c>
       <c r="C406" t="s">
         <v>117</v>
@@ -10930,7 +10930,7 @@
         <v>56</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>148</v>
+        <v>632</v>
       </c>
       <c r="C407" t="s">
         <v>117</v>
@@ -10942,7 +10942,7 @@
         <v>56</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>149</v>
+        <v>633</v>
       </c>
       <c r="C408" t="s">
         <v>117</v>
@@ -10954,7 +10954,7 @@
         <v>56</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>150</v>
+        <v>634</v>
       </c>
       <c r="C409" t="s">
         <v>117</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="414" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>639</v>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="415" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>640</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="416" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>641</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="417" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>642</v>
@@ -11059,7 +11059,7 @@
     </row>
     <row r="418" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>643</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="419" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>644</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="420" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>645</v>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="421" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>646</v>
@@ -11299,10 +11299,10 @@
     </row>
     <row r="438" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C438" t="s">
         <v>117</v>
@@ -11312,10 +11312,10 @@
     </row>
     <row r="439" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C439" t="s">
         <v>117</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="440" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C440" t="s">
         <v>117</v>
@@ -11338,10 +11338,10 @@
     </row>
     <row r="441" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C441" t="s">
         <v>117</v>
@@ -11350,10 +11350,10 @@
     </row>
     <row r="442" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C442" t="s">
         <v>117</v>
@@ -11362,10 +11362,10 @@
     </row>
     <row r="443" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C443" t="s">
         <v>117</v>
@@ -11375,10 +11375,10 @@
     </row>
     <row r="444" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C444" t="s">
         <v>117</v>
@@ -11388,10 +11388,10 @@
     </row>
     <row r="445" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C445" t="s">
         <v>117</v>
@@ -11401,10 +11401,10 @@
     </row>
     <row r="446" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C446" t="s">
         <v>117</v>
@@ -11413,10 +11413,10 @@
     </row>
     <row r="447" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C447" t="s">
         <v>117</v>
@@ -11425,10 +11425,10 @@
     </row>
     <row r="448" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C448" t="s">
         <v>117</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="449" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C449" t="s">
         <v>117</v>
@@ -11451,10 +11451,10 @@
     </row>
     <row r="450" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C450" t="s">
         <v>117</v>
@@ -11464,10 +11464,10 @@
     </row>
     <row r="451" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C451" t="s">
         <v>117</v>
@@ -11476,10 +11476,10 @@
     </row>
     <row r="452" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C452" t="s">
         <v>117</v>
@@ -11488,10 +11488,10 @@
     </row>
     <row r="453" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C453" t="s">
         <v>117</v>
@@ -11501,10 +11501,10 @@
     </row>
     <row r="454" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C454" t="s">
         <v>117</v>
@@ -11514,10 +11514,10 @@
     </row>
     <row r="455" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C455" t="s">
         <v>117</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="456" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C456" t="s">
         <v>117</v>
@@ -11539,10 +11539,10 @@
     </row>
     <row r="457" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C457" t="s">
         <v>117</v>
@@ -11551,10 +11551,10 @@
     </row>
     <row r="458" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C458" t="s">
         <v>117</v>
@@ -11564,10 +11564,10 @@
     </row>
     <row r="459" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C459" t="s">
         <v>117</v>
@@ -11577,10 +11577,10 @@
     </row>
     <row r="460" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C460" t="s">
         <v>117</v>
@@ -11590,10 +11590,10 @@
     </row>
     <row r="461" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C461" t="s">
         <v>117</v>
@@ -11602,10 +11602,10 @@
     </row>
     <row r="462" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C462" t="s">
         <v>117</v>
@@ -11614,10 +11614,10 @@
     </row>
     <row r="463" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C463" t="s">
         <v>117</v>
@@ -11680,7 +11680,7 @@
         <v>62</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C468" t="s">
         <v>117</v>
@@ -11693,7 +11693,7 @@
         <v>62</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C469" t="s">
         <v>117</v>
@@ -11706,7 +11706,7 @@
         <v>62</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C470" t="s">
         <v>117</v>
@@ -11719,7 +11719,7 @@
         <v>62</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C471" t="s">
         <v>117</v>
@@ -11731,7 +11731,7 @@
         <v>62</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C472" t="s">
         <v>117</v>
@@ -11743,7 +11743,7 @@
         <v>62</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C473" t="s">
         <v>117</v>
@@ -11756,7 +11756,7 @@
         <v>62</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C474" t="s">
         <v>117</v>
@@ -11769,7 +11769,7 @@
         <v>62</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C475" t="s">
         <v>117</v>
@@ -11782,7 +11782,7 @@
         <v>56</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C476" t="s">
         <v>117</v>
@@ -11794,7 +11794,7 @@
         <v>56</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C477" t="s">
         <v>117</v>
@@ -11806,7 +11806,7 @@
         <v>56</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C478" t="s">
         <v>117</v>
@@ -11819,7 +11819,7 @@
         <v>56</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C479" t="s">
         <v>117</v>
@@ -11832,7 +11832,7 @@
         <v>56</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C480" t="s">
         <v>117</v>
@@ -11845,7 +11845,7 @@
         <v>56</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C481" t="s">
         <v>117</v>
@@ -11857,7 +11857,7 @@
         <v>74</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C482" t="s">
         <v>117</v>
@@ -11869,7 +11869,7 @@
         <v>74</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C483" t="s">
         <v>117</v>
@@ -11882,7 +11882,7 @@
         <v>74</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C484" t="s">
         <v>117</v>
@@ -11895,7 +11895,7 @@
         <v>74</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C485" t="s">
         <v>117</v>
@@ -11908,7 +11908,7 @@
         <v>71</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C486" t="s">
         <v>117</v>
@@ -11920,7 +11920,7 @@
         <v>71</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C487" t="s">
         <v>117</v>
@@ -11932,7 +11932,7 @@
         <v>71</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C488" t="s">
         <v>117</v>
@@ -11945,7 +11945,7 @@
         <v>71</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C489" t="s">
         <v>117</v>
@@ -11958,7 +11958,7 @@
         <v>71</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C490" t="s">
         <v>117</v>
@@ -11971,7 +11971,7 @@
         <v>71</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C491" t="s">
         <v>117</v>
@@ -11983,7 +11983,7 @@
         <v>71</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C492" t="s">
         <v>117</v>
@@ -11995,7 +11995,7 @@
         <v>71</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C493" t="s">
         <v>117</v>
@@ -12008,7 +12008,7 @@
         <v>71</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C494" t="s">
         <v>117</v>
@@ -12021,7 +12021,7 @@
         <v>71</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C495" t="s">
         <v>117</v>
@@ -12034,7 +12034,7 @@
         <v>71</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C496" t="s">
         <v>117</v>
@@ -12046,7 +12046,7 @@
         <v>71</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C497" t="s">
         <v>117</v>
@@ -12058,7 +12058,7 @@
         <v>71</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C498" t="s">
         <v>117</v>
@@ -12071,7 +12071,7 @@
         <v>71</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C499" t="s">
         <v>117</v>
@@ -12084,7 +12084,7 @@
         <v>71</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C500" t="s">
         <v>117</v>
@@ -12097,7 +12097,7 @@
         <v>71</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C501" t="s">
         <v>117</v>
@@ -12109,7 +12109,7 @@
         <v>71</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C502" t="s">
         <v>117</v>
@@ -12121,7 +12121,7 @@
         <v>71</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C503" t="s">
         <v>117</v>
@@ -12134,7 +12134,7 @@
         <v>71</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C504" t="s">
         <v>117</v>
@@ -12147,7 +12147,7 @@
         <v>71</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C505" t="s">
         <v>117</v>
@@ -12160,7 +12160,7 @@
         <v>71</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C506" t="s">
         <v>117</v>
@@ -12172,7 +12172,7 @@
         <v>71</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C507" t="s">
         <v>117</v>
@@ -12184,7 +12184,7 @@
         <v>71</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C508" t="s">
         <v>117</v>
@@ -12197,7 +12197,7 @@
         <v>71</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C509" t="s">
         <v>117</v>
@@ -12210,7 +12210,7 @@
         <v>71</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C510" t="s">
         <v>117</v>
@@ -12223,7 +12223,7 @@
         <v>71</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C511" t="s">
         <v>117</v>
@@ -12235,7 +12235,7 @@
         <v>71</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C512" t="s">
         <v>117</v>
@@ -12247,7 +12247,7 @@
         <v>71</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C513" t="s">
         <v>117</v>
@@ -12260,7 +12260,7 @@
         <v>71</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C514" t="s">
         <v>117</v>
@@ -12273,7 +12273,7 @@
         <v>71</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C515" t="s">
         <v>117</v>
@@ -12286,7 +12286,7 @@
         <v>71</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C516" t="s">
         <v>117</v>
@@ -12298,7 +12298,7 @@
         <v>71</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C517" t="s">
         <v>117</v>
@@ -12310,7 +12310,7 @@
         <v>71</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C518" t="s">
         <v>117</v>
@@ -12323,7 +12323,7 @@
         <v>71</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C519" t="s">
         <v>117</v>
@@ -12336,7 +12336,7 @@
         <v>71</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C520" t="s">
         <v>117</v>
@@ -12349,7 +12349,7 @@
         <v>71</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C521" t="s">
         <v>117</v>
@@ -12361,7 +12361,7 @@
         <v>71</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C522" t="s">
         <v>117</v>
@@ -12373,7 +12373,7 @@
         <v>71</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C523" t="s">
         <v>117</v>
@@ -12386,7 +12386,7 @@
         <v>71</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C524" t="s">
         <v>117</v>
@@ -12399,7 +12399,7 @@
         <v>71</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C525" t="s">
         <v>117</v>
@@ -12409,10 +12409,10 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C526" t="s">
         <v>117</v>
@@ -12421,10 +12421,10 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C527" t="s">
         <v>117</v>
@@ -12433,10 +12433,10 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C528" t="s">
         <v>117</v>
@@ -12446,10 +12446,10 @@
     </row>
     <row r="529" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C529" t="s">
         <v>117</v>
@@ -12459,10 +12459,10 @@
     </row>
     <row r="530" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C530" t="s">
         <v>117</v>
@@ -12472,10 +12472,10 @@
     </row>
     <row r="531" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C531" t="s">
         <v>117</v>
@@ -12484,10 +12484,10 @@
     </row>
     <row r="532" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C532" t="s">
         <v>117</v>
@@ -12496,10 +12496,10 @@
     </row>
     <row r="533" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C533" t="s">
         <v>117</v>
@@ -12509,10 +12509,10 @@
     </row>
     <row r="534" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C534" t="s">
         <v>117</v>
@@ -12522,10 +12522,10 @@
     </row>
     <row r="535" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C535" t="s">
         <v>117</v>
@@ -12535,10 +12535,10 @@
     </row>
     <row r="536" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C536" t="s">
         <v>117</v>
@@ -12547,10 +12547,10 @@
     </row>
     <row r="537" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C537" t="s">
         <v>117</v>
@@ -12559,10 +12559,10 @@
     </row>
     <row r="538" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C538" t="s">
         <v>117</v>
@@ -12572,10 +12572,10 @@
     </row>
     <row r="539" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C539" t="s">
         <v>117</v>
@@ -12585,10 +12585,10 @@
     </row>
     <row r="540" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C540" t="s">
         <v>117</v>
@@ -12598,10 +12598,10 @@
     </row>
     <row r="541" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C541" t="s">
         <v>117</v>
@@ -12610,10 +12610,10 @@
     </row>
     <row r="542" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C542" t="s">
         <v>117</v>
@@ -12622,10 +12622,10 @@
     </row>
     <row r="543" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C543" t="s">
         <v>117</v>
@@ -12635,10 +12635,10 @@
     </row>
     <row r="544" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C544" t="s">
         <v>117</v>
@@ -12648,10 +12648,10 @@
     </row>
     <row r="545" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C545" t="s">
         <v>117</v>
@@ -12661,10 +12661,10 @@
     </row>
     <row r="546" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C546" t="s">
         <v>117</v>
@@ -12673,10 +12673,10 @@
     </row>
     <row r="547" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C547" t="s">
         <v>117</v>
@@ -12685,10 +12685,10 @@
     </row>
     <row r="548" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C548" t="s">
         <v>117</v>
@@ -12698,10 +12698,10 @@
     </row>
     <row r="549" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C549" t="s">
         <v>117</v>
@@ -12711,10 +12711,10 @@
     </row>
     <row r="550" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C550" t="s">
         <v>117</v>
@@ -12724,10 +12724,10 @@
     </row>
     <row r="551" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C551" t="s">
         <v>117</v>
@@ -12736,10 +12736,10 @@
     </row>
     <row r="552" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C552" t="s">
         <v>117</v>
@@ -12748,10 +12748,10 @@
     </row>
     <row r="553" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C553" t="s">
         <v>117</v>
@@ -12761,10 +12761,10 @@
     </row>
     <row r="554" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C554" t="s">
         <v>117</v>
@@ -12774,10 +12774,10 @@
     </row>
     <row r="555" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C555" t="s">
         <v>117</v>
@@ -12787,10 +12787,10 @@
     </row>
     <row r="556" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C556" t="s">
         <v>117</v>
@@ -12799,10 +12799,10 @@
     </row>
     <row r="557" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C557" t="s">
         <v>117</v>
@@ -12811,10 +12811,10 @@
     </row>
     <row r="558" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C558" t="s">
         <v>117</v>
@@ -12824,10 +12824,10 @@
     </row>
     <row r="559" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C559" t="s">
         <v>117</v>
@@ -12837,10 +12837,10 @@
     </row>
     <row r="560" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C560" t="s">
         <v>117</v>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="561" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C561" t="s">
         <v>117</v>
@@ -12862,10 +12862,10 @@
     </row>
     <row r="562" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C562" t="s">
         <v>117</v>
@@ -12874,10 +12874,10 @@
     </row>
     <row r="563" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C563" t="s">
         <v>117</v>
@@ -12887,10 +12887,10 @@
     </row>
     <row r="564" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C564" t="s">
         <v>117</v>
@@ -12900,10 +12900,10 @@
     </row>
     <row r="565" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C565" t="s">
         <v>117</v>
@@ -12913,10 +12913,10 @@
     </row>
     <row r="566" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C566" t="s">
         <v>117</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="567" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C567" t="s">
         <v>117</v>
@@ -12937,10 +12937,10 @@
     </row>
     <row r="568" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C568" t="s">
         <v>117</v>
@@ -12950,10 +12950,10 @@
     </row>
     <row r="569" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C569" t="s">
         <v>117</v>
@@ -12963,10 +12963,10 @@
     </row>
     <row r="570" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C570" t="s">
         <v>117</v>
@@ -12976,10 +12976,10 @@
     </row>
     <row r="571" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C571" t="s">
         <v>117</v>
@@ -12988,10 +12988,10 @@
     </row>
     <row r="572" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C572" t="s">
         <v>117</v>
@@ -13000,10 +13000,10 @@
     </row>
     <row r="573" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C573" t="s">
         <v>117</v>
@@ -13013,10 +13013,10 @@
     </row>
     <row r="574" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C574" t="s">
         <v>117</v>
@@ -13026,10 +13026,10 @@
     </row>
     <row r="575" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C575" t="s">
         <v>117</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="576" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C576" t="s">
         <v>117</v>
@@ -13051,10 +13051,10 @@
     </row>
     <row r="577" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C577" t="s">
         <v>117</v>
@@ -13063,10 +13063,10 @@
     </row>
     <row r="578" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C578" t="s">
         <v>117</v>
@@ -13076,10 +13076,10 @@
     </row>
     <row r="579" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C579" t="s">
         <v>117</v>
@@ -13089,10 +13089,10 @@
     </row>
     <row r="580" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C580" t="s">
         <v>117</v>
@@ -13102,10 +13102,10 @@
     </row>
     <row r="581" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C581" t="s">
         <v>117</v>
@@ -13114,10 +13114,10 @@
     </row>
     <row r="582" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C582" t="s">
         <v>117</v>
@@ -13126,10 +13126,10 @@
     </row>
     <row r="583" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C583" t="s">
         <v>117</v>
@@ -13139,10 +13139,10 @@
     </row>
     <row r="584" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C584" t="s">
         <v>117</v>
@@ -13152,10 +13152,10 @@
     </row>
     <row r="585" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C585" t="s">
         <v>117</v>
@@ -13165,10 +13165,10 @@
     </row>
     <row r="586" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C586" t="s">
         <v>117</v>
@@ -13177,10 +13177,10 @@
     </row>
     <row r="587" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C587" t="s">
         <v>117</v>
@@ -13189,10 +13189,10 @@
     </row>
     <row r="588" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C588" t="s">
         <v>117</v>
@@ -13202,10 +13202,10 @@
     </row>
     <row r="589" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C589" t="s">
         <v>117</v>
@@ -13215,10 +13215,10 @@
     </row>
     <row r="590" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C590" t="s">
         <v>117</v>
@@ -13228,10 +13228,10 @@
     </row>
     <row r="591" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C591" t="s">
         <v>117</v>
@@ -13240,10 +13240,10 @@
     </row>
     <row r="592" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C592" t="s">
         <v>117</v>
@@ -13252,10 +13252,10 @@
     </row>
     <row r="593" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C593" t="s">
         <v>117</v>
@@ -13265,10 +13265,10 @@
     </row>
     <row r="594" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C594" t="s">
         <v>117</v>
@@ -13278,10 +13278,10 @@
     </row>
     <row r="595" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C595" t="s">
         <v>117</v>
@@ -13291,10 +13291,10 @@
     </row>
     <row r="596" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C596" t="s">
         <v>117</v>
@@ -13303,10 +13303,10 @@
     </row>
     <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C597" t="s">
         <v>117</v>
@@ -13315,10 +13315,10 @@
     </row>
     <row r="598" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C598" t="s">
         <v>117</v>
@@ -13328,10 +13328,10 @@
     </row>
     <row r="599" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C599" t="s">
         <v>117</v>
@@ -13341,10 +13341,10 @@
     </row>
     <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C600" t="s">
         <v>117</v>
@@ -13354,10 +13354,10 @@
     </row>
     <row r="601" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C601" t="s">
         <v>117</v>
@@ -13366,10 +13366,10 @@
     </row>
     <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C602" t="s">
         <v>117</v>
@@ -13378,10 +13378,10 @@
     </row>
     <row r="603" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C603" t="s">
         <v>117</v>
@@ -13391,10 +13391,10 @@
     </row>
     <row r="604" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C604" t="s">
         <v>117</v>
@@ -13404,10 +13404,10 @@
     </row>
     <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C605" t="s">
         <v>117</v>
@@ -13417,10 +13417,10 @@
     </row>
     <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C606" t="s">
         <v>117</v>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C607" t="s">
         <v>117</v>
@@ -13441,10 +13441,10 @@
     </row>
     <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C608" t="s">
         <v>117</v>
@@ -13454,10 +13454,10 @@
     </row>
     <row r="609" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C609" t="s">
         <v>117</v>
@@ -13467,10 +13467,10 @@
     </row>
     <row r="610" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C610" t="s">
         <v>117</v>
@@ -13480,10 +13480,10 @@
     </row>
     <row r="611" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C611" t="s">
         <v>117</v>
@@ -13492,10 +13492,10 @@
     </row>
     <row r="612" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C612" t="s">
         <v>117</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="613" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C613" t="s">
         <v>117</v>
@@ -13517,10 +13517,10 @@
     </row>
     <row r="614" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C614" t="s">
         <v>117</v>
@@ -13530,10 +13530,10 @@
     </row>
     <row r="615" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C615" t="s">
         <v>117</v>
@@ -13543,10 +13543,10 @@
     </row>
     <row r="616" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C616" t="s">
         <v>117</v>
@@ -13555,10 +13555,10 @@
     </row>
     <row r="617" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C617" t="s">
         <v>117</v>
@@ -13567,10 +13567,10 @@
     </row>
     <row r="618" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C618" t="s">
         <v>117</v>
@@ -13580,10 +13580,10 @@
     </row>
     <row r="619" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C619" t="s">
         <v>117</v>
@@ -13593,10 +13593,10 @@
     </row>
     <row r="620" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C620" t="s">
         <v>117</v>
@@ -13606,10 +13606,10 @@
     </row>
     <row r="621" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C621" t="s">
         <v>117</v>
@@ -13618,10 +13618,10 @@
     </row>
     <row r="622" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C622" t="s">
         <v>117</v>
@@ -13630,10 +13630,10 @@
     </row>
     <row r="623" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C623" t="s">
         <v>117</v>
@@ -13643,10 +13643,10 @@
     </row>
     <row r="624" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C624" t="s">
         <v>117</v>
@@ -13656,10 +13656,10 @@
     </row>
     <row r="625" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C625" t="s">
         <v>117</v>
@@ -13669,10 +13669,10 @@
     </row>
     <row r="626" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C626" t="s">
         <v>117</v>
@@ -13681,10 +13681,10 @@
     </row>
     <row r="627" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C627" t="s">
         <v>117</v>
@@ -13693,10 +13693,10 @@
     </row>
     <row r="628" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C628" t="s">
         <v>117</v>
@@ -13706,10 +13706,10 @@
     </row>
     <row r="629" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C629" t="s">
         <v>117</v>
@@ -13719,10 +13719,10 @@
     </row>
     <row r="630" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C630" t="s">
         <v>117</v>
@@ -13732,10 +13732,10 @@
     </row>
     <row r="631" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C631" t="s">
         <v>117</v>
@@ -13744,10 +13744,10 @@
     </row>
     <row r="632" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C632" t="s">
         <v>117</v>
@@ -13756,10 +13756,10 @@
     </row>
     <row r="633" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C633" t="s">
         <v>117</v>
@@ -13769,10 +13769,10 @@
     </row>
     <row r="634" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C634" t="s">
         <v>117</v>
@@ -13782,10 +13782,10 @@
     </row>
     <row r="635" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C635" t="s">
         <v>117</v>
@@ -13795,10 +13795,10 @@
     </row>
     <row r="636" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C636" t="s">
         <v>117</v>
@@ -13807,10 +13807,10 @@
     </row>
     <row r="637" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C637" t="s">
         <v>117</v>
@@ -13819,10 +13819,10 @@
     </row>
     <row r="638" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C638" t="s">
         <v>117</v>
@@ -13832,10 +13832,10 @@
     </row>
     <row r="639" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C639" t="s">
         <v>117</v>
@@ -13845,10 +13845,10 @@
     </row>
     <row r="640" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C640" t="s">
         <v>117</v>
@@ -13858,10 +13858,10 @@
     </row>
     <row r="641" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C641" t="s">
         <v>117</v>
@@ -13870,10 +13870,10 @@
     </row>
     <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C642" t="s">
         <v>117</v>
@@ -13882,10 +13882,10 @@
     </row>
     <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C643" t="s">
         <v>117</v>
@@ -13895,10 +13895,10 @@
     </row>
     <row r="644" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C644" t="s">
         <v>117</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C645" t="s">
         <v>117</v>
@@ -13921,10 +13921,10 @@
     </row>
     <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C646" t="s">
         <v>117</v>
@@ -13933,10 +13933,10 @@
     </row>
     <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C647" t="s">
         <v>117</v>
@@ -13945,10 +13945,10 @@
     </row>
     <row r="648" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C648" t="s">
         <v>117</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="649" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C649" t="s">
         <v>117</v>
@@ -13971,10 +13971,10 @@
     </row>
     <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C650" t="s">
         <v>117</v>
@@ -13984,10 +13984,10 @@
     </row>
     <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C651" t="s">
         <v>117</v>
@@ -13996,10 +13996,10 @@
     </row>
     <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C652" t="s">
         <v>117</v>
@@ -14009,10 +14009,10 @@
     </row>
     <row r="653" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C653" t="s">
         <v>117</v>
@@ -14021,10 +14021,10 @@
     </row>
     <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C654" t="s">
         <v>117</v>
@@ -14034,10 +14034,10 @@
     </row>
     <row r="655" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C655" t="s">
         <v>117</v>
@@ -14047,10 +14047,10 @@
     </row>
     <row r="656" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C656" t="s">
         <v>117</v>
@@ -14059,10 +14059,10 @@
     </row>
     <row r="657" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C657" t="s">
         <v>117</v>
@@ -14072,10 +14072,10 @@
     </row>
     <row r="658" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C658" t="s">
         <v>117</v>
@@ -14084,10 +14084,10 @@
     </row>
     <row r="659" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C659" t="s">
         <v>117</v>
@@ -14097,10 +14097,10 @@
     </row>
     <row r="660" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C660" t="s">
         <v>117</v>
@@ -14110,10 +14110,10 @@
     </row>
     <row r="661" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C661" t="s">
         <v>117</v>
@@ -14123,10 +14123,10 @@
     </row>
     <row r="662" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C662" t="s">
         <v>117</v>
@@ -14135,10 +14135,10 @@
     </row>
     <row r="663" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C663" t="s">
         <v>117</v>
@@ -14147,10 +14147,10 @@
     </row>
     <row r="664" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C664" t="s">
         <v>117</v>
@@ -14160,10 +14160,10 @@
     </row>
     <row r="665" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C665" t="s">
         <v>117</v>
@@ -14173,10 +14173,10 @@
     </row>
     <row r="666" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C666" t="s">
         <v>117</v>
@@ -14185,10 +14185,10 @@
     </row>
     <row r="667" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C667" t="s">
         <v>117</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="668" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C668" t="s">
         <v>117</v>
@@ -14211,10 +14211,10 @@
     </row>
     <row r="669" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C669" t="s">
         <v>117</v>
@@ -14223,10 +14223,10 @@
     </row>
     <row r="670" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C670" t="s">
         <v>117</v>
@@ -14236,10 +14236,10 @@
     </row>
     <row r="671" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C671" t="s">
         <v>117</v>
@@ -14248,10 +14248,10 @@
     </row>
     <row r="672" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C672" t="s">
         <v>117</v>
@@ -14261,10 +14261,10 @@
     </row>
     <row r="673" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C673" t="s">
         <v>117</v>
@@ -14277,7 +14277,7 @@
         <v>77</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C674" t="s">
         <v>117</v>
@@ -14289,7 +14289,7 @@
         <v>77</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C675" t="s">
         <v>117</v>
@@ -14302,7 +14302,7 @@
         <v>77</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C676" t="s">
         <v>117</v>
@@ -14315,7 +14315,7 @@
         <v>77</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C677" t="s">
         <v>117</v>
@@ -14328,7 +14328,7 @@
         <v>77</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C678" t="s">
         <v>117</v>
@@ -14340,7 +14340,7 @@
         <v>77</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C679" t="s">
         <v>117</v>
@@ -14352,7 +14352,7 @@
         <v>77</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C680" t="s">
         <v>117</v>
@@ -14364,7 +14364,7 @@
         <v>77</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C681" t="s">
         <v>117</v>
@@ -14376,7 +14376,7 @@
         <v>77</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C682" t="s">
         <v>117</v>
@@ -14388,7 +14388,7 @@
         <v>77</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C683" t="s">
         <v>117</v>
@@ -14400,7 +14400,7 @@
         <v>77</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C684" t="s">
         <v>117</v>
@@ -14412,7 +14412,7 @@
         <v>77</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C685" t="s">
         <v>117</v>
@@ -14424,7 +14424,7 @@
         <v>77</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C686" t="s">
         <v>117</v>
@@ -14436,7 +14436,7 @@
         <v>77</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C687" t="s">
         <v>117</v>
@@ -14448,7 +14448,7 @@
         <v>85</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C688" t="s">
         <v>117</v>
@@ -14460,7 +14460,7 @@
         <v>85</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C689" t="s">
         <v>117</v>
@@ -14472,7 +14472,7 @@
         <v>85</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C690" t="s">
         <v>117</v>
@@ -14484,7 +14484,7 @@
         <v>85</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C691" t="s">
         <v>117</v>
@@ -14496,7 +14496,7 @@
         <v>82</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C692" t="s">
         <v>117</v>
@@ -14508,7 +14508,7 @@
         <v>82</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C693" t="s">
         <v>117</v>
@@ -14520,7 +14520,7 @@
         <v>82</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C694" t="s">
         <v>117</v>
@@ -14532,7 +14532,7 @@
         <v>82</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C695" t="s">
         <v>117</v>
@@ -14544,7 +14544,7 @@
         <v>82</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C696" t="s">
         <v>117</v>
@@ -14556,7 +14556,7 @@
         <v>82</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C697" t="s">
         <v>117</v>
@@ -14568,7 +14568,7 @@
         <v>82</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C698" t="s">
         <v>117</v>
@@ -14580,7 +14580,7 @@
         <v>82</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C699" t="s">
         <v>117</v>
@@ -14592,7 +14592,7 @@
         <v>82</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C700" t="s">
         <v>117</v>
@@ -14604,7 +14604,7 @@
         <v>82</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C701" t="s">
         <v>117</v>
@@ -14616,7 +14616,7 @@
         <v>82</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C702" t="s">
         <v>117</v>
@@ -14628,7 +14628,7 @@
         <v>82</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C703" t="s">
         <v>117</v>
@@ -14640,7 +14640,7 @@
         <v>82</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C704" t="s">
         <v>117</v>
@@ -14652,7 +14652,7 @@
         <v>82</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C705" t="s">
         <v>117</v>
@@ -14661,10 +14661,10 @@
     </row>
     <row r="706" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C706" t="s">
         <v>117</v>
@@ -14673,10 +14673,10 @@
     </row>
     <row r="707" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C707" t="s">
         <v>117</v>
@@ -14685,10 +14685,10 @@
     </row>
     <row r="708" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C708" t="s">
         <v>117</v>
@@ -14697,10 +14697,10 @@
     </row>
     <row r="709" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C709" t="s">
         <v>117</v>
@@ -14712,7 +14712,7 @@
         <v>88</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C710" t="s">
         <v>117</v>
@@ -14724,7 +14724,7 @@
         <v>88</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C711" t="s">
         <v>117</v>
@@ -14736,7 +14736,7 @@
         <v>88</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C712" t="s">
         <v>117</v>
@@ -14748,7 +14748,7 @@
         <v>88</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C713" t="s">
         <v>117</v>
@@ -14760,7 +14760,7 @@
         <v>88</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C714" t="s">
         <v>117</v>
@@ -14772,7 +14772,7 @@
         <v>88</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C715" t="s">
         <v>117</v>
@@ -14784,7 +14784,7 @@
         <v>88</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C716" t="s">
         <v>117</v>
@@ -14796,7 +14796,7 @@
         <v>88</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C717" t="s">
         <v>117</v>
@@ -14808,7 +14808,7 @@
         <v>88</v>
       </c>
       <c r="B718" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C718" t="s">
         <v>117</v>
@@ -14820,7 +14820,7 @@
         <v>88</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C719" t="s">
         <v>117</v>
@@ -14832,7 +14832,7 @@
         <v>88</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C720" t="s">
         <v>117</v>
@@ -14844,7 +14844,7 @@
         <v>88</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C721" t="s">
         <v>117</v>
@@ -14856,7 +14856,7 @@
         <v>88</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C722" t="s">
         <v>117</v>
@@ -14868,7 +14868,7 @@
         <v>88</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C723" t="s">
         <v>117</v>
@@ -14880,7 +14880,7 @@
         <v>97</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C724" t="s">
         <v>117</v>
@@ -14892,7 +14892,7 @@
         <v>97</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C725" t="s">
         <v>117</v>
@@ -14904,7 +14904,7 @@
         <v>97</v>
       </c>
       <c r="B726" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C726" t="s">
         <v>117</v>
@@ -14916,7 +14916,7 @@
         <v>97</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C727" t="s">
         <v>117</v>
@@ -14928,7 +14928,7 @@
         <v>94</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C728" t="s">
         <v>117</v>
@@ -14940,7 +14940,7 @@
         <v>94</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C729" t="s">
         <v>117</v>
@@ -14952,7 +14952,7 @@
         <v>94</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C730" t="s">
         <v>117</v>
@@ -14964,7 +14964,7 @@
         <v>94</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C731" t="s">
         <v>117</v>
@@ -14976,7 +14976,7 @@
         <v>94</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C732" t="s">
         <v>117</v>
@@ -14988,7 +14988,7 @@
         <v>94</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C733" t="s">
         <v>117</v>
@@ -15000,7 +15000,7 @@
         <v>94</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C734" t="s">
         <v>117</v>
@@ -15012,7 +15012,7 @@
         <v>94</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C735" t="s">
         <v>117</v>
@@ -15024,7 +15024,7 @@
         <v>94</v>
       </c>
       <c r="B736" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C736" t="s">
         <v>117</v>
@@ -15036,7 +15036,7 @@
         <v>94</v>
       </c>
       <c r="B737" s="8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C737" t="s">
         <v>117</v>
@@ -15048,7 +15048,7 @@
         <v>94</v>
       </c>
       <c r="B738" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C738" t="s">
         <v>117</v>
@@ -15060,7 +15060,7 @@
         <v>94</v>
       </c>
       <c r="B739" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C739" t="s">
         <v>117</v>
@@ -15072,7 +15072,7 @@
         <v>94</v>
       </c>
       <c r="B740" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C740" t="s">
         <v>117</v>
@@ -15084,7 +15084,7 @@
         <v>94</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C741" t="s">
         <v>117</v>
@@ -15096,7 +15096,7 @@
         <v>94</v>
       </c>
       <c r="B742" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C742" t="s">
         <v>117</v>
@@ -15108,7 +15108,7 @@
         <v>94</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C743" t="s">
         <v>117</v>
@@ -15120,7 +15120,7 @@
         <v>94</v>
       </c>
       <c r="B744" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C744" t="s">
         <v>117</v>
@@ -15132,7 +15132,7 @@
         <v>94</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C745" t="s">
         <v>117</v>
@@ -15144,7 +15144,7 @@
         <v>94</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C746" t="s">
         <v>117</v>
@@ -15156,7 +15156,7 @@
         <v>94</v>
       </c>
       <c r="B747" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C747" t="s">
         <v>117</v>
@@ -15168,7 +15168,7 @@
         <v>94</v>
       </c>
       <c r="B748" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C748" t="s">
         <v>117</v>
@@ -15180,7 +15180,7 @@
         <v>94</v>
       </c>
       <c r="B749" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C749" t="s">
         <v>117</v>
@@ -15192,7 +15192,7 @@
         <v>94</v>
       </c>
       <c r="B750" s="8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C750" t="s">
         <v>117</v>
@@ -15204,7 +15204,7 @@
         <v>94</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C751" t="s">
         <v>117</v>
@@ -15216,7 +15216,7 @@
         <v>94</v>
       </c>
       <c r="B752" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C752" t="s">
         <v>117</v>
@@ -15228,7 +15228,7 @@
         <v>94</v>
       </c>
       <c r="B753" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C753" t="s">
         <v>117</v>
@@ -15240,7 +15240,7 @@
         <v>94</v>
       </c>
       <c r="B754" s="8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C754" t="s">
         <v>117</v>
@@ -15252,7 +15252,7 @@
         <v>94</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C755" t="s">
         <v>117</v>
@@ -15264,7 +15264,7 @@
         <v>94</v>
       </c>
       <c r="B756" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C756" t="s">
         <v>117</v>
@@ -15276,7 +15276,7 @@
         <v>94</v>
       </c>
       <c r="B757" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C757" t="s">
         <v>117</v>
@@ -15288,7 +15288,7 @@
         <v>94</v>
       </c>
       <c r="B758" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C758" t="s">
         <v>117</v>
@@ -15300,7 +15300,7 @@
         <v>94</v>
       </c>
       <c r="B759" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C759" t="s">
         <v>117</v>
@@ -15312,7 +15312,7 @@
         <v>94</v>
       </c>
       <c r="B760" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C760" t="s">
         <v>117</v>
@@ -15324,7 +15324,7 @@
         <v>94</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C761" t="s">
         <v>117</v>
@@ -15336,7 +15336,7 @@
         <v>94</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C762" t="s">
         <v>117</v>
@@ -15348,7 +15348,7 @@
         <v>94</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C763" t="s">
         <v>117</v>
@@ -15360,7 +15360,7 @@
         <v>94</v>
       </c>
       <c r="B764" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C764" t="s">
         <v>117</v>
@@ -15372,7 +15372,7 @@
         <v>94</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C765" t="s">
         <v>117</v>
@@ -15384,7 +15384,7 @@
         <v>94</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C766" t="s">
         <v>117</v>
@@ -15396,7 +15396,7 @@
         <v>94</v>
       </c>
       <c r="B767" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C767" t="s">
         <v>117</v>
@@ -15408,7 +15408,7 @@
         <v>103</v>
       </c>
       <c r="B768" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C768" t="s">
         <v>117</v>
@@ -15420,7 +15420,7 @@
         <v>103</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C769" t="s">
         <v>117</v>
@@ -15432,7 +15432,7 @@
         <v>103</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C770" t="s">
         <v>117</v>
@@ -15444,7 +15444,7 @@
         <v>103</v>
       </c>
       <c r="B771" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C771" t="s">
         <v>117</v>
@@ -15456,7 +15456,7 @@
         <v>100</v>
       </c>
       <c r="B772" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C772" t="s">
         <v>117</v>
@@ -15468,7 +15468,7 @@
         <v>100</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C773" t="s">
         <v>117</v>
@@ -15480,7 +15480,7 @@
         <v>100</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C774" t="s">
         <v>117</v>
@@ -15492,7 +15492,7 @@
         <v>100</v>
       </c>
       <c r="B775" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C775" t="s">
         <v>117</v>
@@ -15504,7 +15504,7 @@
         <v>100</v>
       </c>
       <c r="B776" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C776" t="s">
         <v>117</v>
@@ -15516,7 +15516,7 @@
         <v>100</v>
       </c>
       <c r="B777" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C777" t="s">
         <v>117</v>
@@ -15528,7 +15528,7 @@
         <v>100</v>
       </c>
       <c r="B778" s="8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C778" t="s">
         <v>117</v>
@@ -15540,7 +15540,7 @@
         <v>100</v>
       </c>
       <c r="B779" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C779" t="s">
         <v>117</v>
@@ -15552,7 +15552,7 @@
         <v>100</v>
       </c>
       <c r="B780" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C780" t="s">
         <v>117</v>
@@ -15564,7 +15564,7 @@
         <v>100</v>
       </c>
       <c r="B781" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C781" t="s">
         <v>117</v>
@@ -15576,7 +15576,7 @@
         <v>100</v>
       </c>
       <c r="B782" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C782" t="s">
         <v>117</v>
@@ -15588,7 +15588,7 @@
         <v>100</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C783" t="s">
         <v>117</v>
@@ -15600,7 +15600,7 @@
         <v>100</v>
       </c>
       <c r="B784" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C784" t="s">
         <v>117</v>
@@ -15612,7 +15612,7 @@
         <v>100</v>
       </c>
       <c r="B785" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C785" t="s">
         <v>117</v>
@@ -15624,7 +15624,7 @@
         <v>114</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C786" t="s">
         <v>117</v>
@@ -15636,7 +15636,7 @@
         <v>114</v>
       </c>
       <c r="B787" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C787" t="s">
         <v>117</v>
@@ -15648,7 +15648,7 @@
         <v>114</v>
       </c>
       <c r="B788" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C788" t="s">
         <v>117</v>
@@ -15660,7 +15660,7 @@
         <v>114</v>
       </c>
       <c r="B789" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C789" t="s">
         <v>117</v>
@@ -15672,7 +15672,7 @@
         <v>109</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C790" t="s">
         <v>117</v>
@@ -15684,7 +15684,7 @@
         <v>109</v>
       </c>
       <c r="B791" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C791" t="s">
         <v>117</v>
@@ -15696,7 +15696,7 @@
         <v>109</v>
       </c>
       <c r="B792" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C792" t="s">
         <v>117</v>
@@ -15708,7 +15708,7 @@
         <v>109</v>
       </c>
       <c r="B793" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C793" t="s">
         <v>117</v>
@@ -15720,7 +15720,7 @@
         <v>109</v>
       </c>
       <c r="B794" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C794" t="s">
         <v>117</v>
@@ -15732,7 +15732,7 @@
         <v>109</v>
       </c>
       <c r="B795" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C795" t="s">
         <v>117</v>
@@ -15744,7 +15744,7 @@
         <v>109</v>
       </c>
       <c r="B796" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C796" t="s">
         <v>117</v>
@@ -15756,7 +15756,7 @@
         <v>109</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C797" t="s">
         <v>117</v>
@@ -15768,7 +15768,7 @@
         <v>109</v>
       </c>
       <c r="B798" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C798" t="s">
         <v>117</v>
@@ -15780,7 +15780,7 @@
         <v>109</v>
       </c>
       <c r="B799" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C799" t="s">
         <v>117</v>
@@ -15792,7 +15792,7 @@
         <v>109</v>
       </c>
       <c r="B800" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C800" t="s">
         <v>117</v>
@@ -15804,7 +15804,7 @@
         <v>109</v>
       </c>
       <c r="B801" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C801" t="s">
         <v>117</v>
@@ -15816,7 +15816,7 @@
         <v>109</v>
       </c>
       <c r="B802" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C802" t="s">
         <v>117</v>
@@ -15828,7 +15828,7 @@
         <v>109</v>
       </c>
       <c r="B803" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C803" t="s">
         <v>117</v>
@@ -15840,7 +15840,7 @@
         <v>106</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C804" t="s">
         <v>117</v>
@@ -15852,7 +15852,7 @@
         <v>106</v>
       </c>
       <c r="B805" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C805" t="s">
         <v>117</v>
@@ -15864,7 +15864,7 @@
         <v>106</v>
       </c>
       <c r="B806" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C806" t="s">
         <v>117</v>
@@ -15876,7 +15876,7 @@
         <v>106</v>
       </c>
       <c r="B807" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C807" t="s">
         <v>117</v>
@@ -15888,7 +15888,7 @@
         <v>106</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C808" t="s">
         <v>117</v>
@@ -15900,7 +15900,7 @@
         <v>106</v>
       </c>
       <c r="B809" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C809" t="s">
         <v>117</v>
@@ -15912,7 +15912,7 @@
         <v>106</v>
       </c>
       <c r="B810" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C810" t="s">
         <v>117</v>
@@ -15924,7 +15924,7 @@
         <v>106</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C811" t="s">
         <v>117</v>
@@ -15936,7 +15936,7 @@
         <v>106</v>
       </c>
       <c r="B812" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C812" t="s">
         <v>117</v>
@@ -15948,7 +15948,7 @@
         <v>106</v>
       </c>
       <c r="B813" s="8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C813" t="s">
         <v>117</v>
@@ -15960,7 +15960,7 @@
         <v>106</v>
       </c>
       <c r="B814" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C814" t="s">
         <v>117</v>
@@ -15972,7 +15972,7 @@
         <v>106</v>
       </c>
       <c r="B815" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C815" t="s">
         <v>117</v>
@@ -15984,7 +15984,7 @@
         <v>106</v>
       </c>
       <c r="B816" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C816" t="s">
         <v>117</v>
@@ -15996,7 +15996,7 @@
         <v>106</v>
       </c>
       <c r="B817" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C817" t="s">
         <v>117</v>
@@ -16008,7 +16008,7 @@
         <v>106</v>
       </c>
       <c r="B818" s="8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C818" t="s">
         <v>117</v>
@@ -16020,7 +16020,7 @@
         <v>106</v>
       </c>
       <c r="B819" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C819" t="s">
         <v>117</v>
@@ -16032,7 +16032,7 @@
         <v>106</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C820" t="s">
         <v>117</v>
@@ -16044,7 +16044,7 @@
         <v>106</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C821" t="s">
         <v>117</v>
@@ -16056,7 +16056,7 @@
         <v>62</v>
       </c>
       <c r="B822" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C822" s="7" t="s">
         <v>135</v>
@@ -16068,7 +16068,7 @@
         <v>71</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C823" s="7" t="s">
         <v>135</v>
@@ -16080,7 +16080,7 @@
         <v>77</v>
       </c>
       <c r="B824" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C824" s="7" t="s">
         <v>135</v>
@@ -16092,7 +16092,7 @@
         <v>82</v>
       </c>
       <c r="B825" s="8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C825" s="7" t="s">
         <v>135</v>
@@ -16104,7 +16104,7 @@
         <v>88</v>
       </c>
       <c r="B826" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C826" s="7" t="s">
         <v>135</v>
@@ -16116,7 +16116,7 @@
         <v>94</v>
       </c>
       <c r="B827" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C827" s="7" t="s">
         <v>135</v>
@@ -16128,7 +16128,7 @@
         <v>100</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C828" s="7" t="s">
         <v>135</v>
@@ -16140,7 +16140,7 @@
         <v>109</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C829" s="7" t="s">
         <v>135</v>
@@ -16149,10 +16149,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C830" s="7" t="s">
         <v>127</v>
@@ -16161,10 +16161,10 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C831" s="7" t="s">
         <v>123</v>
@@ -16173,10 +16173,10 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B832" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C832" s="7" t="s">
         <v>127</v>
@@ -16185,10 +16185,10 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C833" s="7" t="s">
         <v>123</v>
@@ -16197,10 +16197,10 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B834" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="B834" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="C834" s="7" t="s">
         <v>127</v>
@@ -16209,10 +16209,10 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C835" s="7" t="s">
         <v>123</v>
@@ -16221,10 +16221,10 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B836" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C836" s="7" t="s">
         <v>127</v>
@@ -16233,10 +16233,10 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B837" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C837" s="7" t="s">
         <v>123</v>
@@ -16245,10 +16245,10 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C838" s="7" t="s">
         <v>127</v>
@@ -16257,10 +16257,10 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B839" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C839" s="7" t="s">
         <v>123</v>
@@ -16269,10 +16269,10 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C840" s="7" t="s">
         <v>127</v>
@@ -16281,10 +16281,10 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C841" s="7" t="s">
         <v>123</v>
@@ -16293,10 +16293,10 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C842" s="7" t="s">
         <v>127</v>
@@ -16305,10 +16305,10 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B843" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C843" s="7" t="s">
         <v>123</v>
@@ -16317,10 +16317,10 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B844" s="8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C844" s="7" t="s">
         <v>127</v>
@@ -16329,10 +16329,10 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B845" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C845" s="7" t="s">
         <v>123</v>
@@ -16341,10 +16341,10 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C846" s="7" t="s">
         <v>127</v>
@@ -16353,10 +16353,10 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B847" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C847" s="7" t="s">
         <v>123</v>
@@ -16365,10 +16365,10 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C848" s="7" t="s">
         <v>127</v>
@@ -16377,10 +16377,10 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C849" s="7" t="s">
         <v>123</v>
@@ -16389,10 +16389,10 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C850" s="7" t="s">
         <v>127</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C851" s="7" t="s">
         <v>123</v>
@@ -16464,7 +16464,7 @@
         <v>62</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C856" s="7" t="s">
         <v>127</v>
@@ -16476,7 +16476,7 @@
         <v>62</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C857" s="7" t="s">
         <v>123</v>
@@ -16488,7 +16488,7 @@
         <v>74</v>
       </c>
       <c r="B858" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C858" s="7" t="s">
         <v>127</v>
@@ -16500,7 +16500,7 @@
         <v>74</v>
       </c>
       <c r="B859" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C859" s="7" t="s">
         <v>123</v>
@@ -16512,7 +16512,7 @@
         <v>74</v>
       </c>
       <c r="B860" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C860" s="7" t="s">
         <v>127</v>
@@ -16524,7 +16524,7 @@
         <v>74</v>
       </c>
       <c r="B861" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C861" s="7" t="s">
         <v>123</v>
@@ -16536,7 +16536,7 @@
         <v>71</v>
       </c>
       <c r="B862" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C862" s="7" t="s">
         <v>127</v>
@@ -16548,7 +16548,7 @@
         <v>71</v>
       </c>
       <c r="B863" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C863" s="7" t="s">
         <v>123</v>
@@ -16557,10 +16557,10 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B864" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C864" s="7" t="s">
         <v>127</v>
@@ -16569,10 +16569,10 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C865" s="7" t="s">
         <v>123</v>
@@ -16581,10 +16581,10 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B866" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C866" s="7" t="s">
         <v>127</v>
@@ -16593,10 +16593,10 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B867" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C867" s="7" t="s">
         <v>123</v>
@@ -16605,10 +16605,10 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B868" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C868" s="7" t="s">
         <v>127</v>
@@ -16617,10 +16617,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B869" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C869" s="7" t="s">
         <v>123</v>
@@ -16629,10 +16629,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B870" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C870" s="7" t="s">
         <v>127</v>
@@ -16641,10 +16641,10 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B871" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C871" s="7" t="s">
         <v>123</v>
@@ -16653,10 +16653,10 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B872" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C872" s="7" t="s">
         <v>127</v>
@@ -16665,10 +16665,10 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B873" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C873" s="7" t="s">
         <v>123</v>
@@ -16680,7 +16680,7 @@
         <v>77</v>
       </c>
       <c r="B874" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C874" s="7" t="s">
         <v>127</v>
@@ -16692,7 +16692,7 @@
         <v>77</v>
       </c>
       <c r="B875" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C875" s="7" t="s">
         <v>123</v>
@@ -16704,7 +16704,7 @@
         <v>85</v>
       </c>
       <c r="B876" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C876" s="7" t="s">
         <v>127</v>
@@ -16716,7 +16716,7 @@
         <v>85</v>
       </c>
       <c r="B877" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C877" s="7" t="s">
         <v>123</v>
@@ -16728,7 +16728,7 @@
         <v>85</v>
       </c>
       <c r="B878" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C878" s="7" t="s">
         <v>127</v>
@@ -16740,7 +16740,7 @@
         <v>85</v>
       </c>
       <c r="B879" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C879" s="7" t="s">
         <v>123</v>
@@ -16752,7 +16752,7 @@
         <v>82</v>
       </c>
       <c r="B880" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C880" s="7" t="s">
         <v>127</v>
@@ -16764,7 +16764,7 @@
         <v>82</v>
       </c>
       <c r="B881" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C881" s="7" t="s">
         <v>123</v>
@@ -16776,7 +16776,7 @@
         <v>82</v>
       </c>
       <c r="B882" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C882" s="7" t="s">
         <v>127</v>
@@ -16788,7 +16788,7 @@
         <v>82</v>
       </c>
       <c r="B883" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C883" s="7" t="s">
         <v>123</v>
@@ -16800,7 +16800,7 @@
         <v>91</v>
       </c>
       <c r="B884" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C884" s="7" t="s">
         <v>127</v>
@@ -16812,7 +16812,7 @@
         <v>91</v>
       </c>
       <c r="B885" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C885" s="7" t="s">
         <v>123</v>
@@ -16824,7 +16824,7 @@
         <v>91</v>
       </c>
       <c r="B886" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C886" s="7" t="s">
         <v>127</v>
@@ -16836,7 +16836,7 @@
         <v>91</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C887" s="7" t="s">
         <v>123</v>
@@ -16848,7 +16848,7 @@
         <v>88</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C888" s="7" t="s">
         <v>127</v>
@@ -16860,7 +16860,7 @@
         <v>88</v>
       </c>
       <c r="B889" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C889" s="7" t="s">
         <v>123</v>
@@ -16872,7 +16872,7 @@
         <v>97</v>
       </c>
       <c r="B890" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C890" s="7" t="s">
         <v>127</v>
@@ -16884,7 +16884,7 @@
         <v>97</v>
       </c>
       <c r="B891" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C891" s="7" t="s">
         <v>123</v>
@@ -16896,7 +16896,7 @@
         <v>97</v>
       </c>
       <c r="B892" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C892" s="7" t="s">
         <v>127</v>
@@ -16908,7 +16908,7 @@
         <v>97</v>
       </c>
       <c r="B893" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C893" s="7" t="s">
         <v>123</v>
@@ -16920,7 +16920,7 @@
         <v>94</v>
       </c>
       <c r="B894" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C894" s="7" t="s">
         <v>127</v>
@@ -16932,7 +16932,7 @@
         <v>94</v>
       </c>
       <c r="B895" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C895" s="7" t="s">
         <v>123</v>
@@ -16944,7 +16944,7 @@
         <v>103</v>
       </c>
       <c r="B896" s="8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C896" s="7" t="s">
         <v>127</v>
@@ -16956,7 +16956,7 @@
         <v>103</v>
       </c>
       <c r="B897" s="8" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C897" s="7" t="s">
         <v>123</v>
@@ -16968,7 +16968,7 @@
         <v>103</v>
       </c>
       <c r="B898" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C898" s="7" t="s">
         <v>127</v>
@@ -16980,7 +16980,7 @@
         <v>103</v>
       </c>
       <c r="B899" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C899" s="7" t="s">
         <v>123</v>
@@ -16992,7 +16992,7 @@
         <v>100</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C900" s="7" t="s">
         <v>127</v>
@@ -17004,7 +17004,7 @@
         <v>100</v>
       </c>
       <c r="B901" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C901" s="7" t="s">
         <v>123</v>
@@ -17016,7 +17016,7 @@
         <v>114</v>
       </c>
       <c r="B902" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C902" s="7" t="s">
         <v>127</v>
@@ -17028,7 +17028,7 @@
         <v>114</v>
       </c>
       <c r="B903" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C903" s="7" t="s">
         <v>123</v>
@@ -17040,7 +17040,7 @@
         <v>114</v>
       </c>
       <c r="B904" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C904" s="7" t="s">
         <v>127</v>
@@ -17052,7 +17052,7 @@
         <v>114</v>
       </c>
       <c r="B905" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C905" s="7" t="s">
         <v>123</v>
@@ -17064,7 +17064,7 @@
         <v>109</v>
       </c>
       <c r="B906" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C906" s="7" t="s">
         <v>127</v>
@@ -17076,7 +17076,7 @@
         <v>109</v>
       </c>
       <c r="B907" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C907" s="7" t="s">
         <v>123</v>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29F86A-DB0A-4C0C-847C-B2946362E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1EEFA7-EEE4-4079-AEBB-D2E9DB38107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5775,7 +5775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
+      <selection pane="bottomLeft" activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="706" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B706" s="8" t="s">
         <v>393</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="707" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B707" s="8" t="s">
         <v>394</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="708" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B708" s="8" t="s">
         <v>395</v>
@@ -14697,7 +14697,7 @@
     </row>
     <row r="709" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B709" s="8" t="s">
         <v>396</v>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1EEFA7-EEE4-4079-AEBB-D2E9DB38107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27691A8C-790F-487A-8089-F84BC300E378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="665">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2025,6 +2025,9 @@
   </si>
   <si>
     <t>sf_01_run_command</t>
+  </si>
+  <si>
+    <t>3F-SERVICE-BALCONY</t>
   </si>
 </sst>
 </file>
@@ -2649,9 +2652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4008,9 +4011,48 @@
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>664</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="M27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
       <c r="P27" s="11"/>
       <c r="S27" s="9"/>
     </row>
@@ -5773,9 +5815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D407" sqref="D407"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6470FB9-326F-43C3-A1FC-1DE86F534BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE36D6D-0125-4EF0-B4A0-AC3650564CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="665">
   <si>
     <t>dbo.section</t>
   </si>
@@ -5813,11 +5813,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1366"/>
+  <dimension ref="A1:G1360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10037,39 +10037,39 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C333" s="17" t="s">
-        <v>127</v>
+        <v>109</v>
+      </c>
+      <c r="B333" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C333" t="s">
+        <v>117</v>
       </c>
       <c r="D333" s="7"/>
       <c r="E333" s="8"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C334" s="17" t="s">
-        <v>135</v>
+        <v>109</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C334" t="s">
+        <v>117</v>
       </c>
       <c r="D334" s="7"/>
       <c r="E334" s="8"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C335" s="17" t="s">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C335" t="s">
+        <v>117</v>
       </c>
       <c r="D335" s="7"/>
       <c r="E335" s="8"/>
@@ -10079,12 +10079,11 @@
         <v>109</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C336" t="s">
         <v>117</v>
       </c>
-      <c r="D336" s="7"/>
       <c r="E336" s="8"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -10092,12 +10091,11 @@
         <v>109</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C337" t="s">
         <v>117</v>
       </c>
-      <c r="D337" s="7"/>
       <c r="E337" s="8"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -10105,10 +10103,10 @@
         <v>109</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C338" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="D338" s="7"/>
       <c r="E338" s="8"/>
@@ -10118,11 +10116,12 @@
         <v>109</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C339" t="s">
-        <v>117</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C339" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D339" s="7"/>
       <c r="E339" s="8"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -10130,11 +10129,12 @@
         <v>109</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C340" t="s">
-        <v>117</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D340" s="7"/>
       <c r="E340" s="8"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -10142,12 +10142,11 @@
         <v>109</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C341" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D341" s="7"/>
+        <v>125</v>
+      </c>
       <c r="E341" s="8"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -10155,12 +10154,11 @@
         <v>109</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D342" s="7"/>
+        <v>123</v>
+      </c>
       <c r="E342" s="8"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -10168,10 +10166,10 @@
         <v>109</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D343" s="7"/>
       <c r="E343" s="8"/>
@@ -10181,11 +10179,12 @@
         <v>109</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C344" s="17" t="s">
-        <v>125</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C344" t="s">
+        <v>117</v>
+      </c>
+      <c r="D344" s="7"/>
       <c r="E344" s="8"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -10193,11 +10192,12 @@
         <v>109</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>123</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D345" s="7"/>
       <c r="E345" s="8"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -10205,12 +10205,11 @@
         <v>109</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C346" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D346" s="7"/>
+        <v>125</v>
+      </c>
       <c r="E346" s="8"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -10218,12 +10217,11 @@
         <v>109</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C347" t="s">
-        <v>117</v>
-      </c>
-      <c r="D347" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="C347" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="E347" s="8"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -10231,10 +10229,10 @@
         <v>109</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C348" s="17" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="C348" t="s">
+        <v>117</v>
       </c>
       <c r="D348" s="7"/>
       <c r="E348" s="8"/>
@@ -10244,85 +10242,84 @@
         <v>109</v>
       </c>
       <c r="B349" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C349" s="17" t="s">
-        <v>125</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C349" t="s">
+        <v>117</v>
+      </c>
+      <c r="D349" s="7"/>
       <c r="E349" s="8"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B350" s="17" t="s">
-        <v>134</v>
+      <c r="B350" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C350" s="17" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D350" s="7"/>
       <c r="E350" s="8"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B351" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C351" t="s">
-        <v>117</v>
-      </c>
-      <c r="D351" s="7"/>
+      <c r="B351" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="E351" s="8"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B352" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C352" t="s">
-        <v>117</v>
-      </c>
-      <c r="D352" s="7"/>
+      <c r="B352" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="E352" s="8"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C353" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D353" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B353" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C353" t="s">
+        <v>117</v>
+      </c>
       <c r="E353" s="8"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C354" s="17" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="B354" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C354" t="s">
+        <v>117</v>
       </c>
       <c r="E354" s="8"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C355" s="17" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="B355" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C355" t="s">
+        <v>117</v>
       </c>
       <c r="E355" s="8"/>
     </row>
@@ -10331,11 +10328,12 @@
         <v>112</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C356" t="s">
         <v>117</v>
       </c>
+      <c r="D356" s="7"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -10343,11 +10341,12 @@
         <v>112</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C357" t="s">
         <v>117</v>
       </c>
+      <c r="D357" s="7"/>
       <c r="E357" s="8"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -10355,11 +10354,12 @@
         <v>112</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C358" t="s">
-        <v>117</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C358" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D358" s="7"/>
       <c r="E358" s="8"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -10367,12 +10367,11 @@
         <v>112</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C359" t="s">
-        <v>117</v>
-      </c>
-      <c r="D359" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C359" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="E359" s="8"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -10380,12 +10379,11 @@
         <v>112</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C360" t="s">
-        <v>117</v>
-      </c>
-      <c r="D360" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="C360" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="E360" s="8"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -10393,10 +10391,10 @@
         <v>112</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C361" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
@@ -10406,11 +10404,12 @@
         <v>112</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C362" s="17" t="s">
-        <v>125</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D362" s="7"/>
       <c r="E362" s="8"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -10418,11 +10417,12 @@
         <v>112</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D363" s="7"/>
       <c r="E363" s="8"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -10430,12 +10430,11 @@
         <v>112</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C364" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D364" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="C364" t="s">
+        <v>117</v>
+      </c>
       <c r="E364" s="8"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -10443,12 +10442,11 @@
         <v>112</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D365" s="7"/>
+        <v>127</v>
+      </c>
       <c r="E365" s="8"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -10456,10 +10454,10 @@
         <v>112</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C366" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D366" s="7"/>
       <c r="E366" s="8"/>
@@ -10469,11 +10467,12 @@
         <v>112</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C367" t="s">
-        <v>117</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C367" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D367" s="7"/>
       <c r="E367" s="8"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -10481,11 +10480,12 @@
         <v>112</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C368" s="17" t="s">
-        <v>127</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C368" t="s">
+        <v>117</v>
+      </c>
+      <c r="D368" s="7"/>
       <c r="E368" s="8"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -10493,33 +10493,32 @@
         <v>112</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C369" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D369" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="C369" t="s">
+        <v>117</v>
+      </c>
       <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C370" s="17" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="C370" t="s">
+        <v>117</v>
       </c>
       <c r="D370" s="7"/>
       <c r="E370" s="8"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C371" t="s">
         <v>117</v>
@@ -10529,52 +10528,52 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C372" t="s">
         <v>117</v>
       </c>
+      <c r="D372" s="7"/>
       <c r="E372" s="8"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B373" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C373" s="17" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B373" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C373" t="s">
+        <v>117</v>
+      </c>
+      <c r="D373" s="7"/>
       <c r="E373" s="8"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C374" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D374" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C374" t="s">
+        <v>117</v>
+      </c>
       <c r="E374" s="8"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B375" s="8" t="s">
-        <v>626</v>
+        <v>114</v>
+      </c>
+      <c r="B375" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C375" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D375" s="7"/>
       <c r="E375" s="8"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -10582,10 +10581,10 @@
         <v>114</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C376" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C376" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="D376" s="7"/>
       <c r="E376" s="8"/>
@@ -10595,10 +10594,10 @@
         <v>114</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C377" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="D377" s="7"/>
       <c r="E377" s="8"/>
@@ -10608,10 +10607,10 @@
         <v>114</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C378" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="C378" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="D378" s="7"/>
       <c r="E378" s="8"/>
@@ -10621,12 +10620,11 @@
         <v>114</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C379" t="s">
-        <v>117</v>
-      </c>
-      <c r="D379" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="C379" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="E379" s="8"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -10634,10 +10632,10 @@
         <v>114</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C380" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="C380" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="E380" s="8"/>
     </row>
@@ -10646,11 +10644,12 @@
         <v>114</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C381" s="17" t="s">
-        <v>123</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C381" t="s">
+        <v>117</v>
+      </c>
+      <c r="D381" s="7"/>
       <c r="E381" s="8"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -10658,10 +10657,10 @@
         <v>114</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D382" s="7"/>
       <c r="E382" s="8"/>
@@ -10671,10 +10670,10 @@
         <v>114</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C383" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
@@ -10684,12 +10683,11 @@
         <v>114</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C384" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D384" s="7"/>
+        <v>135</v>
+      </c>
       <c r="E384" s="8"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -10697,10 +10695,10 @@
         <v>114</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C385" s="17" t="s">
-        <v>123</v>
+        <v>136</v>
+      </c>
+      <c r="C385" t="s">
+        <v>117</v>
       </c>
       <c r="E385" s="8"/>
     </row>
@@ -10709,22 +10707,23 @@
         <v>114</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C386" s="17" t="s">
-        <v>123</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C386" t="s">
+        <v>117</v>
+      </c>
+      <c r="D386" s="7"/>
       <c r="E386" s="8"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B387" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="C387" t="s">
-        <v>117</v>
+      <c r="B387" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="D387" s="7"/>
       <c r="E387" s="8"/>
@@ -10733,11 +10732,11 @@
       <c r="A388" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B388" s="17" t="s">
-        <v>132</v>
+      <c r="B388" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="C388" s="17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
@@ -10746,123 +10745,119 @@
       <c r="A389" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B389" s="17" t="s">
-        <v>133</v>
+      <c r="B389" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D389" s="7"/>
       <c r="E389" s="8"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B390" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C390" s="17" t="s">
-        <v>135</v>
-      </c>
+    <row r="390" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C390" t="s">
+        <v>117</v>
+      </c>
+      <c r="D390" s="7"/>
       <c r="E390" s="8"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B391" s="17" t="s">
-        <v>136</v>
+    <row r="391" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A391" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>628</v>
       </c>
       <c r="C391" t="s">
         <v>117</v>
       </c>
+      <c r="D391" s="7"/>
       <c r="E391" s="8"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B392" s="17" t="s">
-        <v>137</v>
+    <row r="392" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A392" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>629</v>
       </c>
       <c r="C392" t="s">
         <v>117</v>
       </c>
-      <c r="D392" s="7"/>
       <c r="E392" s="8"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="2" t="s">
-        <v>114</v>
+    <row r="393" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A393" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C393" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D393" s="7"/>
+        <v>630</v>
+      </c>
+      <c r="C393" t="s">
+        <v>117</v>
+      </c>
       <c r="E393" s="8"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="2" t="s">
-        <v>114</v>
+    <row r="394" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A394" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C394" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D394" s="7"/>
+        <v>631</v>
+      </c>
+      <c r="C394" t="s">
+        <v>117</v>
+      </c>
       <c r="E394" s="8"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="2" t="s">
-        <v>114</v>
+    <row r="395" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A395" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C395" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D395" s="7"/>
+        <v>632</v>
+      </c>
+      <c r="C395" t="s">
+        <v>117</v>
+      </c>
       <c r="E395" s="8"/>
     </row>
     <row r="396" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="C396" t="s">
         <v>117</v>
       </c>
-      <c r="D396" s="7"/>
       <c r="E396" s="8"/>
     </row>
     <row r="397" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C397" t="s">
         <v>117</v>
       </c>
-      <c r="D397" s="7"/>
       <c r="E397" s="8"/>
     </row>
     <row r="398" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C398" t="s">
         <v>117</v>
@@ -10871,10 +10866,10 @@
     </row>
     <row r="399" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C399" t="s">
         <v>117</v>
@@ -10883,10 +10878,10 @@
     </row>
     <row r="400" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C400" t="s">
         <v>117</v>
@@ -10895,10 +10890,10 @@
     </row>
     <row r="401" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C401" t="s">
         <v>117</v>
@@ -10907,10 +10902,10 @@
     </row>
     <row r="402" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>56</v>
+        <v>627</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C402" t="s">
         <v>117</v>
@@ -10919,10 +10914,10 @@
     </row>
     <row r="403" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>56</v>
+        <v>627</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C403" t="s">
         <v>117</v>
@@ -10931,10 +10926,10 @@
     </row>
     <row r="404" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>74</v>
+        <v>627</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C404" t="s">
         <v>117</v>
@@ -10943,10 +10938,10 @@
     </row>
     <row r="405" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>74</v>
+        <v>627</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C405" t="s">
         <v>117</v>
@@ -10955,10 +10950,10 @@
     </row>
     <row r="406" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C406" t="s">
         <v>117</v>
@@ -10967,10 +10962,10 @@
     </row>
     <row r="407" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C407" t="s">
         <v>117</v>
@@ -10979,10 +10974,10 @@
     </row>
     <row r="408" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C408" t="s">
         <v>117</v>
@@ -10991,10 +10986,10 @@
     </row>
     <row r="409" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C409" t="s">
         <v>117</v>
@@ -11003,10 +10998,10 @@
     </row>
     <row r="410" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>627</v>
+        <v>85</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C410" t="s">
         <v>117</v>
@@ -11015,10 +11010,10 @@
     </row>
     <row r="411" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
-        <v>627</v>
+        <v>85</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C411" t="s">
         <v>117</v>
@@ -11027,10 +11022,10 @@
     </row>
     <row r="412" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
-        <v>614</v>
+        <v>85</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C412" t="s">
         <v>117</v>
@@ -11039,10 +11034,10 @@
     </row>
     <row r="413" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
-        <v>614</v>
+        <v>85</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C413" t="s">
         <v>117</v>
@@ -11051,10 +11046,10 @@
     </row>
     <row r="414" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
-        <v>614</v>
+        <v>91</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C414" t="s">
         <v>117</v>
@@ -11063,10 +11058,10 @@
     </row>
     <row r="415" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
-        <v>614</v>
+        <v>91</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C415" t="s">
         <v>117</v>
@@ -11075,10 +11070,10 @@
     </row>
     <row r="416" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C416" t="s">
         <v>117</v>
@@ -11087,10 +11082,10 @@
     </row>
     <row r="417" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C417" t="s">
         <v>117</v>
@@ -11099,10 +11094,10 @@
     </row>
     <row r="418" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C418" t="s">
         <v>117</v>
@@ -11111,10 +11106,10 @@
     </row>
     <row r="419" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C419" t="s">
         <v>117</v>
@@ -11123,10 +11118,10 @@
     </row>
     <row r="420" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C420" t="s">
         <v>117</v>
@@ -11135,10 +11130,10 @@
     </row>
     <row r="421" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C421" t="s">
         <v>117</v>
@@ -11147,10 +11142,10 @@
     </row>
     <row r="422" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C422" t="s">
         <v>117</v>
@@ -11159,10 +11154,10 @@
     </row>
     <row r="423" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C423" t="s">
         <v>117</v>
@@ -11171,10 +11166,10 @@
     </row>
     <row r="424" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C424" t="s">
         <v>117</v>
@@ -11183,10 +11178,10 @@
     </row>
     <row r="425" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C425" t="s">
         <v>117</v>
@@ -11195,46 +11190,49 @@
     </row>
     <row r="426" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
-        <v>94</v>
+        <v>527</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>657</v>
+        <v>509</v>
       </c>
       <c r="C426" t="s">
         <v>117</v>
       </c>
+      <c r="D426" s="7"/>
       <c r="E426" s="8"/>
     </row>
     <row r="427" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
-        <v>94</v>
+        <v>527</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>658</v>
+        <v>510</v>
       </c>
       <c r="C427" t="s">
         <v>117</v>
       </c>
+      <c r="D427" s="7"/>
       <c r="E427" s="8"/>
     </row>
     <row r="428" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>659</v>
+        <v>511</v>
       </c>
       <c r="C428" t="s">
         <v>117</v>
       </c>
+      <c r="D428" s="7"/>
       <c r="E428" s="8"/>
     </row>
     <row r="429" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>660</v>
+        <v>512</v>
       </c>
       <c r="C429" t="s">
         <v>117</v>
@@ -11243,10 +11241,10 @@
     </row>
     <row r="430" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="C430" t="s">
         <v>117</v>
@@ -11255,14 +11253,15 @@
     </row>
     <row r="431" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>662</v>
+        <v>514</v>
       </c>
       <c r="C431" t="s">
         <v>117</v>
       </c>
+      <c r="D431" s="7"/>
       <c r="E431" s="8"/>
     </row>
     <row r="432" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11270,7 +11269,7 @@
         <v>527</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C432" t="s">
         <v>117</v>
@@ -11283,7 +11282,7 @@
         <v>527</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C433" t="s">
         <v>117</v>
@@ -11296,12 +11295,11 @@
         <v>527</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C434" t="s">
         <v>117</v>
       </c>
-      <c r="D434" s="7"/>
       <c r="E434" s="8"/>
     </row>
     <row r="435" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11309,7 +11307,7 @@
         <v>527</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C435" t="s">
         <v>117</v>
@@ -11321,11 +11319,12 @@
         <v>527</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C436" t="s">
         <v>117</v>
       </c>
+      <c r="D436" s="7"/>
       <c r="E436" s="8"/>
     </row>
     <row r="437" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11333,7 +11332,7 @@
         <v>527</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C437" t="s">
         <v>117</v>
@@ -11346,7 +11345,7 @@
         <v>527</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C438" t="s">
         <v>117</v>
@@ -11359,12 +11358,11 @@
         <v>527</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C439" t="s">
         <v>117</v>
       </c>
-      <c r="D439" s="7"/>
       <c r="E439" s="8"/>
     </row>
     <row r="440" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11372,7 +11370,7 @@
         <v>527</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C440" t="s">
         <v>117</v>
@@ -11384,11 +11382,12 @@
         <v>527</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C441" t="s">
         <v>117</v>
       </c>
+      <c r="D441" s="7"/>
       <c r="E441" s="8"/>
     </row>
     <row r="442" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11396,7 +11395,7 @@
         <v>527</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C442" t="s">
         <v>117</v>
@@ -11409,7 +11408,7 @@
         <v>527</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C443" t="s">
         <v>117</v>
@@ -11422,12 +11421,11 @@
         <v>527</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>521</v>
+        <v>147</v>
       </c>
       <c r="C444" t="s">
         <v>117</v>
       </c>
-      <c r="D444" s="7"/>
       <c r="E444" s="8"/>
     </row>
     <row r="445" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11435,7 +11433,7 @@
         <v>527</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>522</v>
+        <v>148</v>
       </c>
       <c r="C445" t="s">
         <v>117</v>
@@ -11447,11 +11445,12 @@
         <v>527</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>523</v>
+        <v>149</v>
       </c>
       <c r="C446" t="s">
         <v>117</v>
       </c>
+      <c r="D446" s="7"/>
       <c r="E446" s="8"/>
     </row>
     <row r="447" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11459,7 +11458,7 @@
         <v>527</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>524</v>
+        <v>150</v>
       </c>
       <c r="C447" t="s">
         <v>117</v>
@@ -11469,10 +11468,10 @@
     </row>
     <row r="448" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>525</v>
+        <v>151</v>
       </c>
       <c r="C448" t="s">
         <v>117</v>
@@ -11482,23 +11481,22 @@
     </row>
     <row r="449" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>526</v>
+        <v>152</v>
       </c>
       <c r="C449" t="s">
         <v>117</v>
       </c>
-      <c r="D449" s="7"/>
       <c r="E449" s="8"/>
     </row>
     <row r="450" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C450" t="s">
         <v>117</v>
@@ -11507,22 +11505,23 @@
     </row>
     <row r="451" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C451" t="s">
         <v>117</v>
       </c>
+      <c r="D451" s="7"/>
       <c r="E451" s="8"/>
     </row>
     <row r="452" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
-        <v>527</v>
+        <v>65</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C452" t="s">
         <v>117</v>
@@ -11532,10 +11531,10 @@
     </row>
     <row r="453" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
-        <v>527</v>
+        <v>65</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C453" t="s">
         <v>117</v>
@@ -11545,23 +11544,22 @@
     </row>
     <row r="454" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
-        <v>528</v>
+        <v>65</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C454" t="s">
         <v>117</v>
       </c>
-      <c r="D454" s="7"/>
       <c r="E454" s="8"/>
     </row>
     <row r="455" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>528</v>
+        <v>65</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C455" t="s">
         <v>117</v>
@@ -11570,22 +11568,23 @@
     </row>
     <row r="456" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>528</v>
+        <v>62</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C456" t="s">
         <v>117</v>
       </c>
+      <c r="D456" s="7"/>
       <c r="E456" s="8"/>
     </row>
     <row r="457" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>528</v>
+        <v>62</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C457" t="s">
         <v>117</v>
@@ -11595,10 +11594,10 @@
     </row>
     <row r="458" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C458" t="s">
         <v>117</v>
@@ -11608,23 +11607,22 @@
     </row>
     <row r="459" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C459" t="s">
         <v>117</v>
       </c>
-      <c r="D459" s="7"/>
       <c r="E459" s="8"/>
     </row>
     <row r="460" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C460" t="s">
         <v>117</v>
@@ -11633,14 +11631,15 @@
     </row>
     <row r="461" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C461" t="s">
         <v>117</v>
       </c>
+      <c r="D461" s="7"/>
       <c r="E461" s="8"/>
     </row>
     <row r="462" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11648,7 +11647,7 @@
         <v>62</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C462" t="s">
         <v>117</v>
@@ -11661,7 +11660,7 @@
         <v>62</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C463" t="s">
         <v>117</v>
@@ -11671,23 +11670,22 @@
     </row>
     <row r="464" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C464" t="s">
         <v>117</v>
       </c>
-      <c r="D464" s="7"/>
       <c r="E464" s="8"/>
     </row>
     <row r="465" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C465" t="s">
         <v>117</v>
@@ -11696,22 +11694,23 @@
     </row>
     <row r="466" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C466" t="s">
         <v>117</v>
       </c>
+      <c r="D466" s="7"/>
       <c r="E466" s="8"/>
     </row>
     <row r="467" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C467" t="s">
         <v>117</v>
@@ -11721,10 +11720,10 @@
     </row>
     <row r="468" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C468" t="s">
         <v>117</v>
@@ -11734,23 +11733,22 @@
     </row>
     <row r="469" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C469" t="s">
         <v>117</v>
       </c>
-      <c r="D469" s="7"/>
       <c r="E469" s="8"/>
     </row>
     <row r="470" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C470" t="s">
         <v>117</v>
@@ -11759,22 +11757,23 @@
     </row>
     <row r="471" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C471" t="s">
         <v>117</v>
       </c>
+      <c r="D471" s="7"/>
       <c r="E471" s="8"/>
     </row>
     <row r="472" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C472" t="s">
         <v>117</v>
@@ -11784,10 +11783,10 @@
     </row>
     <row r="473" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C473" t="s">
         <v>117</v>
@@ -11797,23 +11796,22 @@
     </row>
     <row r="474" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C474" t="s">
         <v>117</v>
       </c>
-      <c r="D474" s="7"/>
       <c r="E474" s="8"/>
     </row>
     <row r="475" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C475" t="s">
         <v>117</v>
@@ -11822,22 +11820,23 @@
     </row>
     <row r="476" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C476" t="s">
         <v>117</v>
       </c>
+      <c r="D476" s="7"/>
       <c r="E476" s="8"/>
     </row>
     <row r="477" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C477" t="s">
         <v>117</v>
@@ -11847,10 +11846,10 @@
     </row>
     <row r="478" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C478" t="s">
         <v>117</v>
@@ -11860,15 +11859,14 @@
     </row>
     <row r="479" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C479" t="s">
         <v>117</v>
       </c>
-      <c r="D479" s="7"/>
       <c r="E479" s="8"/>
     </row>
     <row r="480" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11876,7 +11874,7 @@
         <v>71</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C480" t="s">
         <v>117</v>
@@ -11888,11 +11886,12 @@
         <v>71</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C481" t="s">
         <v>117</v>
       </c>
+      <c r="D481" s="7"/>
       <c r="E481" s="8"/>
     </row>
     <row r="482" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11900,7 +11899,7 @@
         <v>71</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C482" t="s">
         <v>117</v>
@@ -11913,7 +11912,7 @@
         <v>71</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C483" t="s">
         <v>117</v>
@@ -11926,12 +11925,11 @@
         <v>71</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C484" t="s">
         <v>117</v>
       </c>
-      <c r="D484" s="7"/>
       <c r="E484" s="8"/>
     </row>
     <row r="485" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11939,7 +11937,7 @@
         <v>71</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C485" t="s">
         <v>117</v>
@@ -11951,11 +11949,12 @@
         <v>71</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C486" t="s">
         <v>117</v>
       </c>
+      <c r="D486" s="7"/>
       <c r="E486" s="8"/>
     </row>
     <row r="487" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11963,7 +11962,7 @@
         <v>71</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C487" t="s">
         <v>117</v>
@@ -11976,7 +11975,7 @@
         <v>71</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C488" t="s">
         <v>117</v>
@@ -11989,12 +11988,11 @@
         <v>71</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C489" t="s">
         <v>117</v>
       </c>
-      <c r="D489" s="7"/>
       <c r="E489" s="8"/>
     </row>
     <row r="490" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12002,7 +12000,7 @@
         <v>71</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C490" t="s">
         <v>117</v>
@@ -12014,11 +12012,12 @@
         <v>71</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C491" t="s">
         <v>117</v>
       </c>
+      <c r="D491" s="7"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12026,7 +12025,7 @@
         <v>71</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C492" t="s">
         <v>117</v>
@@ -12039,7 +12038,7 @@
         <v>71</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C493" t="s">
         <v>117</v>
@@ -12052,12 +12051,11 @@
         <v>71</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C494" t="s">
         <v>117</v>
       </c>
-      <c r="D494" s="7"/>
       <c r="E494" s="8"/>
     </row>
     <row r="495" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12065,7 +12063,7 @@
         <v>71</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C495" t="s">
         <v>117</v>
@@ -12077,11 +12075,12 @@
         <v>71</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C496" t="s">
         <v>117</v>
       </c>
+      <c r="D496" s="7"/>
       <c r="E496" s="8"/>
     </row>
     <row r="497" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12089,7 +12088,7 @@
         <v>71</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C497" t="s">
         <v>117</v>
@@ -12102,7 +12101,7 @@
         <v>71</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C498" t="s">
         <v>117</v>
@@ -12115,12 +12114,11 @@
         <v>71</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C499" t="s">
         <v>117</v>
       </c>
-      <c r="D499" s="7"/>
       <c r="E499" s="8"/>
     </row>
     <row r="500" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12128,7 +12126,7 @@
         <v>71</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C500" t="s">
         <v>117</v>
@@ -12140,11 +12138,12 @@
         <v>71</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C501" t="s">
         <v>117</v>
       </c>
+      <c r="D501" s="7"/>
       <c r="E501" s="8"/>
     </row>
     <row r="502" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12152,7 +12151,7 @@
         <v>71</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C502" t="s">
         <v>117</v>
@@ -12165,7 +12164,7 @@
         <v>71</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C503" t="s">
         <v>117</v>
@@ -12178,12 +12177,11 @@
         <v>71</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C504" t="s">
         <v>117</v>
       </c>
-      <c r="D504" s="7"/>
       <c r="E504" s="8"/>
     </row>
     <row r="505" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12191,7 +12189,7 @@
         <v>71</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C505" t="s">
         <v>117</v>
@@ -12203,11 +12201,12 @@
         <v>71</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C506" t="s">
         <v>117</v>
       </c>
+      <c r="D506" s="7"/>
       <c r="E506" s="8"/>
     </row>
     <row r="507" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12215,7 +12214,7 @@
         <v>71</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C507" t="s">
         <v>117</v>
@@ -12228,7 +12227,7 @@
         <v>71</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C508" t="s">
         <v>117</v>
@@ -12241,12 +12240,11 @@
         <v>71</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C509" t="s">
         <v>117</v>
       </c>
-      <c r="D509" s="7"/>
       <c r="E509" s="8"/>
     </row>
     <row r="510" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12254,7 +12252,7 @@
         <v>71</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C510" t="s">
         <v>117</v>
@@ -12266,11 +12264,12 @@
         <v>71</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C511" t="s">
         <v>117</v>
       </c>
+      <c r="D511" s="7"/>
       <c r="E511" s="8"/>
     </row>
     <row r="512" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12278,7 +12277,7 @@
         <v>71</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C512" t="s">
         <v>117</v>
@@ -12291,7 +12290,7 @@
         <v>71</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C513" t="s">
         <v>117</v>
@@ -12299,49 +12298,49 @@
       <c r="D513" s="7"/>
       <c r="E513" s="8"/>
     </row>
-    <row r="514" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A514" s="9" t="s">
-        <v>71</v>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C514" t="s">
         <v>117</v>
       </c>
-      <c r="D514" s="7"/>
       <c r="E514" s="8"/>
     </row>
-    <row r="515" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A515" s="9" t="s">
-        <v>71</v>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C515" t="s">
         <v>117</v>
       </c>
       <c r="E515" s="8"/>
     </row>
-    <row r="516" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A516" s="9" t="s">
-        <v>71</v>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C516" t="s">
         <v>117</v>
       </c>
+      <c r="D516" s="7"/>
       <c r="E516" s="8"/>
     </row>
     <row r="517" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
-        <v>71</v>
+        <v>614</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C517" t="s">
         <v>117</v>
@@ -12351,10 +12350,10 @@
     </row>
     <row r="518" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
-        <v>71</v>
+        <v>614</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C518" t="s">
         <v>117</v>
@@ -12364,47 +12363,47 @@
     </row>
     <row r="519" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
-        <v>71</v>
+        <v>614</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C519" t="s">
         <v>117</v>
       </c>
-      <c r="D519" s="7"/>
       <c r="E519" s="8"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A520" s="2" t="s">
-        <v>613</v>
+    <row r="520" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A520" s="9" t="s">
+        <v>614</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C520" t="s">
         <v>117</v>
       </c>
       <c r="E520" s="8"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A521" s="2" t="s">
-        <v>613</v>
+    <row r="521" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A521" s="9" t="s">
+        <v>614</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C521" t="s">
         <v>117</v>
       </c>
+      <c r="D521" s="7"/>
       <c r="E521" s="8"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A522" s="2" t="s">
+    <row r="522" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A522" s="9" t="s">
         <v>614</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C522" t="s">
         <v>117</v>
@@ -12417,7 +12416,7 @@
         <v>614</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C523" t="s">
         <v>117</v>
@@ -12430,12 +12429,11 @@
         <v>614</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C524" t="s">
         <v>117</v>
       </c>
-      <c r="D524" s="7"/>
       <c r="E524" s="8"/>
     </row>
     <row r="525" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12443,7 +12441,7 @@
         <v>614</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C525" t="s">
         <v>117</v>
@@ -12455,11 +12453,12 @@
         <v>614</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C526" t="s">
         <v>117</v>
       </c>
+      <c r="D526" s="7"/>
       <c r="E526" s="8"/>
     </row>
     <row r="527" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12467,7 +12466,7 @@
         <v>614</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C527" t="s">
         <v>117</v>
@@ -12480,7 +12479,7 @@
         <v>614</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C528" t="s">
         <v>117</v>
@@ -12493,12 +12492,11 @@
         <v>614</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C529" t="s">
         <v>117</v>
       </c>
-      <c r="D529" s="7"/>
       <c r="E529" s="8"/>
     </row>
     <row r="530" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12506,7 +12504,7 @@
         <v>614</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C530" t="s">
         <v>117</v>
@@ -12518,11 +12516,12 @@
         <v>614</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C531" t="s">
         <v>117</v>
       </c>
+      <c r="D531" s="7"/>
       <c r="E531" s="8"/>
     </row>
     <row r="532" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12530,7 +12529,7 @@
         <v>614</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C532" t="s">
         <v>117</v>
@@ -12543,7 +12542,7 @@
         <v>614</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C533" t="s">
         <v>117</v>
@@ -12556,12 +12555,11 @@
         <v>614</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C534" t="s">
         <v>117</v>
       </c>
-      <c r="D534" s="7"/>
       <c r="E534" s="8"/>
     </row>
     <row r="535" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12569,7 +12567,7 @@
         <v>614</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C535" t="s">
         <v>117</v>
@@ -12581,11 +12579,12 @@
         <v>614</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C536" t="s">
         <v>117</v>
       </c>
+      <c r="D536" s="7"/>
       <c r="E536" s="8"/>
     </row>
     <row r="537" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12593,7 +12592,7 @@
         <v>614</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C537" t="s">
         <v>117</v>
@@ -12606,7 +12605,7 @@
         <v>614</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C538" t="s">
         <v>117</v>
@@ -12619,12 +12618,11 @@
         <v>614</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C539" t="s">
         <v>117</v>
       </c>
-      <c r="D539" s="7"/>
       <c r="E539" s="8"/>
     </row>
     <row r="540" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12632,7 +12630,7 @@
         <v>614</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C540" t="s">
         <v>117</v>
@@ -12644,11 +12642,12 @@
         <v>614</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C541" t="s">
         <v>117</v>
       </c>
+      <c r="D541" s="7"/>
       <c r="E541" s="8"/>
     </row>
     <row r="542" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12656,7 +12655,7 @@
         <v>614</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C542" t="s">
         <v>117</v>
@@ -12669,7 +12668,7 @@
         <v>614</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C543" t="s">
         <v>117</v>
@@ -12682,12 +12681,11 @@
         <v>614</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C544" t="s">
         <v>117</v>
       </c>
-      <c r="D544" s="7"/>
       <c r="E544" s="8"/>
     </row>
     <row r="545" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12695,7 +12693,7 @@
         <v>614</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C545" t="s">
         <v>117</v>
@@ -12707,11 +12705,12 @@
         <v>614</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C546" t="s">
         <v>117</v>
       </c>
+      <c r="D546" s="7"/>
       <c r="E546" s="8"/>
     </row>
     <row r="547" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12719,7 +12718,7 @@
         <v>614</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C547" t="s">
         <v>117</v>
@@ -12732,7 +12731,7 @@
         <v>614</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C548" t="s">
         <v>117</v>
@@ -12745,12 +12744,11 @@
         <v>614</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C549" t="s">
         <v>117</v>
       </c>
-      <c r="D549" s="7"/>
       <c r="E549" s="8"/>
     </row>
     <row r="550" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12758,7 +12756,7 @@
         <v>614</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C550" t="s">
         <v>117</v>
@@ -12770,11 +12768,12 @@
         <v>614</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C551" t="s">
         <v>117</v>
       </c>
+      <c r="D551" s="7"/>
       <c r="E551" s="8"/>
     </row>
     <row r="552" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12782,7 +12781,7 @@
         <v>614</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C552" t="s">
         <v>117</v>
@@ -12795,7 +12794,7 @@
         <v>614</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C553" t="s">
         <v>117</v>
@@ -12808,12 +12807,11 @@
         <v>614</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C554" t="s">
         <v>117</v>
       </c>
-      <c r="D554" s="7"/>
       <c r="E554" s="8"/>
     </row>
     <row r="555" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12821,7 +12819,7 @@
         <v>614</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C555" t="s">
         <v>117</v>
@@ -12833,11 +12831,12 @@
         <v>614</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C556" t="s">
         <v>117</v>
       </c>
+      <c r="D556" s="7"/>
       <c r="E556" s="8"/>
     </row>
     <row r="557" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12845,7 +12844,7 @@
         <v>614</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C557" t="s">
         <v>117</v>
@@ -12858,7 +12857,7 @@
         <v>614</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C558" t="s">
         <v>117</v>
@@ -12871,12 +12870,11 @@
         <v>614</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C559" t="s">
         <v>117</v>
       </c>
-      <c r="D559" s="7"/>
       <c r="E559" s="8"/>
     </row>
     <row r="560" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12884,7 +12882,7 @@
         <v>614</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C560" t="s">
         <v>117</v>
@@ -12896,11 +12894,12 @@
         <v>614</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C561" t="s">
         <v>117</v>
       </c>
+      <c r="D561" s="7"/>
       <c r="E561" s="8"/>
     </row>
     <row r="562" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12908,7 +12907,7 @@
         <v>614</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C562" t="s">
         <v>117</v>
@@ -12921,7 +12920,7 @@
         <v>614</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C563" t="s">
         <v>117</v>
@@ -12934,12 +12933,11 @@
         <v>614</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C564" t="s">
         <v>117</v>
       </c>
-      <c r="D564" s="7"/>
       <c r="E564" s="8"/>
     </row>
     <row r="565" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12947,7 +12945,7 @@
         <v>614</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C565" t="s">
         <v>117</v>
@@ -12959,11 +12957,12 @@
         <v>614</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C566" t="s">
         <v>117</v>
       </c>
+      <c r="D566" s="7"/>
       <c r="E566" s="8"/>
     </row>
     <row r="567" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12971,7 +12970,7 @@
         <v>614</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C567" t="s">
         <v>117</v>
@@ -12984,7 +12983,7 @@
         <v>614</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C568" t="s">
         <v>117</v>
@@ -12997,12 +12996,11 @@
         <v>614</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C569" t="s">
         <v>117</v>
       </c>
-      <c r="D569" s="7"/>
       <c r="E569" s="8"/>
     </row>
     <row r="570" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13010,7 +13008,7 @@
         <v>614</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C570" t="s">
         <v>117</v>
@@ -13022,19 +13020,20 @@
         <v>614</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C571" t="s">
         <v>117</v>
       </c>
+      <c r="D571" s="7"/>
       <c r="E571" s="8"/>
     </row>
     <row r="572" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C572" t="s">
         <v>117</v>
@@ -13044,10 +13043,10 @@
     </row>
     <row r="573" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C573" t="s">
         <v>117</v>
@@ -13057,23 +13056,22 @@
     </row>
     <row r="574" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C574" t="s">
         <v>117</v>
       </c>
-      <c r="D574" s="7"/>
       <c r="E574" s="8"/>
     </row>
     <row r="575" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C575" t="s">
         <v>117</v>
@@ -13082,22 +13080,23 @@
     </row>
     <row r="576" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C576" t="s">
         <v>117</v>
       </c>
+      <c r="D576" s="7"/>
       <c r="E576" s="8"/>
     </row>
     <row r="577" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C577" t="s">
         <v>117</v>
@@ -13110,7 +13109,7 @@
         <v>613</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C578" t="s">
         <v>117</v>
@@ -13123,12 +13122,11 @@
         <v>613</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C579" t="s">
         <v>117</v>
       </c>
-      <c r="D579" s="7"/>
       <c r="E579" s="8"/>
     </row>
     <row r="580" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13136,7 +13134,7 @@
         <v>613</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C580" t="s">
         <v>117</v>
@@ -13148,11 +13146,12 @@
         <v>613</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C581" t="s">
         <v>117</v>
       </c>
+      <c r="D581" s="7"/>
       <c r="E581" s="8"/>
     </row>
     <row r="582" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13160,7 +13159,7 @@
         <v>613</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C582" t="s">
         <v>117</v>
@@ -13173,7 +13172,7 @@
         <v>613</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C583" t="s">
         <v>117</v>
@@ -13186,12 +13185,11 @@
         <v>613</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C584" t="s">
         <v>117</v>
       </c>
-      <c r="D584" s="7"/>
       <c r="E584" s="8"/>
     </row>
     <row r="585" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13199,7 +13197,7 @@
         <v>613</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C585" t="s">
         <v>117</v>
@@ -13211,11 +13209,12 @@
         <v>613</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C586" t="s">
         <v>117</v>
       </c>
+      <c r="D586" s="7"/>
       <c r="E586" s="8"/>
     </row>
     <row r="587" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13223,7 +13222,7 @@
         <v>613</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C587" t="s">
         <v>117</v>
@@ -13236,7 +13235,7 @@
         <v>613</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C588" t="s">
         <v>117</v>
@@ -13249,12 +13248,11 @@
         <v>613</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C589" t="s">
         <v>117</v>
       </c>
-      <c r="D589" s="7"/>
       <c r="E589" s="8"/>
     </row>
     <row r="590" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13262,7 +13260,7 @@
         <v>613</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C590" t="s">
         <v>117</v>
@@ -13274,11 +13272,12 @@
         <v>613</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C591" t="s">
         <v>117</v>
       </c>
+      <c r="D591" s="7"/>
       <c r="E591" s="8"/>
     </row>
     <row r="592" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13286,7 +13285,7 @@
         <v>613</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C592" t="s">
         <v>117</v>
@@ -13299,7 +13298,7 @@
         <v>613</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C593" t="s">
         <v>117</v>
@@ -13312,12 +13311,11 @@
         <v>613</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C594" t="s">
         <v>117</v>
       </c>
-      <c r="D594" s="7"/>
       <c r="E594" s="8"/>
     </row>
     <row r="595" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13325,7 +13323,7 @@
         <v>613</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C595" t="s">
         <v>117</v>
@@ -13337,11 +13335,12 @@
         <v>613</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C596" t="s">
         <v>117</v>
       </c>
+      <c r="D596" s="7"/>
       <c r="E596" s="8"/>
     </row>
     <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13349,7 +13348,7 @@
         <v>613</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C597" t="s">
         <v>117</v>
@@ -13362,7 +13361,7 @@
         <v>613</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C598" t="s">
         <v>117</v>
@@ -13375,12 +13374,11 @@
         <v>613</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C599" t="s">
         <v>117</v>
       </c>
-      <c r="D599" s="7"/>
       <c r="E599" s="8"/>
     </row>
     <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13388,7 +13386,7 @@
         <v>613</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C600" t="s">
         <v>117</v>
@@ -13400,11 +13398,12 @@
         <v>613</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C601" t="s">
         <v>117</v>
       </c>
+      <c r="D601" s="7"/>
       <c r="E601" s="8"/>
     </row>
     <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13412,7 +13411,7 @@
         <v>613</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C602" t="s">
         <v>117</v>
@@ -13425,7 +13424,7 @@
         <v>613</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C603" t="s">
         <v>117</v>
@@ -13438,12 +13437,11 @@
         <v>613</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C604" t="s">
         <v>117</v>
       </c>
-      <c r="D604" s="7"/>
       <c r="E604" s="8"/>
     </row>
     <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13451,7 +13449,7 @@
         <v>613</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C605" t="s">
         <v>117</v>
@@ -13460,22 +13458,23 @@
     </row>
     <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C606" t="s">
         <v>117</v>
       </c>
+      <c r="D606" s="7"/>
       <c r="E606" s="8"/>
     </row>
     <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C607" t="s">
         <v>117</v>
@@ -13485,10 +13484,10 @@
     </row>
     <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C608" t="s">
         <v>117</v>
@@ -13498,23 +13497,22 @@
     </row>
     <row r="609" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C609" t="s">
         <v>117</v>
       </c>
-      <c r="D609" s="7"/>
       <c r="E609" s="8"/>
     </row>
     <row r="610" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C610" t="s">
         <v>117</v>
@@ -13523,14 +13521,15 @@
     </row>
     <row r="611" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C611" t="s">
         <v>117</v>
       </c>
+      <c r="D611" s="7"/>
       <c r="E611" s="8"/>
     </row>
     <row r="612" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13538,7 +13537,7 @@
         <v>614</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C612" t="s">
         <v>117</v>
@@ -13551,7 +13550,7 @@
         <v>614</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C613" t="s">
         <v>117</v>
@@ -13564,12 +13563,11 @@
         <v>614</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C614" t="s">
         <v>117</v>
       </c>
-      <c r="D614" s="7"/>
       <c r="E614" s="8"/>
     </row>
     <row r="615" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13577,7 +13575,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C615" t="s">
         <v>117</v>
@@ -13589,11 +13587,12 @@
         <v>614</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C616" t="s">
         <v>117</v>
       </c>
+      <c r="D616" s="7"/>
       <c r="E616" s="8"/>
     </row>
     <row r="617" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13601,7 +13600,7 @@
         <v>614</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C617" t="s">
         <v>117</v>
@@ -13614,7 +13613,7 @@
         <v>614</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C618" t="s">
         <v>117</v>
@@ -13627,12 +13626,11 @@
         <v>614</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C619" t="s">
         <v>117</v>
       </c>
-      <c r="D619" s="7"/>
       <c r="E619" s="8"/>
     </row>
     <row r="620" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13640,7 +13638,7 @@
         <v>614</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C620" t="s">
         <v>117</v>
@@ -13652,11 +13650,12 @@
         <v>614</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C621" t="s">
         <v>117</v>
       </c>
+      <c r="D621" s="7"/>
       <c r="E621" s="8"/>
     </row>
     <row r="622" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13664,7 +13663,7 @@
         <v>614</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C622" t="s">
         <v>117</v>
@@ -13677,7 +13676,7 @@
         <v>614</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C623" t="s">
         <v>117</v>
@@ -13690,12 +13689,11 @@
         <v>614</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C624" t="s">
         <v>117</v>
       </c>
-      <c r="D624" s="7"/>
       <c r="E624" s="8"/>
     </row>
     <row r="625" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13703,7 +13701,7 @@
         <v>614</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C625" t="s">
         <v>117</v>
@@ -13715,11 +13713,12 @@
         <v>614</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C626" t="s">
         <v>117</v>
       </c>
+      <c r="D626" s="7"/>
       <c r="E626" s="8"/>
     </row>
     <row r="627" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13727,7 +13726,7 @@
         <v>614</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C627" t="s">
         <v>117</v>
@@ -13737,10 +13736,10 @@
     </row>
     <row r="628" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C628" t="s">
         <v>117</v>
@@ -13750,23 +13749,22 @@
     </row>
     <row r="629" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C629" t="s">
         <v>117</v>
       </c>
-      <c r="D629" s="7"/>
       <c r="E629" s="8"/>
     </row>
     <row r="630" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C630" t="s">
         <v>117</v>
@@ -13775,22 +13773,23 @@
     </row>
     <row r="631" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C631" t="s">
         <v>117</v>
       </c>
+      <c r="D631" s="7"/>
       <c r="E631" s="8"/>
     </row>
     <row r="632" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C632" t="s">
         <v>117</v>
@@ -13800,10 +13799,10 @@
     </row>
     <row r="633" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C633" t="s">
         <v>117</v>
@@ -13816,12 +13815,11 @@
         <v>613</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C634" t="s">
         <v>117</v>
       </c>
-      <c r="D634" s="7"/>
       <c r="E634" s="8"/>
     </row>
     <row r="635" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13829,7 +13827,7 @@
         <v>613</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C635" t="s">
         <v>117</v>
@@ -13841,11 +13839,12 @@
         <v>613</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C636" t="s">
         <v>117</v>
       </c>
+      <c r="D636" s="7"/>
       <c r="E636" s="8"/>
     </row>
     <row r="637" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13853,7 +13852,7 @@
         <v>613</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C637" t="s">
         <v>117</v>
@@ -13863,10 +13862,10 @@
     </row>
     <row r="638" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C638" t="s">
         <v>117</v>
@@ -13876,35 +13875,35 @@
     </row>
     <row r="639" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C639" t="s">
         <v>117</v>
       </c>
-      <c r="D639" s="7"/>
       <c r="E639" s="8"/>
     </row>
     <row r="640" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C640" t="s">
         <v>117</v>
       </c>
+      <c r="D640" s="7"/>
       <c r="E640" s="8"/>
     </row>
     <row r="641" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C641" t="s">
         <v>117</v>
@@ -13913,10 +13912,10 @@
     </row>
     <row r="642" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C642" t="s">
         <v>117</v>
@@ -13926,10 +13925,10 @@
     </row>
     <row r="643" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C643" t="s">
         <v>117</v>
@@ -13942,12 +13941,11 @@
         <v>614</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C644" t="s">
         <v>117</v>
       </c>
-      <c r="D644" s="7"/>
       <c r="E644" s="8"/>
     </row>
     <row r="645" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13955,11 +13953,12 @@
         <v>614</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C645" t="s">
         <v>117</v>
       </c>
+      <c r="D645" s="7"/>
       <c r="E645" s="8"/>
     </row>
     <row r="646" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13967,32 +13966,32 @@
         <v>614</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C646" t="s">
         <v>117</v>
       </c>
-      <c r="D646" s="7"/>
       <c r="E646" s="8"/>
     </row>
     <row r="647" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C647" t="s">
         <v>117</v>
       </c>
+      <c r="D647" s="7"/>
       <c r="E647" s="8"/>
     </row>
     <row r="648" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C648" t="s">
         <v>117</v>
@@ -14002,10 +14001,10 @@
     </row>
     <row r="649" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C649" t="s">
         <v>117</v>
@@ -14015,10 +14014,10 @@
     </row>
     <row r="650" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C650" t="s">
         <v>117</v>
@@ -14027,35 +14026,35 @@
     </row>
     <row r="651" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C651" t="s">
         <v>117</v>
       </c>
-      <c r="D651" s="7"/>
       <c r="E651" s="8"/>
     </row>
     <row r="652" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C652" t="s">
         <v>117</v>
       </c>
+      <c r="D652" s="7"/>
       <c r="E652" s="8"/>
     </row>
     <row r="653" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B653" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C653" t="s">
         <v>117</v>
@@ -14065,23 +14064,22 @@
     </row>
     <row r="654" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C654" t="s">
         <v>117</v>
       </c>
-      <c r="D654" s="7"/>
       <c r="E654" s="8"/>
     </row>
     <row r="655" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C655" t="s">
         <v>117</v>
@@ -14091,22 +14089,23 @@
     </row>
     <row r="656" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C656" t="s">
         <v>117</v>
       </c>
+      <c r="D656" s="7"/>
       <c r="E656" s="8"/>
     </row>
     <row r="657" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C657" t="s">
         <v>117</v>
@@ -14115,10 +14114,10 @@
     </row>
     <row r="658" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C658" t="s">
         <v>117</v>
@@ -14131,12 +14130,11 @@
         <v>614</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C659" t="s">
         <v>117</v>
       </c>
-      <c r="D659" s="7"/>
       <c r="E659" s="8"/>
     </row>
     <row r="660" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14144,11 +14142,12 @@
         <v>614</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C660" t="s">
         <v>117</v>
       </c>
+      <c r="D660" s="7"/>
       <c r="E660" s="8"/>
     </row>
     <row r="661" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14156,7 +14155,7 @@
         <v>614</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C661" t="s">
         <v>117</v>
@@ -14166,35 +14165,35 @@
     </row>
     <row r="662" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="9" t="s">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C662" t="s">
         <v>117</v>
       </c>
-      <c r="D662" s="7"/>
       <c r="E662" s="8"/>
     </row>
     <row r="663" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="9" t="s">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C663" t="s">
         <v>117</v>
       </c>
+      <c r="D663" s="7"/>
       <c r="E663" s="8"/>
     </row>
     <row r="664" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="s">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C664" t="s">
         <v>117</v>
@@ -14204,40 +14203,39 @@
     </row>
     <row r="665" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="9" t="s">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C665" t="s">
         <v>117</v>
       </c>
+      <c r="D665" s="7"/>
       <c r="E665" s="8"/>
     </row>
     <row r="666" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C666" t="s">
         <v>117</v>
       </c>
-      <c r="D666" s="7"/>
       <c r="E666" s="8"/>
     </row>
     <row r="667" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="s">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C667" t="s">
         <v>117</v>
       </c>
-      <c r="D667" s="7"/>
       <c r="E667" s="8"/>
     </row>
     <row r="668" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14245,7 +14243,7 @@
         <v>77</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C668" t="s">
         <v>117</v>
@@ -14257,12 +14255,11 @@
         <v>77</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C669" t="s">
         <v>117</v>
       </c>
-      <c r="D669" s="7"/>
       <c r="E669" s="8"/>
     </row>
     <row r="670" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14270,12 +14267,11 @@
         <v>77</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C670" t="s">
         <v>117</v>
       </c>
-      <c r="D670" s="7"/>
       <c r="E670" s="8"/>
     </row>
     <row r="671" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14283,12 +14279,11 @@
         <v>77</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C671" t="s">
         <v>117</v>
       </c>
-      <c r="D671" s="7"/>
       <c r="E671" s="8"/>
     </row>
     <row r="672" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14296,7 +14291,7 @@
         <v>77</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C672" t="s">
         <v>117</v>
@@ -14308,7 +14303,7 @@
         <v>77</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C673" t="s">
         <v>117</v>
@@ -14320,7 +14315,7 @@
         <v>77</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C674" t="s">
         <v>117</v>
@@ -14332,7 +14327,7 @@
         <v>77</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C675" t="s">
         <v>117</v>
@@ -14341,10 +14336,10 @@
     </row>
     <row r="676" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C676" t="s">
         <v>117</v>
@@ -14353,10 +14348,10 @@
     </row>
     <row r="677" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C677" t="s">
         <v>117</v>
@@ -14365,10 +14360,10 @@
     </row>
     <row r="678" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C678" t="s">
         <v>117</v>
@@ -14377,10 +14372,10 @@
     </row>
     <row r="679" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C679" t="s">
         <v>117</v>
@@ -14389,10 +14384,10 @@
     </row>
     <row r="680" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C680" t="s">
         <v>117</v>
@@ -14401,10 +14396,10 @@
     </row>
     <row r="681" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C681" t="s">
         <v>117</v>
@@ -14413,10 +14408,10 @@
     </row>
     <row r="682" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C682" t="s">
         <v>117</v>
@@ -14425,10 +14420,10 @@
     </row>
     <row r="683" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C683" t="s">
         <v>117</v>
@@ -14437,10 +14432,10 @@
     </row>
     <row r="684" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C684" t="s">
         <v>117</v>
@@ -14449,10 +14444,10 @@
     </row>
     <row r="685" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C685" t="s">
         <v>117</v>
@@ -14464,7 +14459,7 @@
         <v>82</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C686" t="s">
         <v>117</v>
@@ -14476,7 +14471,7 @@
         <v>82</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C687" t="s">
         <v>117</v>
@@ -14488,7 +14483,7 @@
         <v>82</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C688" t="s">
         <v>117</v>
@@ -14500,7 +14495,7 @@
         <v>82</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C689" t="s">
         <v>117</v>
@@ -14512,7 +14507,7 @@
         <v>82</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C690" t="s">
         <v>117</v>
@@ -14524,7 +14519,7 @@
         <v>82</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C691" t="s">
         <v>117</v>
@@ -14536,7 +14531,7 @@
         <v>82</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C692" t="s">
         <v>117</v>
@@ -14548,7 +14543,7 @@
         <v>82</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C693" t="s">
         <v>117</v>
@@ -14557,10 +14552,10 @@
     </row>
     <row r="694" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C694" t="s">
         <v>117</v>
@@ -14569,10 +14564,10 @@
     </row>
     <row r="695" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C695" t="s">
         <v>117</v>
@@ -14581,10 +14576,10 @@
     </row>
     <row r="696" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C696" t="s">
         <v>117</v>
@@ -14593,10 +14588,10 @@
     </row>
     <row r="697" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C697" t="s">
         <v>117</v>
@@ -14605,10 +14600,10 @@
     </row>
     <row r="698" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C698" t="s">
         <v>117</v>
@@ -14617,10 +14612,10 @@
     </row>
     <row r="699" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C699" t="s">
         <v>117</v>
@@ -14629,10 +14624,10 @@
     </row>
     <row r="700" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C700" t="s">
         <v>117</v>
@@ -14641,10 +14636,10 @@
     </row>
     <row r="701" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C701" t="s">
         <v>117</v>
@@ -14653,10 +14648,10 @@
     </row>
     <row r="702" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C702" t="s">
         <v>117</v>
@@ -14665,10 +14660,10 @@
     </row>
     <row r="703" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C703" t="s">
         <v>117</v>
@@ -14680,7 +14675,7 @@
         <v>88</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C704" t="s">
         <v>117</v>
@@ -14692,7 +14687,7 @@
         <v>88</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C705" t="s">
         <v>117</v>
@@ -14704,7 +14699,7 @@
         <v>88</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C706" t="s">
         <v>117</v>
@@ -14716,7 +14711,7 @@
         <v>88</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C707" t="s">
         <v>117</v>
@@ -14728,7 +14723,7 @@
         <v>88</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C708" t="s">
         <v>117</v>
@@ -14740,7 +14735,7 @@
         <v>88</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C709" t="s">
         <v>117</v>
@@ -14752,7 +14747,7 @@
         <v>88</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C710" t="s">
         <v>117</v>
@@ -14764,7 +14759,7 @@
         <v>88</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C711" t="s">
         <v>117</v>
@@ -14773,10 +14768,10 @@
     </row>
     <row r="712" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C712" t="s">
         <v>117</v>
@@ -14785,10 +14780,10 @@
     </row>
     <row r="713" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C713" t="s">
         <v>117</v>
@@ -14797,10 +14792,10 @@
     </row>
     <row r="714" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C714" t="s">
         <v>117</v>
@@ -14809,10 +14804,10 @@
     </row>
     <row r="715" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C715" t="s">
         <v>117</v>
@@ -14821,10 +14816,10 @@
     </row>
     <row r="716" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C716" t="s">
         <v>117</v>
@@ -14833,10 +14828,10 @@
     </row>
     <row r="717" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C717" t="s">
         <v>117</v>
@@ -14845,10 +14840,10 @@
     </row>
     <row r="718" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B718" s="8" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C718" t="s">
         <v>117</v>
@@ -14857,10 +14852,10 @@
     </row>
     <row r="719" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C719" t="s">
         <v>117</v>
@@ -14869,10 +14864,10 @@
     </row>
     <row r="720" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C720" t="s">
         <v>117</v>
@@ -14881,10 +14876,10 @@
     </row>
     <row r="721" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C721" t="s">
         <v>117</v>
@@ -14896,7 +14891,7 @@
         <v>94</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C722" t="s">
         <v>117</v>
@@ -14908,7 +14903,7 @@
         <v>94</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C723" t="s">
         <v>117</v>
@@ -14920,7 +14915,7 @@
         <v>94</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C724" t="s">
         <v>117</v>
@@ -14932,7 +14927,7 @@
         <v>94</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C725" t="s">
         <v>117</v>
@@ -14944,7 +14939,7 @@
         <v>94</v>
       </c>
       <c r="B726" s="8" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C726" t="s">
         <v>117</v>
@@ -14956,7 +14951,7 @@
         <v>94</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C727" t="s">
         <v>117</v>
@@ -14968,7 +14963,7 @@
         <v>94</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C728" t="s">
         <v>117</v>
@@ -14980,7 +14975,7 @@
         <v>94</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C729" t="s">
         <v>117</v>
@@ -14992,7 +14987,7 @@
         <v>94</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C730" t="s">
         <v>117</v>
@@ -15004,7 +14999,7 @@
         <v>94</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C731" t="s">
         <v>117</v>
@@ -15016,7 +15011,7 @@
         <v>94</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C732" t="s">
         <v>117</v>
@@ -15028,7 +15023,7 @@
         <v>94</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C733" t="s">
         <v>117</v>
@@ -15040,7 +15035,7 @@
         <v>94</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C734" t="s">
         <v>117</v>
@@ -15052,7 +15047,7 @@
         <v>94</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C735" t="s">
         <v>117</v>
@@ -15064,7 +15059,7 @@
         <v>94</v>
       </c>
       <c r="B736" s="8" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C736" t="s">
         <v>117</v>
@@ -15076,7 +15071,7 @@
         <v>94</v>
       </c>
       <c r="B737" s="8" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C737" t="s">
         <v>117</v>
@@ -15088,7 +15083,7 @@
         <v>94</v>
       </c>
       <c r="B738" s="8" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C738" t="s">
         <v>117</v>
@@ -15100,7 +15095,7 @@
         <v>94</v>
       </c>
       <c r="B739" s="8" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C739" t="s">
         <v>117</v>
@@ -15112,7 +15107,7 @@
         <v>94</v>
       </c>
       <c r="B740" s="8" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C740" t="s">
         <v>117</v>
@@ -15124,7 +15119,7 @@
         <v>94</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C741" t="s">
         <v>117</v>
@@ -15136,7 +15131,7 @@
         <v>94</v>
       </c>
       <c r="B742" s="8" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C742" t="s">
         <v>117</v>
@@ -15148,7 +15143,7 @@
         <v>94</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C743" t="s">
         <v>117</v>
@@ -15160,7 +15155,7 @@
         <v>94</v>
       </c>
       <c r="B744" s="8" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C744" t="s">
         <v>117</v>
@@ -15172,7 +15167,7 @@
         <v>94</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C745" t="s">
         <v>117</v>
@@ -15184,7 +15179,7 @@
         <v>94</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C746" t="s">
         <v>117</v>
@@ -15196,7 +15191,7 @@
         <v>94</v>
       </c>
       <c r="B747" s="8" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C747" t="s">
         <v>117</v>
@@ -15208,7 +15203,7 @@
         <v>94</v>
       </c>
       <c r="B748" s="8" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C748" t="s">
         <v>117</v>
@@ -15220,7 +15215,7 @@
         <v>94</v>
       </c>
       <c r="B749" s="8" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C749" t="s">
         <v>117</v>
@@ -15232,7 +15227,7 @@
         <v>94</v>
       </c>
       <c r="B750" s="8" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C750" t="s">
         <v>117</v>
@@ -15244,7 +15239,7 @@
         <v>94</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C751" t="s">
         <v>117</v>
@@ -15256,7 +15251,7 @@
         <v>94</v>
       </c>
       <c r="B752" s="8" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C752" t="s">
         <v>117</v>
@@ -15268,7 +15263,7 @@
         <v>94</v>
       </c>
       <c r="B753" s="8" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C753" t="s">
         <v>117</v>
@@ -15280,7 +15275,7 @@
         <v>94</v>
       </c>
       <c r="B754" s="8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C754" t="s">
         <v>117</v>
@@ -15292,7 +15287,7 @@
         <v>94</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C755" t="s">
         <v>117</v>
@@ -15301,10 +15296,10 @@
     </row>
     <row r="756" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B756" s="8" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C756" t="s">
         <v>117</v>
@@ -15313,10 +15308,10 @@
     </row>
     <row r="757" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B757" s="8" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C757" t="s">
         <v>117</v>
@@ -15325,10 +15320,10 @@
     </row>
     <row r="758" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B758" s="8" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C758" t="s">
         <v>117</v>
@@ -15337,10 +15332,10 @@
     </row>
     <row r="759" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B759" s="8" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C759" t="s">
         <v>117</v>
@@ -15349,10 +15344,10 @@
     </row>
     <row r="760" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B760" s="8" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C760" t="s">
         <v>117</v>
@@ -15361,10 +15356,10 @@
     </row>
     <row r="761" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C761" t="s">
         <v>117</v>
@@ -15373,10 +15368,10 @@
     </row>
     <row r="762" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C762" t="s">
         <v>117</v>
@@ -15385,10 +15380,10 @@
     </row>
     <row r="763" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C763" t="s">
         <v>117</v>
@@ -15397,10 +15392,10 @@
     </row>
     <row r="764" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B764" s="8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C764" t="s">
         <v>117</v>
@@ -15409,10 +15404,10 @@
     </row>
     <row r="765" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C765" t="s">
         <v>117</v>
@@ -15424,7 +15419,7 @@
         <v>100</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C766" t="s">
         <v>117</v>
@@ -15436,7 +15431,7 @@
         <v>100</v>
       </c>
       <c r="B767" s="8" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C767" t="s">
         <v>117</v>
@@ -15448,7 +15443,7 @@
         <v>100</v>
       </c>
       <c r="B768" s="8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C768" t="s">
         <v>117</v>
@@ -15460,7 +15455,7 @@
         <v>100</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C769" t="s">
         <v>117</v>
@@ -15472,7 +15467,7 @@
         <v>100</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C770" t="s">
         <v>117</v>
@@ -15484,7 +15479,7 @@
         <v>100</v>
       </c>
       <c r="B771" s="8" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C771" t="s">
         <v>117</v>
@@ -15496,7 +15491,7 @@
         <v>100</v>
       </c>
       <c r="B772" s="8" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C772" t="s">
         <v>117</v>
@@ -15508,7 +15503,7 @@
         <v>100</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C773" t="s">
         <v>117</v>
@@ -15517,10 +15512,10 @@
     </row>
     <row r="774" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C774" t="s">
         <v>117</v>
@@ -15529,10 +15524,10 @@
     </row>
     <row r="775" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B775" s="8" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C775" t="s">
         <v>117</v>
@@ -15541,10 +15536,10 @@
     </row>
     <row r="776" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B776" s="8" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C776" t="s">
         <v>117</v>
@@ -15553,10 +15548,10 @@
     </row>
     <row r="777" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B777" s="8" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C777" t="s">
         <v>117</v>
@@ -15565,10 +15560,10 @@
     </row>
     <row r="778" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B778" s="8" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C778" t="s">
         <v>117</v>
@@ -15577,10 +15572,10 @@
     </row>
     <row r="779" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B779" s="8" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C779" t="s">
         <v>117</v>
@@ -15589,10 +15584,10 @@
     </row>
     <row r="780" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B780" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C780" t="s">
         <v>117</v>
@@ -15601,10 +15596,10 @@
     </row>
     <row r="781" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B781" s="8" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C781" t="s">
         <v>117</v>
@@ -15613,10 +15608,10 @@
     </row>
     <row r="782" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B782" s="8" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C782" t="s">
         <v>117</v>
@@ -15625,10 +15620,10 @@
     </row>
     <row r="783" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C783" t="s">
         <v>117</v>
@@ -15640,7 +15635,7 @@
         <v>109</v>
       </c>
       <c r="B784" s="8" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C784" t="s">
         <v>117</v>
@@ -15652,7 +15647,7 @@
         <v>109</v>
       </c>
       <c r="B785" s="8" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C785" t="s">
         <v>117</v>
@@ -15664,7 +15659,7 @@
         <v>109</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C786" t="s">
         <v>117</v>
@@ -15676,7 +15671,7 @@
         <v>109</v>
       </c>
       <c r="B787" s="8" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C787" t="s">
         <v>117</v>
@@ -15688,7 +15683,7 @@
         <v>109</v>
       </c>
       <c r="B788" s="8" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C788" t="s">
         <v>117</v>
@@ -15700,7 +15695,7 @@
         <v>109</v>
       </c>
       <c r="B789" s="8" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C789" t="s">
         <v>117</v>
@@ -15712,7 +15707,7 @@
         <v>109</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C790" t="s">
         <v>117</v>
@@ -15724,7 +15719,7 @@
         <v>109</v>
       </c>
       <c r="B791" s="8" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C791" t="s">
         <v>117</v>
@@ -15733,10 +15728,10 @@
     </row>
     <row r="792" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B792" s="8" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C792" t="s">
         <v>117</v>
@@ -15745,10 +15740,10 @@
     </row>
     <row r="793" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B793" s="8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C793" t="s">
         <v>117</v>
@@ -15757,10 +15752,10 @@
     </row>
     <row r="794" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B794" s="8" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C794" t="s">
         <v>117</v>
@@ -15769,10 +15764,10 @@
     </row>
     <row r="795" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B795" s="8" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C795" t="s">
         <v>117</v>
@@ -15781,10 +15776,10 @@
     </row>
     <row r="796" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B796" s="8" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C796" t="s">
         <v>117</v>
@@ -15793,10 +15788,10 @@
     </row>
     <row r="797" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C797" t="s">
         <v>117</v>
@@ -15808,7 +15803,7 @@
         <v>106</v>
       </c>
       <c r="B798" s="8" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C798" t="s">
         <v>117</v>
@@ -15820,7 +15815,7 @@
         <v>106</v>
       </c>
       <c r="B799" s="8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C799" t="s">
         <v>117</v>
@@ -15832,7 +15827,7 @@
         <v>106</v>
       </c>
       <c r="B800" s="8" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C800" t="s">
         <v>117</v>
@@ -15844,7 +15839,7 @@
         <v>106</v>
       </c>
       <c r="B801" s="8" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C801" t="s">
         <v>117</v>
@@ -15856,7 +15851,7 @@
         <v>106</v>
       </c>
       <c r="B802" s="8" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C802" t="s">
         <v>117</v>
@@ -15868,7 +15863,7 @@
         <v>106</v>
       </c>
       <c r="B803" s="8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C803" t="s">
         <v>117</v>
@@ -15880,7 +15875,7 @@
         <v>106</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C804" t="s">
         <v>117</v>
@@ -15892,7 +15887,7 @@
         <v>106</v>
       </c>
       <c r="B805" s="8" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C805" t="s">
         <v>117</v>
@@ -15904,7 +15899,7 @@
         <v>106</v>
       </c>
       <c r="B806" s="8" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C806" t="s">
         <v>117</v>
@@ -15916,7 +15911,7 @@
         <v>106</v>
       </c>
       <c r="B807" s="8" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C807" t="s">
         <v>117</v>
@@ -15928,7 +15923,7 @@
         <v>106</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C808" t="s">
         <v>117</v>
@@ -15940,7 +15935,7 @@
         <v>106</v>
       </c>
       <c r="B809" s="8" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C809" t="s">
         <v>117</v>
@@ -15949,82 +15944,82 @@
     </row>
     <row r="810" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="9" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B810" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C810" t="s">
-        <v>117</v>
+        <v>529</v>
+      </c>
+      <c r="C810" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E810" s="8"/>
     </row>
-    <row r="811" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A811" s="9" t="s">
-        <v>106</v>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C811" t="s">
-        <v>117</v>
+        <v>530</v>
+      </c>
+      <c r="C811" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E811" s="8"/>
     </row>
-    <row r="812" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A812" s="9" t="s">
-        <v>106</v>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B812" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C812" t="s">
-        <v>117</v>
+        <v>531</v>
+      </c>
+      <c r="C812" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E812" s="8"/>
     </row>
-    <row r="813" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A813" s="9" t="s">
-        <v>106</v>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B813" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C813" t="s">
-        <v>117</v>
+        <v>532</v>
+      </c>
+      <c r="C813" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E813" s="8"/>
     </row>
-    <row r="814" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A814" s="9" t="s">
-        <v>106</v>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B814" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C814" t="s">
-        <v>117</v>
+        <v>533</v>
+      </c>
+      <c r="C814" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E814" s="8"/>
     </row>
-    <row r="815" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A815" s="9" t="s">
-        <v>106</v>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B815" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C815" t="s">
-        <v>117</v>
+        <v>534</v>
+      </c>
+      <c r="C815" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E815" s="8"/>
     </row>
-    <row r="816" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A816" s="9" t="s">
-        <v>62</v>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B816" s="8" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C816" s="7" t="s">
         <v>135</v>
@@ -16033,10 +16028,10 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B817" s="8" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C817" s="7" t="s">
         <v>135</v>
@@ -16045,82 +16040,82 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="B818" s="8" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E818" s="8"/>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="B819" s="8" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E819" s="8"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
-        <v>88</v>
+        <v>538</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C820" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E820" s="8"/>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
-        <v>94</v>
+        <v>538</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C821" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E821" s="8"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="B822" s="8" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C822" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E822" s="8"/>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
-        <v>109</v>
+        <v>538</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C823" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E823" s="8"/>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B824" s="8" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C824" s="7" t="s">
         <v>127</v>
@@ -16129,10 +16124,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B825" s="8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C825" s="7" t="s">
         <v>123</v>
@@ -16141,10 +16136,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B826" s="8" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="C826" s="7" t="s">
         <v>127</v>
@@ -16153,10 +16148,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B827" s="8" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="C827" s="7" t="s">
         <v>123</v>
@@ -16165,10 +16160,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="C828" s="7" t="s">
         <v>127</v>
@@ -16177,10 +16172,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="C829" s="7" t="s">
         <v>123</v>
@@ -16192,7 +16187,7 @@
         <v>527</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="C830" s="7" t="s">
         <v>127</v>
@@ -16204,7 +16199,7 @@
         <v>527</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="C831" s="7" t="s">
         <v>123</v>
@@ -16216,7 +16211,7 @@
         <v>527</v>
       </c>
       <c r="B832" s="8" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C832" s="7" t="s">
         <v>127</v>
@@ -16228,7 +16223,7 @@
         <v>527</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C833" s="7" t="s">
         <v>123</v>
@@ -16240,7 +16235,7 @@
         <v>527</v>
       </c>
       <c r="B834" s="8" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C834" s="7" t="s">
         <v>127</v>
@@ -16252,7 +16247,7 @@
         <v>527</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C835" s="7" t="s">
         <v>123</v>
@@ -16264,7 +16259,7 @@
         <v>527</v>
       </c>
       <c r="B836" s="8" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C836" s="7" t="s">
         <v>127</v>
@@ -16276,7 +16271,7 @@
         <v>527</v>
       </c>
       <c r="B837" s="8" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C837" s="7" t="s">
         <v>123</v>
@@ -16285,10 +16280,10 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C838" s="7" t="s">
         <v>127</v>
@@ -16297,10 +16292,10 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B839" s="8" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C839" s="7" t="s">
         <v>123</v>
@@ -16309,10 +16304,10 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
-        <v>527</v>
+        <v>65</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>606</v>
+        <v>143</v>
       </c>
       <c r="C840" s="7" t="s">
         <v>127</v>
@@ -16321,10 +16316,10 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
-        <v>527</v>
+        <v>65</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>607</v>
+        <v>144</v>
       </c>
       <c r="C841" s="7" t="s">
         <v>123</v>
@@ -16333,10 +16328,10 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
-        <v>527</v>
+        <v>65</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>608</v>
+        <v>145</v>
       </c>
       <c r="C842" s="7" t="s">
         <v>127</v>
@@ -16345,10 +16340,10 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
-        <v>527</v>
+        <v>65</v>
       </c>
       <c r="B843" s="8" t="s">
-        <v>609</v>
+        <v>146</v>
       </c>
       <c r="C843" s="7" t="s">
         <v>123</v>
@@ -16357,10 +16352,10 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
-        <v>528</v>
+        <v>62</v>
       </c>
       <c r="B844" s="8" t="s">
-        <v>610</v>
+        <v>546</v>
       </c>
       <c r="C844" s="7" t="s">
         <v>127</v>
@@ -16369,10 +16364,10 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
-        <v>528</v>
+        <v>62</v>
       </c>
       <c r="B845" s="8" t="s">
-        <v>611</v>
+        <v>547</v>
       </c>
       <c r="C845" s="7" t="s">
         <v>123</v>
@@ -16381,10 +16376,10 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>143</v>
+        <v>548</v>
       </c>
       <c r="C846" s="7" t="s">
         <v>127</v>
@@ -16393,10 +16388,10 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B847" s="8" t="s">
-        <v>144</v>
+        <v>549</v>
       </c>
       <c r="C847" s="7" t="s">
         <v>123</v>
@@ -16405,10 +16400,10 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>145</v>
+        <v>550</v>
       </c>
       <c r="C848" s="7" t="s">
         <v>127</v>
@@ -16417,10 +16412,10 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>146</v>
+        <v>551</v>
       </c>
       <c r="C849" s="7" t="s">
         <v>123</v>
@@ -16429,10 +16424,10 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C850" s="7" t="s">
         <v>127</v>
@@ -16441,10 +16436,10 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C851" s="7" t="s">
         <v>123</v>
@@ -16453,10 +16448,10 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="B852" s="8" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C852" s="7" t="s">
         <v>127</v>
@@ -16465,10 +16460,10 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="B853" s="8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C853" s="7" t="s">
         <v>123</v>
@@ -16477,10 +16472,10 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="B854" s="8" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C854" s="7" t="s">
         <v>127</v>
@@ -16489,10 +16484,10 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="B855" s="8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C855" s="7" t="s">
         <v>123</v>
@@ -16501,10 +16496,10 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
-        <v>71</v>
+        <v>613</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C856" s="7" t="s">
         <v>127</v>
@@ -16513,10 +16508,10 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
-        <v>71</v>
+        <v>613</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C857" s="7" t="s">
         <v>123</v>
@@ -16528,7 +16523,7 @@
         <v>613</v>
       </c>
       <c r="B858" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C858" s="7" t="s">
         <v>127</v>
@@ -16540,7 +16535,7 @@
         <v>613</v>
       </c>
       <c r="B859" s="8" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C859" s="7" t="s">
         <v>123</v>
@@ -16549,10 +16544,10 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B860" s="8" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C860" s="7" t="s">
         <v>127</v>
@@ -16561,10 +16556,10 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B861" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C861" s="7" t="s">
         <v>123</v>
@@ -16573,10 +16568,10 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
-        <v>613</v>
+        <v>77</v>
       </c>
       <c r="B862" s="8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C862" s="7" t="s">
         <v>127</v>
@@ -16585,10 +16580,10 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
-        <v>613</v>
+        <v>77</v>
       </c>
       <c r="B863" s="8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C863" s="7" t="s">
         <v>123</v>
@@ -16597,10 +16592,10 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
-        <v>613</v>
+        <v>85</v>
       </c>
       <c r="B864" s="8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C864" s="7" t="s">
         <v>127</v>
@@ -16609,10 +16604,10 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
-        <v>613</v>
+        <v>85</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C865" s="7" t="s">
         <v>123</v>
@@ -16621,10 +16616,10 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
-        <v>612</v>
+        <v>85</v>
       </c>
       <c r="B866" s="8" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C866" s="7" t="s">
         <v>127</v>
@@ -16633,10 +16628,10 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
-        <v>612</v>
+        <v>85</v>
       </c>
       <c r="B867" s="8" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C867" s="7" t="s">
         <v>123</v>
@@ -16645,10 +16640,10 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B868" s="8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C868" s="7" t="s">
         <v>127</v>
@@ -16657,10 +16652,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B869" s="8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C869" s="7" t="s">
         <v>123</v>
@@ -16669,10 +16664,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B870" s="8" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C870" s="7" t="s">
         <v>127</v>
@@ -16681,10 +16676,10 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B871" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C871" s="7" t="s">
         <v>123</v>
@@ -16693,10 +16688,10 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B872" s="8" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C872" s="7" t="s">
         <v>127</v>
@@ -16705,10 +16700,10 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B873" s="8" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C873" s="7" t="s">
         <v>123</v>
@@ -16717,10 +16712,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B874" s="8" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C874" s="7" t="s">
         <v>127</v>
@@ -16729,10 +16724,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B875" s="8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C875" s="7" t="s">
         <v>123</v>
@@ -16741,10 +16736,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B876" s="8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C876" s="7" t="s">
         <v>127</v>
@@ -16753,10 +16748,10 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B877" s="8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C877" s="7" t="s">
         <v>123</v>
@@ -16765,10 +16760,10 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B878" s="8" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C878" s="7" t="s">
         <v>127</v>
@@ -16777,10 +16772,10 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B879" s="8" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C879" s="7" t="s">
         <v>123</v>
@@ -16789,10 +16784,10 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B880" s="8" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C880" s="7" t="s">
         <v>127</v>
@@ -16801,10 +16796,10 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B881" s="8" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C881" s="7" t="s">
         <v>123</v>
@@ -16813,10 +16808,10 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B882" s="8" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C882" s="7" t="s">
         <v>127</v>
@@ -16825,10 +16820,10 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B883" s="8" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C883" s="7" t="s">
         <v>123</v>
@@ -16837,10 +16832,10 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B884" s="8" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C884" s="7" t="s">
         <v>127</v>
@@ -16849,10 +16844,10 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B885" s="8" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C885" s="7" t="s">
         <v>123</v>
@@ -16861,10 +16856,10 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B886" s="8" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C886" s="7" t="s">
         <v>127</v>
@@ -16873,10 +16868,10 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C887" s="7" t="s">
         <v>123</v>
@@ -16885,10 +16880,10 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C888" s="7" t="s">
         <v>127</v>
@@ -16897,10 +16892,10 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B889" s="8" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C889" s="7" t="s">
         <v>123</v>
@@ -16909,10 +16904,10 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B890" s="8" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C890" s="7" t="s">
         <v>127</v>
@@ -16921,10 +16916,10 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B891" s="8" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C891" s="7" t="s">
         <v>123</v>
@@ -16933,10 +16928,10 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B892" s="8" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C892" s="7" t="s">
         <v>127</v>
@@ -16945,10 +16940,10 @@
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B893" s="8" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C893" s="7" t="s">
         <v>123</v>
@@ -16957,10 +16952,10 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B894" s="8" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C894" s="7" t="s">
         <v>127</v>
@@ -16969,10 +16964,10 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B895" s="8" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C895" s="7" t="s">
         <v>123</v>
@@ -16980,128 +16975,86 @@
       <c r="E895" s="8"/>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A896" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B896" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C896" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="B896" s="8"/>
+      <c r="C896" s="7"/>
       <c r="E896" s="8"/>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A897" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B897" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C897" s="7" t="s">
-        <v>123</v>
-      </c>
+    <row r="897" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B897" s="8"/>
+      <c r="C897" s="7"/>
       <c r="E897" s="8"/>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A898" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B898" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C898" s="7" t="s">
-        <v>127</v>
-      </c>
+    <row r="898" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B898" s="8"/>
+      <c r="C898" s="7"/>
       <c r="E898" s="8"/>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A899" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B899" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C899" s="7" t="s">
-        <v>123</v>
-      </c>
+    <row r="899" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B899" s="8"/>
+      <c r="C899" s="7"/>
       <c r="E899" s="8"/>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A900" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B900" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C900" s="7" t="s">
-        <v>127</v>
-      </c>
+    <row r="900" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B900" s="8"/>
+      <c r="C900" s="7"/>
       <c r="E900" s="8"/>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A901" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B901" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C901" s="7" t="s">
-        <v>123</v>
-      </c>
+    <row r="901" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B901" s="8"/>
+      <c r="C901" s="7"/>
       <c r="E901" s="8"/>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B902" s="8"/>
       <c r="C902" s="7"/>
       <c r="E902" s="8"/>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B903" s="8"/>
       <c r="C903" s="7"/>
       <c r="E903" s="8"/>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B904" s="8"/>
       <c r="C904" s="7"/>
       <c r="E904" s="8"/>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B905" s="8"/>
       <c r="C905" s="7"/>
       <c r="E905" s="8"/>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B906" s="8"/>
       <c r="C906" s="7"/>
       <c r="E906" s="8"/>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B907" s="8"/>
       <c r="C907" s="7"/>
       <c r="E907" s="8"/>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B908" s="8"/>
       <c r="C908" s="7"/>
       <c r="E908" s="8"/>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B909" s="8"/>
       <c r="C909" s="7"/>
       <c r="E909" s="8"/>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B910" s="8"/>
       <c r="C910" s="7"/>
       <c r="E910" s="8"/>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B911" s="8"/>
       <c r="C911" s="7"/>
       <c r="E911" s="8"/>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B912" s="8"/>
       <c r="C912" s="7"/>
       <c r="E912" s="8"/>
@@ -19345,36 +19298,6 @@
       <c r="B1360" s="8"/>
       <c r="C1360" s="7"/>
       <c r="E1360" s="8"/>
-    </row>
-    <row r="1361" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1361" s="8"/>
-      <c r="C1361" s="7"/>
-      <c r="E1361" s="8"/>
-    </row>
-    <row r="1362" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1362" s="8"/>
-      <c r="C1362" s="7"/>
-      <c r="E1362" s="8"/>
-    </row>
-    <row r="1363" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1363" s="8"/>
-      <c r="C1363" s="7"/>
-      <c r="E1363" s="8"/>
-    </row>
-    <row r="1364" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1364" s="8"/>
-      <c r="C1364" s="7"/>
-      <c r="E1364" s="8"/>
-    </row>
-    <row r="1365" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1365" s="8"/>
-      <c r="C1365" s="7"/>
-      <c r="E1365" s="8"/>
-    </row>
-    <row r="1366" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1366" s="8"/>
-      <c r="C1366" s="7"/>
-      <c r="E1366" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE36D6D-0125-4EF0-B4A0-AC3650564CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727685C-A47D-4987-AB18-08847412521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="771">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2028,6 +2028,324 @@
   </si>
   <si>
     <t>3F-SERVICE-BALCONY</t>
+  </si>
+  <si>
+    <t>ef_01_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>ef_01_run_command</t>
+  </si>
+  <si>
+    <t>ef_01_run_status</t>
+  </si>
+  <si>
+    <t>ef_01_run_mode</t>
+  </si>
+  <si>
+    <t>ef_02_run_command</t>
+  </si>
+  <si>
+    <t>ef_02_run_status</t>
+  </si>
+  <si>
+    <t>ef_02_run_mode</t>
+  </si>
+  <si>
+    <t>ef_02_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>ef_03_run_command</t>
+  </si>
+  <si>
+    <t>ef_03_run_status</t>
+  </si>
+  <si>
+    <t>ef_03_run_mode</t>
+  </si>
+  <si>
+    <t>ef_03_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>ef_04_run_command</t>
+  </si>
+  <si>
+    <t>ef_04_run_status</t>
+  </si>
+  <si>
+    <t>ef_04_run_mode</t>
+  </si>
+  <si>
+    <t>ef_04_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>ef_05_run_command</t>
+  </si>
+  <si>
+    <t>ef_05_run_status</t>
+  </si>
+  <si>
+    <t>ef_05_run_mode</t>
+  </si>
+  <si>
+    <t>ef_05_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>90e1fdf2-819e-425b-889a-5e2632a1a898</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_fan_run_status</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_fan_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_fan_speed_mode</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_fan_run_command</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_fan_speed_percentage_cmd</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_fan_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>fcu_01_return_air_relative_humidity_sen</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_air_temperature_sensor</t>
+  </si>
+  <si>
+    <t>fcu_01_return_air_temperature_sensor</t>
+  </si>
+  <si>
+    <t>fcu_01_return_air_isolation_dam_sts_1</t>
+  </si>
+  <si>
+    <t>fcu_01_schedule_run_command</t>
+  </si>
+  <si>
+    <t>fcu_01_discharge_air_temp_setpoint</t>
+  </si>
+  <si>
+    <t>fcu_01_supply_air_isolation_dam_sts_1</t>
+  </si>
+  <si>
+    <t>fcu_01_return_air_co2_concentration_set</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_fan_run_command</t>
+  </si>
+  <si>
+    <t>fcu_02_schedule_run_command</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_fan_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_fan_speed_mode</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_fan_speed_percentage_cmd</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_fan_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>fcu_02_return_air_relative_humidity_sen</t>
+  </si>
+  <si>
+    <t>fcu_02_return_air_temperature_sensor</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_air_temperature_sensor</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_air_temp_setpoint</t>
+  </si>
+  <si>
+    <t>fcu_02_return_air_isolation_dam_sts_1</t>
+  </si>
+  <si>
+    <t>fcu_02_supply_air_isolation_dam_sts_1</t>
+  </si>
+  <si>
+    <t>fcu_02_return_air_co2_concentration_set</t>
+  </si>
+  <si>
+    <t>fcu_02_discharge_fan_run_status</t>
+  </si>
+  <si>
+    <t>DDC-26</t>
+  </si>
+  <si>
+    <t>DDC-27</t>
+  </si>
+  <si>
+    <t>DDC-28</t>
+  </si>
+  <si>
+    <t>DDC-29</t>
+  </si>
+  <si>
+    <t>DDC-30</t>
+  </si>
+  <si>
+    <t>9F-DDC-26-FRESH-AIR-FAN-NORTH</t>
+  </si>
+  <si>
+    <t>9F-DDC-27-MK-EXHAUST-FAN</t>
+  </si>
+  <si>
+    <t>9F-DDC-28-AHU-FRESH-FAN-SOUTH</t>
+  </si>
+  <si>
+    <t>9F-DDC-29-KITCHEN-FRESH-FAN-UNIT</t>
+  </si>
+  <si>
+    <t>9F-DDC-30-KITCHEN-EXHAUST-FAN-UNIT</t>
+  </si>
+  <si>
+    <t>2d2485e4-52fc-3736-924f-1a696e3c0ca2</t>
+  </si>
+  <si>
+    <t>53b3bec4-606b-7423-93f4-d128facce8f5</t>
+  </si>
+  <si>
+    <t>07e8f1c0-fa8f-1013-204f-90623fe2dcb5</t>
+  </si>
+  <si>
+    <t>066079eb-cd19-652e-83c9-46fc541b4ded</t>
+  </si>
+  <si>
+    <t>2f5bed12-f92d-344f-38b8-50f2278c97a5</t>
+  </si>
+  <si>
+    <t>kexf_01_control_mode</t>
+  </si>
+  <si>
+    <t>kexf_01_run_command</t>
+  </si>
+  <si>
+    <t>kexf_01_run_status</t>
+  </si>
+  <si>
+    <t>kexf_01_speed_percent_cmd</t>
+  </si>
+  <si>
+    <t>kexf_02_run_command</t>
+  </si>
+  <si>
+    <t>kexf_02_run_status</t>
+  </si>
+  <si>
+    <t>kexf_02_control_mode</t>
+  </si>
+  <si>
+    <t>kexf_02_speed_percent_cmd</t>
+  </si>
+  <si>
+    <t>mkexf_run_status</t>
+  </si>
+  <si>
+    <t>mkexf_run_command</t>
+  </si>
+  <si>
+    <t>mkexf_lost_power_alarn</t>
+  </si>
+  <si>
+    <t>mkexf_control_mode</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_fan_lost_power_al</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_fan_run_command</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_fan_run_status</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_fan_speed_mode</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_fan_run_command</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_fan_run_status</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_fan_speed_mode</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_fan_lost_power_al</t>
+  </si>
+  <si>
+    <t>supply_fan_run_command_01</t>
+  </si>
+  <si>
+    <t>supply_fan_run_status_01</t>
+  </si>
+  <si>
+    <t>control_mode_01</t>
+  </si>
+  <si>
+    <t>supply_air_ssp_sen_01</t>
+  </si>
+  <si>
+    <t>supply_air_ssp_sen_02</t>
+  </si>
+  <si>
+    <t>supply_air_ssp_sp_01</t>
+  </si>
+  <si>
+    <t>filter_diff_pressure_sen_01</t>
+  </si>
+  <si>
+    <t>supply_fan_speed_percent_cmd_01</t>
+  </si>
+  <si>
+    <t>supply_fan_lost_power_alarm_01</t>
+  </si>
+  <si>
+    <t>supply_fan_run_command_02</t>
+  </si>
+  <si>
+    <t>supply_fan_lost_power_alarm_02</t>
+  </si>
+  <si>
+    <t>control_mode_02</t>
+  </si>
+  <si>
+    <t>supply_fan_run_status_02</t>
+  </si>
+  <si>
+    <t>supply_fan_speed_percent_cmd_02</t>
+  </si>
+  <si>
+    <t>filter_diff_pressure_sen_02</t>
+  </si>
+  <si>
+    <t>supply_air_ssp_sp_02</t>
+  </si>
+  <si>
+    <t>kfaf_01_filter_diff_pressure_sen</t>
+  </si>
+  <si>
+    <t>kfaf_02_filter_diff_pressure_sen</t>
+  </si>
+  <si>
+    <t>kfaf_01_air_ssp_sen</t>
+  </si>
+  <si>
+    <t>kfaf_02_air_ssp_sp</t>
+  </si>
+  <si>
+    <t>kfaf_01_fan_speed_percent_cmd</t>
+  </si>
+  <si>
+    <t>kfaf_02_fan_speed_percent_cmd</t>
   </si>
 </sst>
 </file>
@@ -2652,9 +2970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2981,7 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -4035,6 +4353,9 @@
       <c r="H27">
         <v>10</v>
       </c>
+      <c r="I27" t="s">
+        <v>685</v>
+      </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
@@ -4057,37 +4378,247 @@
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>719</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>724</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="M28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
       <c r="P28" s="11"/>
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>720</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>725</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="M29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
       <c r="P29" s="11"/>
       <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>721</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>726</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="M30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
       <c r="P30" s="11"/>
       <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>727</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="M31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
       <c r="P31" s="11"/>
       <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>723</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>728</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="M32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
       <c r="P32" s="11"/>
       <c r="S32" s="9"/>
     </row>
@@ -5813,11 +6344,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1360"/>
+  <dimension ref="A1:G1371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A968" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A988" sqref="A988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16136,7 +16667,7 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B826" s="8" t="s">
         <v>598</v>
@@ -16160,7 +16691,7 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B828" s="8" t="s">
         <v>600</v>
@@ -16208,7 +16739,7 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B832" s="8" t="s">
         <v>604</v>
@@ -16975,486 +17506,1126 @@
       <c r="E895" s="8"/>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B896" s="8"/>
-      <c r="C896" s="7"/>
+      <c r="A896" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B896" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C896" t="s">
+        <v>117</v>
+      </c>
       <c r="E896" s="8"/>
     </row>
-    <row r="897" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B897" s="8"/>
-      <c r="C897" s="7"/>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B897" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C897" t="s">
+        <v>117</v>
+      </c>
       <c r="E897" s="8"/>
     </row>
-    <row r="898" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B898" s="8"/>
-      <c r="C898" s="7"/>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B898" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C898" t="s">
+        <v>117</v>
+      </c>
       <c r="E898" s="8"/>
     </row>
-    <row r="899" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B899" s="8"/>
-      <c r="C899" s="7"/>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B899" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C899" t="s">
+        <v>117</v>
+      </c>
       <c r="E899" s="8"/>
     </row>
-    <row r="900" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B900" s="8"/>
-      <c r="C900" s="7"/>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B900" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C900" t="s">
+        <v>117</v>
+      </c>
       <c r="E900" s="8"/>
     </row>
-    <row r="901" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B901" s="8"/>
-      <c r="C901" s="7"/>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B901" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C901" t="s">
+        <v>117</v>
+      </c>
       <c r="E901" s="8"/>
     </row>
-    <row r="902" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B902" s="8"/>
-      <c r="C902" s="7"/>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B902" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C902" t="s">
+        <v>117</v>
+      </c>
       <c r="E902" s="8"/>
     </row>
-    <row r="903" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B903" s="8"/>
-      <c r="C903" s="7"/>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B903" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C903" t="s">
+        <v>117</v>
+      </c>
       <c r="E903" s="8"/>
     </row>
-    <row r="904" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B904" s="8"/>
-      <c r="C904" s="7"/>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B904" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C904" t="s">
+        <v>117</v>
+      </c>
       <c r="E904" s="8"/>
     </row>
-    <row r="905" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B905" s="8"/>
-      <c r="C905" s="7"/>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B905" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C905" t="s">
+        <v>117</v>
+      </c>
       <c r="E905" s="8"/>
     </row>
-    <row r="906" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B906" s="8"/>
-      <c r="C906" s="7"/>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B906" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C906" t="s">
+        <v>117</v>
+      </c>
       <c r="E906" s="8"/>
     </row>
-    <row r="907" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B907" s="8"/>
-      <c r="C907" s="7"/>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B907" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C907" t="s">
+        <v>117</v>
+      </c>
       <c r="E907" s="8"/>
     </row>
-    <row r="908" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B908" s="8"/>
-      <c r="C908" s="7"/>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B908" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C908" t="s">
+        <v>117</v>
+      </c>
       <c r="E908" s="8"/>
     </row>
-    <row r="909" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B909" s="8"/>
-      <c r="C909" s="7"/>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B909" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C909" t="s">
+        <v>117</v>
+      </c>
       <c r="E909" s="8"/>
     </row>
-    <row r="910" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B910" s="8"/>
-      <c r="C910" s="7"/>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B910" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C910" t="s">
+        <v>117</v>
+      </c>
       <c r="E910" s="8"/>
     </row>
-    <row r="911" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B911" s="8"/>
-      <c r="C911" s="7"/>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B911" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C911" t="s">
+        <v>117</v>
+      </c>
       <c r="E911" s="8"/>
     </row>
-    <row r="912" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B912" s="8"/>
-      <c r="C912" s="7"/>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B912" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C912" t="s">
+        <v>117</v>
+      </c>
       <c r="E912" s="8"/>
     </row>
-    <row r="913" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B913" s="8"/>
-      <c r="C913" s="7"/>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B913" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C913" t="s">
+        <v>117</v>
+      </c>
       <c r="E913" s="8"/>
     </row>
-    <row r="914" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B914" s="8"/>
-      <c r="C914" s="7"/>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B914" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C914" t="s">
+        <v>117</v>
+      </c>
       <c r="E914" s="8"/>
     </row>
-    <row r="915" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B915" s="8"/>
-      <c r="C915" s="7"/>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B915" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C915" t="s">
+        <v>117</v>
+      </c>
       <c r="E915" s="8"/>
     </row>
-    <row r="916" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B916" s="8"/>
-      <c r="C916" s="7"/>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B916" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C916" t="s">
+        <v>117</v>
+      </c>
       <c r="E916" s="8"/>
     </row>
-    <row r="917" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B917" s="8"/>
-      <c r="C917" s="7"/>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B917" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C917" t="s">
+        <v>117</v>
+      </c>
       <c r="E917" s="8"/>
     </row>
-    <row r="918" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B918" s="8"/>
-      <c r="C918" s="7"/>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B918" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C918" t="s">
+        <v>117</v>
+      </c>
       <c r="E918" s="8"/>
     </row>
-    <row r="919" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B919" s="8"/>
-      <c r="C919" s="7"/>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B919" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C919" t="s">
+        <v>117</v>
+      </c>
       <c r="E919" s="8"/>
     </row>
-    <row r="920" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B920" s="8"/>
-      <c r="C920" s="7"/>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B920" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C920" t="s">
+        <v>117</v>
+      </c>
       <c r="E920" s="8"/>
     </row>
-    <row r="921" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B921" s="8"/>
-      <c r="C921" s="7"/>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B921" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C921" t="s">
+        <v>123</v>
+      </c>
       <c r="E921" s="8"/>
     </row>
-    <row r="922" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B922" s="8"/>
-      <c r="C922" s="7"/>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B922" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C922" t="s">
+        <v>117</v>
+      </c>
       <c r="E922" s="8"/>
     </row>
-    <row r="923" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B923" s="8"/>
-      <c r="C923" s="7"/>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B923" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C923" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E923" s="8"/>
     </row>
-    <row r="924" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B924" s="8"/>
-      <c r="C924" s="7"/>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B924" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C924" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E924" s="8"/>
     </row>
-    <row r="925" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B925" s="8"/>
-      <c r="C925" s="7"/>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B925" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C925" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E925" s="8"/>
     </row>
-    <row r="926" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B926" s="8"/>
-      <c r="C926" s="7"/>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B926" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C926" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E926" s="8"/>
     </row>
-    <row r="927" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B927" s="8"/>
-      <c r="C927" s="7"/>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B927" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C927" t="s">
+        <v>117</v>
+      </c>
       <c r="E927" s="8"/>
     </row>
-    <row r="928" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B928" s="8"/>
-      <c r="C928" s="7"/>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B928" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C928" t="s">
+        <v>117</v>
+      </c>
       <c r="E928" s="8"/>
     </row>
-    <row r="929" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B929" s="8"/>
-      <c r="C929" s="7"/>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B929" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C929" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E929" s="8"/>
     </row>
-    <row r="930" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B930" s="8"/>
-      <c r="C930" s="7"/>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B930" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C930" t="s">
+        <v>117</v>
+      </c>
       <c r="E930" s="8"/>
     </row>
-    <row r="931" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B931" s="8"/>
-      <c r="C931" s="7"/>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B931" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C931" t="s">
+        <v>117</v>
+      </c>
       <c r="E931" s="8"/>
     </row>
-    <row r="932" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B932" s="8"/>
-      <c r="C932" s="7"/>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B932" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C932" t="s">
+        <v>117</v>
+      </c>
       <c r="E932" s="8"/>
     </row>
-    <row r="933" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B933" s="8"/>
-      <c r="C933" s="7"/>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B933" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C933" t="s">
+        <v>117</v>
+      </c>
       <c r="E933" s="8"/>
     </row>
-    <row r="934" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B934" s="8"/>
-      <c r="C934" s="7"/>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B934" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C934" t="s">
+        <v>117</v>
+      </c>
       <c r="E934" s="8"/>
     </row>
-    <row r="935" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B935" s="8"/>
-      <c r="C935" s="7"/>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B935" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C935" t="s">
+        <v>123</v>
+      </c>
       <c r="E935" s="8"/>
     </row>
-    <row r="936" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B936" s="8"/>
-      <c r="C936" s="7"/>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B936" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C936" t="s">
+        <v>117</v>
+      </c>
       <c r="E936" s="8"/>
     </row>
-    <row r="937" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B937" s="8"/>
-      <c r="C937" s="7"/>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B937" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C937" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E937" s="8"/>
     </row>
-    <row r="938" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B938" s="8"/>
-      <c r="C938" s="7"/>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B938" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C938" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E938" s="8"/>
     </row>
-    <row r="939" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B939" s="8"/>
-      <c r="C939" s="7"/>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B939" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C939" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E939" s="8"/>
     </row>
-    <row r="940" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B940" s="8"/>
-      <c r="C940" s="7"/>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B940" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C940" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E940" s="8"/>
     </row>
-    <row r="941" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B941" s="8"/>
-      <c r="C941" s="7"/>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B941" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C941" t="s">
+        <v>117</v>
+      </c>
       <c r="E941" s="8"/>
     </row>
-    <row r="942" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B942" s="8"/>
-      <c r="C942" s="7"/>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B942" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C942" t="s">
+        <v>117</v>
+      </c>
       <c r="E942" s="8"/>
     </row>
-    <row r="943" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B943" s="8"/>
-      <c r="C943" s="7"/>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B943" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C943" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E943" s="8"/>
     </row>
-    <row r="944" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B944" s="8"/>
-      <c r="C944" s="7"/>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B944" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C944" t="s">
+        <v>117</v>
+      </c>
       <c r="E944" s="8"/>
     </row>
-    <row r="945" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B945" s="8"/>
-      <c r="C945" s="7"/>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B945" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C945" t="s">
+        <v>117</v>
+      </c>
       <c r="E945" s="8"/>
     </row>
-    <row r="946" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B946" s="8"/>
-      <c r="C946" s="7"/>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B946" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C946" t="s">
+        <v>117</v>
+      </c>
       <c r="E946" s="8"/>
     </row>
-    <row r="947" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B947" s="8"/>
-      <c r="C947" s="7"/>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B947" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C947" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E947" s="8"/>
     </row>
-    <row r="948" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B948" s="8"/>
-      <c r="C948" s="7"/>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B948" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C948" t="s">
+        <v>117</v>
+      </c>
       <c r="E948" s="8"/>
     </row>
-    <row r="949" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B949" s="8"/>
-      <c r="C949" s="7"/>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B949" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C949" t="s">
+        <v>117</v>
+      </c>
       <c r="E949" s="8"/>
     </row>
-    <row r="950" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B950" s="8"/>
-      <c r="C950" s="7"/>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B950" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C950" t="s">
+        <v>117</v>
+      </c>
       <c r="E950" s="8"/>
     </row>
-    <row r="951" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B951" s="8"/>
-      <c r="C951" s="7"/>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B951" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C951" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E951" s="8"/>
     </row>
-    <row r="952" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B952" s="8"/>
-      <c r="C952" s="7"/>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B952" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C952" t="s">
+        <v>117</v>
+      </c>
       <c r="E952" s="8"/>
     </row>
-    <row r="953" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B953" s="8"/>
-      <c r="C953" s="7"/>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B953" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C953" t="s">
+        <v>117</v>
+      </c>
       <c r="E953" s="8"/>
     </row>
-    <row r="954" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B954" s="8"/>
-      <c r="C954" s="7"/>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B954" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C954" t="s">
+        <v>117</v>
+      </c>
       <c r="E954" s="8"/>
     </row>
-    <row r="955" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B955" s="8"/>
-      <c r="C955" s="7"/>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B955" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C955" t="s">
+        <v>117</v>
+      </c>
       <c r="E955" s="8"/>
     </row>
-    <row r="956" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B956" s="8"/>
-      <c r="C956" s="7"/>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B956" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C956" t="s">
+        <v>117</v>
+      </c>
       <c r="E956" s="8"/>
     </row>
-    <row r="957" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B957" s="8"/>
-      <c r="C957" s="7"/>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B957" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C957" t="s">
+        <v>117</v>
+      </c>
       <c r="E957" s="8"/>
     </row>
-    <row r="958" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B958" s="8"/>
-      <c r="C958" s="7"/>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B958" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="C958" t="s">
+        <v>117</v>
+      </c>
       <c r="E958" s="8"/>
     </row>
-    <row r="959" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B959" s="8"/>
-      <c r="C959" s="7"/>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B959" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C959" t="s">
+        <v>117</v>
+      </c>
       <c r="E959" s="8"/>
     </row>
-    <row r="960" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B960" s="8"/>
-      <c r="C960" s="7"/>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B960" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C960" t="s">
+        <v>117</v>
+      </c>
       <c r="E960" s="8"/>
     </row>
-    <row r="961" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B961" s="8"/>
-      <c r="C961" s="7"/>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B961" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C961" t="s">
+        <v>117</v>
+      </c>
       <c r="E961" s="8"/>
     </row>
-    <row r="962" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B962" s="8"/>
-      <c r="C962" s="7"/>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B962" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C962" t="s">
+        <v>117</v>
+      </c>
       <c r="E962" s="8"/>
     </row>
-    <row r="963" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B963" s="8"/>
-      <c r="C963" s="7"/>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B963" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C963" t="s">
+        <v>117</v>
+      </c>
       <c r="E963" s="8"/>
     </row>
-    <row r="964" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B964" s="8"/>
-      <c r="C964" s="7"/>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B964" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C964" t="s">
+        <v>117</v>
+      </c>
       <c r="E964" s="8"/>
     </row>
-    <row r="965" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B965" s="8"/>
-      <c r="C965" s="7"/>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B965" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C965" t="s">
+        <v>117</v>
+      </c>
       <c r="E965" s="8"/>
     </row>
-    <row r="966" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B966" s="8"/>
-      <c r="C966" s="7"/>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B966" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C966" t="s">
+        <v>117</v>
+      </c>
       <c r="E966" s="8"/>
     </row>
-    <row r="967" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B967" s="8"/>
-      <c r="C967" s="7"/>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B967" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C967" t="s">
+        <v>135</v>
+      </c>
       <c r="E967" s="8"/>
     </row>
-    <row r="968" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B968" s="8"/>
-      <c r="C968" s="7"/>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B968" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C968" t="s">
+        <v>135</v>
+      </c>
       <c r="E968" s="8"/>
     </row>
-    <row r="969" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B969" s="8"/>
-      <c r="C969" s="7"/>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B969" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C969" t="s">
+        <v>117</v>
+      </c>
       <c r="E969" s="8"/>
     </row>
-    <row r="970" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B970" s="8"/>
-      <c r="C970" s="7"/>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B970" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C970" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E970" s="8"/>
     </row>
-    <row r="971" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B971" s="8"/>
-      <c r="C971" s="7"/>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B971" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C971" t="s">
+        <v>117</v>
+      </c>
       <c r="E971" s="8"/>
     </row>
-    <row r="972" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B972" s="8"/>
-      <c r="C972" s="7"/>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B972" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C972" t="s">
+        <v>117</v>
+      </c>
       <c r="E972" s="8"/>
     </row>
-    <row r="973" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B973" s="8"/>
-      <c r="C973" s="7"/>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B973" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C973" t="s">
+        <v>117</v>
+      </c>
       <c r="E973" s="8"/>
     </row>
-    <row r="974" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B974" s="8"/>
-      <c r="C974" s="7"/>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B974" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C974" t="s">
+        <v>117</v>
+      </c>
       <c r="E974" s="8"/>
     </row>
-    <row r="975" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B975" s="8"/>
-      <c r="C975" s="7"/>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B975" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C975" t="s">
+        <v>117</v>
+      </c>
       <c r="E975" s="8"/>
     </row>
-    <row r="976" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B976" s="8"/>
-      <c r="C976" s="7"/>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B976" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C976" t="s">
+        <v>117</v>
+      </c>
       <c r="E976" s="8"/>
     </row>
-    <row r="977" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B977" s="8"/>
-      <c r="C977" s="7"/>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B977" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C977" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E977" s="8"/>
     </row>
-    <row r="978" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B978" s="8"/>
-      <c r="C978" s="7"/>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B978" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C978" t="s">
+        <v>135</v>
+      </c>
       <c r="E978" s="8"/>
     </row>
-    <row r="979" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B979" s="8"/>
-      <c r="C979" s="7"/>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B979" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C979" t="s">
+        <v>135</v>
+      </c>
       <c r="E979" s="8"/>
     </row>
-    <row r="980" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B980" s="8"/>
-      <c r="C980" s="7"/>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B980" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C980" t="s">
+        <v>135</v>
+      </c>
       <c r="E980" s="8"/>
     </row>
-    <row r="981" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B981" s="8"/>
-      <c r="C981" s="7"/>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B981" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C981" t="s">
+        <v>135</v>
+      </c>
       <c r="E981" s="8"/>
     </row>
-    <row r="982" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B982" s="8"/>
-      <c r="C982" s="7"/>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B982" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C982" t="s">
+        <v>135</v>
+      </c>
       <c r="E982" s="8"/>
     </row>
-    <row r="983" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B983" s="8"/>
-      <c r="C983" s="7"/>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B983" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C983" t="s">
+        <v>135</v>
+      </c>
       <c r="E983" s="8"/>
     </row>
-    <row r="984" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B984" s="8"/>
-      <c r="C984" s="7"/>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B984" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C984" t="s">
+        <v>135</v>
+      </c>
       <c r="E984" s="8"/>
     </row>
-    <row r="985" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B985" s="8"/>
-      <c r="C985" s="7"/>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B985" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C985" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E985" s="8"/>
     </row>
-    <row r="986" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B986" s="8"/>
-      <c r="C986" s="7"/>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B986" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C986" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E986" s="8"/>
     </row>
-    <row r="987" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987" s="7"/>
       <c r="B987" s="8"/>
-      <c r="C987" s="7"/>
+      <c r="C987" s="8"/>
       <c r="E987" s="8"/>
     </row>
-    <row r="988" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" s="7"/>
       <c r="B988" s="8"/>
-      <c r="C988" s="7"/>
+      <c r="C988" s="8"/>
       <c r="E988" s="8"/>
     </row>
-    <row r="989" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" s="7"/>
       <c r="B989" s="8"/>
       <c r="C989" s="7"/>
       <c r="E989" s="8"/>
     </row>
-    <row r="990" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B990" s="8"/>
       <c r="C990" s="7"/>
       <c r="E990" s="8"/>
     </row>
-    <row r="991" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B991" s="8"/>
       <c r="C991" s="7"/>
       <c r="E991" s="8"/>
     </row>
-    <row r="992" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B992" s="8"/>
       <c r="C992" s="7"/>
       <c r="E992" s="8"/>
@@ -19298,6 +20469,61 @@
       <c r="B1360" s="8"/>
       <c r="C1360" s="7"/>
       <c r="E1360" s="8"/>
+    </row>
+    <row r="1361" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1361" s="8"/>
+      <c r="C1361" s="7"/>
+      <c r="E1361" s="8"/>
+    </row>
+    <row r="1362" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1362" s="8"/>
+      <c r="C1362" s="7"/>
+      <c r="E1362" s="8"/>
+    </row>
+    <row r="1363" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1363" s="8"/>
+      <c r="C1363" s="7"/>
+      <c r="E1363" s="8"/>
+    </row>
+    <row r="1364" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1364" s="8"/>
+      <c r="C1364" s="7"/>
+      <c r="E1364" s="8"/>
+    </row>
+    <row r="1365" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1365" s="8"/>
+      <c r="C1365" s="7"/>
+      <c r="E1365" s="8"/>
+    </row>
+    <row r="1366" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1366" s="8"/>
+      <c r="C1366" s="7"/>
+      <c r="E1366" s="8"/>
+    </row>
+    <row r="1367" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1367" s="8"/>
+      <c r="C1367" s="7"/>
+      <c r="E1367" s="8"/>
+    </row>
+    <row r="1368" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1368" s="8"/>
+      <c r="C1368" s="7"/>
+      <c r="E1368" s="8"/>
+    </row>
+    <row r="1369" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1369" s="8"/>
+      <c r="C1369" s="7"/>
+      <c r="E1369" s="8"/>
+    </row>
+    <row r="1370" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1370" s="8"/>
+      <c r="C1370" s="7"/>
+      <c r="E1370" s="8"/>
+    </row>
+    <row r="1371" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1371" s="8"/>
+      <c r="C1371" s="7"/>
+      <c r="E1371" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -19310,7 +20536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:G6"/>
     </sheetView>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727685C-A47D-4987-AB18-08847412521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA09C5-A1E2-4618-908F-C5F55DDE261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -2970,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
@@ -6346,9 +6346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1371"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A968" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A988" sqref="A988"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D944" sqref="D944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA09C5-A1E2-4618-908F-C5F55DDE261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F8E93B-8BEA-4607-8CD9-EB4ACAB25CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="775">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2147,9 +2147,6 @@
     <t>fcu_02_discharge_fan_speed_mode</t>
   </si>
   <si>
-    <t>fcu_02_discharge_fan_speed_percentage_cmd</t>
-  </si>
-  <si>
     <t>fcu_02_discharge_fan_lost_power_alarm</t>
   </si>
   <si>
@@ -2159,12 +2156,6 @@
     <t>fcu_02_return_air_temperature_sensor</t>
   </si>
   <si>
-    <t>fcu_02_discharge_air_temperature_sensor</t>
-  </si>
-  <si>
-    <t>fcu_02_discharge_air_temp_setpoint</t>
-  </si>
-  <si>
     <t>fcu_02_return_air_isolation_dam_sts_1</t>
   </si>
   <si>
@@ -2346,6 +2337,27 @@
   </si>
   <si>
     <t>kfaf_02_fan_speed_percent_cmd</t>
+  </si>
+  <si>
+    <t>fcu_01_chilled_water_valve_percent_cmd</t>
+  </si>
+  <si>
+    <t>fcu_01_chilled_water_valve_percent_sen</t>
+  </si>
+  <si>
+    <t>fcu_01_filter_differential_pressure_sen</t>
+  </si>
+  <si>
+    <t>discharge_air_temperature_set</t>
+  </si>
+  <si>
+    <t>fdischarge_fan_speed_percentage_cmd</t>
+  </si>
+  <si>
+    <t>discharge_air_temperature_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_air_static_pr_sen</t>
   </si>
 </sst>
 </file>
@@ -4379,7 +4391,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4391,7 +4403,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -4403,16 +4415,16 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M28" t="s">
         <v>60</v>
@@ -4428,7 +4440,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4440,7 +4452,7 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -4452,16 +4464,16 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M29" t="s">
         <v>60</v>
@@ -4477,7 +4489,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4489,7 +4501,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -4501,16 +4513,16 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M30" t="s">
         <v>60</v>
@@ -4526,7 +4538,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4538,7 +4550,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -4550,16 +4562,16 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J31" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M31" t="s">
         <v>60</v>
@@ -4575,7 +4587,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4587,7 +4599,7 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -4599,16 +4611,16 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J32" t="s">
         <v>57</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M32" t="s">
         <v>60</v>
@@ -6344,11 +6356,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1371"/>
+  <dimension ref="A1:G1377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D944" sqref="D944"/>
+      <pane ySplit="1" topLeftCell="A957" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D973" sqref="D973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17915,37 +17927,37 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="C930" t="s">
-        <v>117</v>
+        <v>768</v>
+      </c>
+      <c r="C930" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E930" s="8"/>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="C931" t="s">
-        <v>117</v>
+        <v>769</v>
+      </c>
+      <c r="C931" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E931" s="8"/>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="C932" t="s">
-        <v>117</v>
+        <v>770</v>
+      </c>
+      <c r="C932" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E932" s="8"/>
     </row>
@@ -17954,7 +17966,7 @@
         <v>528</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C933" t="s">
         <v>117</v>
@@ -17966,7 +17978,7 @@
         <v>528</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C934" t="s">
         <v>117</v>
@@ -17978,10 +17990,10 @@
         <v>528</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C935" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E935" s="8"/>
     </row>
@@ -17990,7 +18002,7 @@
         <v>528</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C936" t="s">
         <v>117</v>
@@ -18002,10 +18014,10 @@
         <v>528</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C937" s="7" t="s">
-        <v>123</v>
+        <v>703</v>
+      </c>
+      <c r="C937" t="s">
+        <v>117</v>
       </c>
       <c r="E937" s="8"/>
     </row>
@@ -18014,10 +18026,10 @@
         <v>528</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="C938" s="7" t="s">
-        <v>127</v>
+        <v>772</v>
+      </c>
+      <c r="C938" t="s">
+        <v>123</v>
       </c>
       <c r="E938" s="8"/>
     </row>
@@ -18026,10 +18038,10 @@
         <v>528</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C939" s="7" t="s">
-        <v>127</v>
+        <v>704</v>
+      </c>
+      <c r="C939" t="s">
+        <v>117</v>
       </c>
       <c r="E939" s="8"/>
     </row>
@@ -18038,10 +18050,10 @@
         <v>528</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C940" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E940" s="8"/>
     </row>
@@ -18050,10 +18062,10 @@
         <v>528</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C941" t="s">
-        <v>117</v>
+        <v>706</v>
+      </c>
+      <c r="C941" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E941" s="8"/>
     </row>
@@ -18062,10 +18074,10 @@
         <v>528</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="C942" t="s">
-        <v>117</v>
+        <v>773</v>
+      </c>
+      <c r="C942" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E942" s="8"/>
     </row>
@@ -18074,19 +18086,19 @@
         <v>528</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="C943" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E943" s="8"/>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
-        <v>718</v>
+        <v>528</v>
       </c>
       <c r="B944" s="8" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="C944" t="s">
         <v>117</v>
@@ -18095,10 +18107,10 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
-        <v>718</v>
+        <v>528</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="C945" t="s">
         <v>117</v>
@@ -18107,46 +18119,38 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
-        <v>718</v>
+        <v>528</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="C946" t="s">
-        <v>117</v>
+        <v>709</v>
+      </c>
+      <c r="C946" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E946" s="8"/>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A947" s="7" t="s">
-        <v>718</v>
-      </c>
+      <c r="A947" s="7"/>
       <c r="B947" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C947" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C947" s="7"/>
       <c r="E947" s="8"/>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A948" s="7" t="s">
-        <v>718</v>
-      </c>
+      <c r="A948" s="7"/>
       <c r="B948" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C948" t="s">
-        <v>117</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C948" s="7"/>
       <c r="E948" s="8"/>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B949" s="8" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C949" t="s">
         <v>117</v>
@@ -18155,10 +18159,10 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C950" t="s">
         <v>117</v>
@@ -18167,34 +18171,34 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="C951" s="7" t="s">
-        <v>123</v>
+        <v>726</v>
+      </c>
+      <c r="C951" t="s">
+        <v>117</v>
       </c>
       <c r="E951" s="8"/>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="C952" t="s">
-        <v>117</v>
+        <v>729</v>
+      </c>
+      <c r="C952" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E952" s="8"/>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C953" t="s">
         <v>117</v>
@@ -18203,10 +18207,10 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C954" t="s">
         <v>117</v>
@@ -18215,10 +18219,10 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C955" t="s">
         <v>117</v>
@@ -18227,22 +18231,22 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
-        <v>106</v>
+        <v>715</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C956" t="s">
-        <v>117</v>
+        <v>733</v>
+      </c>
+      <c r="C956" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E956" s="8"/>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
-        <v>106</v>
+        <v>715</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C957" t="s">
         <v>117</v>
@@ -18251,10 +18255,10 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
-        <v>106</v>
+        <v>715</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C958" t="s">
         <v>117</v>
@@ -18263,10 +18267,10 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
-        <v>106</v>
+        <v>715</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C959" t="s">
         <v>117</v>
@@ -18275,10 +18279,10 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
-        <v>106</v>
+        <v>715</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="C960" t="s">
         <v>117</v>
@@ -18290,7 +18294,7 @@
         <v>106</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C961" t="s">
         <v>117</v>
@@ -18302,7 +18306,7 @@
         <v>106</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C962" t="s">
         <v>117</v>
@@ -18314,7 +18318,7 @@
         <v>106</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C963" t="s">
         <v>117</v>
@@ -18323,10 +18327,10 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C964" t="s">
         <v>117</v>
@@ -18335,10 +18339,10 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C965" t="s">
         <v>117</v>
@@ -18347,10 +18351,10 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C966" t="s">
         <v>117</v>
@@ -18359,58 +18363,58 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C967" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E967" s="8"/>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="C968" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E968" s="8"/>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="C969" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E969" s="8"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="C970" s="7" t="s">
-        <v>123</v>
+        <v>746</v>
+      </c>
+      <c r="C970" t="s">
+        <v>117</v>
       </c>
       <c r="E970" s="8"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C971" t="s">
         <v>117</v>
@@ -18419,10 +18423,10 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C972" t="s">
         <v>117</v>
@@ -18431,34 +18435,34 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C973" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E973" s="8"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C974" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E974" s="8"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C975" t="s">
         <v>117</v>
@@ -18467,106 +18471,106 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="C976" t="s">
-        <v>117</v>
+        <v>753</v>
+      </c>
+      <c r="C976" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E976" s="8"/>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C977" s="7" t="s">
-        <v>123</v>
+        <v>754</v>
+      </c>
+      <c r="C977" t="s">
+        <v>117</v>
       </c>
       <c r="E977" s="8"/>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="C978" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E978" s="8"/>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C979" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E979" s="8"/>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C980" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E980" s="8"/>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="C981" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E981" s="8"/>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B982" s="8" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C982" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E982" s="8"/>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C983" t="s">
-        <v>135</v>
+        <v>759</v>
+      </c>
+      <c r="C983" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E983" s="8"/>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C984" t="s">
         <v>135</v>
@@ -18575,137 +18579,179 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="C985" s="8" t="s">
-        <v>123</v>
+        <v>750</v>
+      </c>
+      <c r="C985" t="s">
+        <v>135</v>
       </c>
       <c r="E985" s="8"/>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="C986" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C986" t="s">
+        <v>135</v>
+      </c>
+      <c r="E986" s="8"/>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B987" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C987" t="s">
+        <v>135</v>
+      </c>
+      <c r="E987" s="8"/>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B988" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C988" t="s">
+        <v>135</v>
+      </c>
+      <c r="E988" s="8"/>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B989" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C989" t="s">
+        <v>135</v>
+      </c>
+      <c r="E989" s="8"/>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B990" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C990" t="s">
+        <v>135</v>
+      </c>
+      <c r="E990" s="8"/>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B991" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C991" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E986" s="8"/>
-    </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A987" s="7"/>
-      <c r="B987" s="8"/>
-      <c r="C987" s="8"/>
-      <c r="E987" s="8"/>
-    </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A988" s="7"/>
-      <c r="B988" s="8"/>
-      <c r="C988" s="8"/>
-      <c r="E988" s="8"/>
-    </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A989" s="7"/>
-      <c r="B989" s="8"/>
-      <c r="C989" s="7"/>
-      <c r="E989" s="8"/>
-    </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B990" s="8"/>
-      <c r="C990" s="7"/>
-      <c r="E990" s="8"/>
-    </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B991" s="8"/>
-      <c r="C991" s="7"/>
       <c r="E991" s="8"/>
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B992" s="8"/>
-      <c r="C992" s="7"/>
+      <c r="A992" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B992" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C992" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E992" s="8"/>
     </row>
-    <row r="993" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993" s="7"/>
       <c r="B993" s="8"/>
-      <c r="C993" s="7"/>
+      <c r="C993" s="8"/>
       <c r="E993" s="8"/>
     </row>
-    <row r="994" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994" s="7"/>
       <c r="B994" s="8"/>
-      <c r="C994" s="7"/>
+      <c r="C994" s="8"/>
       <c r="E994" s="8"/>
     </row>
-    <row r="995" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995" s="7"/>
       <c r="B995" s="8"/>
       <c r="C995" s="7"/>
       <c r="E995" s="8"/>
     </row>
-    <row r="996" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B996" s="8"/>
       <c r="C996" s="7"/>
       <c r="E996" s="8"/>
     </row>
-    <row r="997" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B997" s="8"/>
       <c r="C997" s="7"/>
       <c r="E997" s="8"/>
     </row>
-    <row r="998" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B998" s="8"/>
       <c r="C998" s="7"/>
       <c r="E998" s="8"/>
     </row>
-    <row r="999" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B999" s="8"/>
       <c r="C999" s="7"/>
       <c r="E999" s="8"/>
     </row>
-    <row r="1000" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1000" s="8"/>
       <c r="C1000" s="7"/>
       <c r="E1000" s="8"/>
     </row>
-    <row r="1001" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1001" s="8"/>
       <c r="C1001" s="7"/>
       <c r="E1001" s="8"/>
     </row>
-    <row r="1002" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1002" s="8"/>
       <c r="C1002" s="7"/>
       <c r="E1002" s="8"/>
     </row>
-    <row r="1003" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1003" s="8"/>
       <c r="C1003" s="7"/>
       <c r="E1003" s="8"/>
     </row>
-    <row r="1004" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1004" s="8"/>
       <c r="C1004" s="7"/>
       <c r="E1004" s="8"/>
     </row>
-    <row r="1005" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1005" s="8"/>
       <c r="C1005" s="7"/>
       <c r="E1005" s="8"/>
     </row>
-    <row r="1006" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1006" s="8"/>
       <c r="C1006" s="7"/>
       <c r="E1006" s="8"/>
     </row>
-    <row r="1007" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1007" s="8"/>
       <c r="C1007" s="7"/>
       <c r="E1007" s="8"/>
     </row>
-    <row r="1008" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1008" s="8"/>
       <c r="C1008" s="7"/>
       <c r="E1008" s="8"/>
@@ -20524,6 +20570,36 @@
       <c r="B1371" s="8"/>
       <c r="C1371" s="7"/>
       <c r="E1371" s="8"/>
+    </row>
+    <row r="1372" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1372" s="8"/>
+      <c r="C1372" s="7"/>
+      <c r="E1372" s="8"/>
+    </row>
+    <row r="1373" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1373" s="8"/>
+      <c r="C1373" s="7"/>
+      <c r="E1373" s="8"/>
+    </row>
+    <row r="1374" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1374" s="8"/>
+      <c r="C1374" s="7"/>
+      <c r="E1374" s="8"/>
+    </row>
+    <row r="1375" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1375" s="8"/>
+      <c r="C1375" s="7"/>
+      <c r="E1375" s="8"/>
+    </row>
+    <row r="1376" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1376" s="8"/>
+      <c r="C1376" s="7"/>
+      <c r="E1376" s="8"/>
+    </row>
+    <row r="1377" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1377" s="8"/>
+      <c r="C1377" s="7"/>
+      <c r="E1377" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F8E93B-8BEA-4607-8CD9-EB4ACAB25CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC88DF3-2C7B-451F-B77A-EFBFE2EF22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="776">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2135,39 +2135,6 @@
     <t>fcu_01_return_air_co2_concentration_set</t>
   </si>
   <si>
-    <t>fcu_02_discharge_fan_run_command</t>
-  </si>
-  <si>
-    <t>fcu_02_schedule_run_command</t>
-  </si>
-  <si>
-    <t>fcu_02_discharge_fan_control_mode</t>
-  </si>
-  <si>
-    <t>fcu_02_discharge_fan_speed_mode</t>
-  </si>
-  <si>
-    <t>fcu_02_discharge_fan_lost_power_alarm</t>
-  </si>
-  <si>
-    <t>fcu_02_return_air_relative_humidity_sen</t>
-  </si>
-  <si>
-    <t>fcu_02_return_air_temperature_sensor</t>
-  </si>
-  <si>
-    <t>fcu_02_return_air_isolation_dam_sts_1</t>
-  </si>
-  <si>
-    <t>fcu_02_supply_air_isolation_dam_sts_1</t>
-  </si>
-  <si>
-    <t>fcu_02_return_air_co2_concentration_set</t>
-  </si>
-  <si>
-    <t>fcu_02_discharge_fan_run_status</t>
-  </si>
-  <si>
     <t>DDC-26</t>
   </si>
   <si>
@@ -2348,16 +2315,52 @@
     <t>fcu_01_filter_differential_pressure_sen</t>
   </si>
   <si>
-    <t>discharge_air_temperature_set</t>
-  </si>
-  <si>
-    <t>fdischarge_fan_speed_percentage_cmd</t>
-  </si>
-  <si>
-    <t>discharge_air_temperature_sensor</t>
-  </si>
-  <si>
     <t>kfaf_02_supply_air_static_pr_sen</t>
+  </si>
+  <si>
+    <t>discharge_fan_run_status_02</t>
+  </si>
+  <si>
+    <t>discharge_fan_run_command_02</t>
+  </si>
+  <si>
+    <t>discharge_fan_lost_power_alm_02</t>
+  </si>
+  <si>
+    <t>discharge_fan_speed_perc_cmd_02</t>
+  </si>
+  <si>
+    <t>filter_differen_pressure_sen_02</t>
+  </si>
+  <si>
+    <t>discharge_air_temperature_sen_02</t>
+  </si>
+  <si>
+    <t>discharge_air_temperature_set_02</t>
+  </si>
+  <si>
+    <t>chilled_water_valve_percent_cmd_02</t>
+  </si>
+  <si>
+    <t>chilled_water_valve_percent_sen_02</t>
+  </si>
+  <si>
+    <t>schedule_run_command_02</t>
+  </si>
+  <si>
+    <t>discharge_fan_speed_mode_02</t>
+  </si>
+  <si>
+    <t>return_air_relative_humidity_sen_02</t>
+  </si>
+  <si>
+    <t>return_air_temperature_sen_02</t>
+  </si>
+  <si>
+    <t>return_air_co2_concentration_set_02</t>
+  </si>
+  <si>
+    <t>return_air_co2_concentration_sen_02</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4403,7 +4406,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -4415,16 +4418,16 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M28" t="s">
         <v>60</v>
@@ -4440,7 +4443,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4452,7 +4455,7 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -4464,16 +4467,16 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="M29" t="s">
         <v>60</v>
@@ -4489,7 +4492,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4501,7 +4504,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -4513,16 +4516,16 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="M30" t="s">
         <v>60</v>
@@ -4538,7 +4541,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4550,7 +4553,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -4562,16 +4565,16 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="J31" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="M31" t="s">
         <v>60</v>
@@ -4587,7 +4590,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4599,7 +4602,7 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -4611,16 +4614,16 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="J32" t="s">
         <v>57</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="M32" t="s">
         <v>60</v>
@@ -6356,11 +6359,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1377"/>
+  <dimension ref="A1:G1379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A957" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D973" sqref="D973"/>
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C721" sqref="C721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16751,7 +16754,7 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B832" s="8" t="s">
         <v>604</v>
@@ -17930,7 +17933,7 @@
         <v>527</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C930" s="7" t="s">
         <v>123</v>
@@ -17942,7 +17945,7 @@
         <v>527</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="C931" s="7" t="s">
         <v>123</v>
@@ -17954,7 +17957,7 @@
         <v>527</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C932" s="7" t="s">
         <v>135</v>
@@ -17966,7 +17969,7 @@
         <v>528</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="C933" t="s">
         <v>117</v>
@@ -17978,7 +17981,7 @@
         <v>528</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="C934" t="s">
         <v>117</v>
@@ -17990,7 +17993,7 @@
         <v>528</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>701</v>
+        <v>770</v>
       </c>
       <c r="C935" t="s">
         <v>117</v>
@@ -18002,7 +18005,7 @@
         <v>528</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="C936" t="s">
         <v>117</v>
@@ -18014,7 +18017,7 @@
         <v>528</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>703</v>
+        <v>771</v>
       </c>
       <c r="C937" t="s">
         <v>117</v>
@@ -18026,7 +18029,7 @@
         <v>528</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C938" t="s">
         <v>123</v>
@@ -18038,7 +18041,7 @@
         <v>528</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>704</v>
+        <v>763</v>
       </c>
       <c r="C939" t="s">
         <v>117</v>
@@ -18050,7 +18053,7 @@
         <v>528</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="C940" s="7" t="s">
         <v>123</v>
@@ -18062,7 +18065,7 @@
         <v>528</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>706</v>
+        <v>773</v>
       </c>
       <c r="C941" s="7" t="s">
         <v>127</v>
@@ -18074,7 +18077,7 @@
         <v>528</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C942" s="7" t="s">
         <v>127</v>
@@ -18086,7 +18089,7 @@
         <v>528</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C943" s="7" t="s">
         <v>127</v>
@@ -18098,7 +18101,7 @@
         <v>528</v>
       </c>
       <c r="B944" s="8" t="s">
-        <v>707</v>
+        <v>137</v>
       </c>
       <c r="C944" t="s">
         <v>117</v>
@@ -18110,10 +18113,10 @@
         <v>528</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C945" t="s">
-        <v>117</v>
+        <v>775</v>
+      </c>
+      <c r="C945" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E945" s="8"/>
     </row>
@@ -18122,7 +18125,7 @@
         <v>528</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="C946" s="7" t="s">
         <v>135</v>
@@ -18130,39 +18133,47 @@
       <c r="E946" s="8"/>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A947" s="7"/>
+      <c r="A947" s="7" t="s">
+        <v>528</v>
+      </c>
       <c r="B947" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C947" s="7"/>
+        <v>768</v>
+      </c>
+      <c r="C947" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E947" s="8"/>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A948" s="7"/>
+      <c r="A948" s="7" t="s">
+        <v>528</v>
+      </c>
       <c r="B948" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C948" s="7"/>
+        <v>769</v>
+      </c>
+      <c r="C948" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E948" s="8"/>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
-        <v>715</v>
+        <v>528</v>
       </c>
       <c r="B949" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="C949" t="s">
-        <v>117</v>
+        <v>765</v>
+      </c>
+      <c r="C949" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E949" s="8"/>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
-        <v>715</v>
+        <v>528</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
       <c r="C950" t="s">
         <v>117</v>
@@ -18171,10 +18182,10 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C951" t="s">
         <v>117</v>
@@ -18183,22 +18194,22 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="C952" s="7" t="s">
-        <v>123</v>
+        <v>717</v>
+      </c>
+      <c r="C952" t="s">
+        <v>117</v>
       </c>
       <c r="E952" s="8"/>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B953" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="B953" s="8" t="s">
-        <v>730</v>
       </c>
       <c r="C953" t="s">
         <v>117</v>
@@ -18207,22 +18218,22 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="C954" t="s">
-        <v>117</v>
+        <v>718</v>
+      </c>
+      <c r="C954" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E954" s="8"/>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C955" t="s">
         <v>117</v>
@@ -18231,22 +18242,22 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C956" s="7" t="s">
-        <v>123</v>
+        <v>720</v>
+      </c>
+      <c r="C956" t="s">
+        <v>117</v>
       </c>
       <c r="E956" s="8"/>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C957" t="s">
         <v>117</v>
@@ -18255,22 +18266,22 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="C958" t="s">
-        <v>117</v>
+        <v>722</v>
+      </c>
+      <c r="C958" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E958" s="8"/>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C959" t="s">
         <v>117</v>
@@ -18279,10 +18290,10 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C960" t="s">
         <v>117</v>
@@ -18291,10 +18302,10 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
-        <v>106</v>
+        <v>704</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="C961" t="s">
         <v>117</v>
@@ -18303,10 +18314,10 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
-        <v>106</v>
+        <v>704</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="C962" t="s">
         <v>117</v>
@@ -18318,7 +18329,7 @@
         <v>106</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C963" t="s">
         <v>117</v>
@@ -18330,7 +18341,7 @@
         <v>106</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C964" t="s">
         <v>117</v>
@@ -18342,7 +18353,7 @@
         <v>106</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C965" t="s">
         <v>117</v>
@@ -18354,7 +18365,7 @@
         <v>106</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C966" t="s">
         <v>117</v>
@@ -18366,7 +18377,7 @@
         <v>106</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C967" t="s">
         <v>117</v>
@@ -18378,7 +18389,7 @@
         <v>106</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C968" t="s">
         <v>117</v>
@@ -18390,19 +18401,19 @@
         <v>106</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>774</v>
+        <v>733</v>
       </c>
       <c r="C969" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E969" s="8"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
-        <v>711</v>
+        <v>106</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="C970" t="s">
         <v>117</v>
@@ -18411,22 +18422,22 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
-        <v>711</v>
+        <v>106</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="C971" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E971" s="8"/>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C972" t="s">
         <v>117</v>
@@ -18435,58 +18446,58 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C973" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E973" s="8"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C974" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E974" s="8"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C975" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E975" s="8"/>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="C976" s="7" t="s">
-        <v>123</v>
+        <v>740</v>
+      </c>
+      <c r="C976" t="s">
+        <v>135</v>
       </c>
       <c r="E976" s="8"/>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C977" t="s">
         <v>117</v>
@@ -18495,22 +18506,22 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="C978" t="s">
-        <v>117</v>
+        <v>742</v>
+      </c>
+      <c r="C978" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E978" s="8"/>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C979" t="s">
         <v>117</v>
@@ -18519,10 +18530,10 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C980" t="s">
         <v>117</v>
@@ -18531,10 +18542,10 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C981" t="s">
         <v>117</v>
@@ -18543,10 +18554,10 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B982" s="8" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C982" t="s">
         <v>117</v>
@@ -18555,46 +18566,46 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C983" s="7" t="s">
-        <v>123</v>
+        <v>744</v>
+      </c>
+      <c r="C983" t="s">
+        <v>117</v>
       </c>
       <c r="E983" s="8"/>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C984" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E984" s="8"/>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C985" t="s">
-        <v>135</v>
+        <v>748</v>
+      </c>
+      <c r="C985" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E985" s="8"/>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="C986" t="s">
         <v>135</v>
@@ -18603,10 +18614,10 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="C987" t="s">
         <v>135</v>
@@ -18615,10 +18626,10 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B988" s="8" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C988" t="s">
         <v>135</v>
@@ -18627,10 +18638,10 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C989" t="s">
         <v>135</v>
@@ -18639,10 +18650,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C990" t="s">
         <v>135</v>
@@ -18651,52 +18662,66 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C991" s="8" t="s">
-        <v>123</v>
+        <v>753</v>
+      </c>
+      <c r="C991" t="s">
+        <v>135</v>
       </c>
       <c r="E991" s="8"/>
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B992" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C992" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C992" t="s">
+        <v>135</v>
+      </c>
+      <c r="E992" s="8"/>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B993" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C993" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E992" s="8"/>
-    </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A993" s="7"/>
-      <c r="B993" s="8"/>
-      <c r="C993" s="8"/>
       <c r="E993" s="8"/>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A994" s="7"/>
-      <c r="B994" s="8"/>
-      <c r="C994" s="8"/>
+      <c r="A994" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B994" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C994" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E994" s="8"/>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A995" s="7"/>
       <c r="B995" s="8"/>
-      <c r="C995" s="7"/>
+      <c r="C995" s="8"/>
       <c r="E995" s="8"/>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996" s="7"/>
       <c r="B996" s="8"/>
-      <c r="C996" s="7"/>
+      <c r="C996" s="8"/>
       <c r="E996" s="8"/>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997" s="7"/>
       <c r="B997" s="8"/>
       <c r="C997" s="7"/>
       <c r="E997" s="8"/>
@@ -20600,6 +20625,16 @@
       <c r="B1377" s="8"/>
       <c r="C1377" s="7"/>
       <c r="E1377" s="8"/>
+    </row>
+    <row r="1378" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1378" s="8"/>
+      <c r="C1378" s="7"/>
+      <c r="E1378" s="8"/>
+    </row>
+    <row r="1379" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1379" s="8"/>
+      <c r="C1379" s="7"/>
+      <c r="E1379" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC88DF3-2C7B-451F-B77A-EFBFE2EF22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD8B27-0C8F-4ACA-89A8-2898CF2D6197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="775">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2288,24 +2288,6 @@
     <t>supply_air_ssp_sp_02</t>
   </si>
   <si>
-    <t>kfaf_01_filter_diff_pressure_sen</t>
-  </si>
-  <si>
-    <t>kfaf_02_filter_diff_pressure_sen</t>
-  </si>
-  <si>
-    <t>kfaf_01_air_ssp_sen</t>
-  </si>
-  <si>
-    <t>kfaf_02_air_ssp_sp</t>
-  </si>
-  <si>
-    <t>kfaf_01_fan_speed_percent_cmd</t>
-  </si>
-  <si>
-    <t>kfaf_02_fan_speed_percent_cmd</t>
-  </si>
-  <si>
     <t>fcu_01_chilled_water_valve_percent_cmd</t>
   </si>
   <si>
@@ -2339,28 +2321,43 @@
     <t>discharge_air_temperature_set_02</t>
   </si>
   <si>
-    <t>chilled_water_valve_percent_cmd_02</t>
-  </si>
-  <si>
-    <t>chilled_water_valve_percent_sen_02</t>
-  </si>
-  <si>
     <t>schedule_run_command_02</t>
   </si>
   <si>
     <t>discharge_fan_speed_mode_02</t>
   </si>
   <si>
-    <t>return_air_relative_humidity_sen_02</t>
-  </si>
-  <si>
     <t>return_air_temperature_sen_02</t>
   </si>
   <si>
-    <t>return_air_co2_concentration_set_02</t>
-  </si>
-  <si>
-    <t>return_air_co2_concentration_sen_02</t>
+    <t>chilled_water_vlv_percent_cmd_02</t>
+  </si>
+  <si>
+    <t>chilled_water_vlv_percent_sen_02</t>
+  </si>
+  <si>
+    <t>return_air_co2_concent_sen_02</t>
+  </si>
+  <si>
+    <t>return_air_relative_humid_sen_02</t>
+  </si>
+  <si>
+    <t>kfaf_01_filter_differential_pr_s</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_air_static_pr_sen</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_air_static_pr_sp</t>
+  </si>
+  <si>
+    <t>kfaf_01_supply_fan_speed_per_s</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_fan_speed_per_s</t>
+  </si>
+  <si>
+    <t>kfaf_02_filter_differential_pr_s</t>
   </si>
 </sst>
 </file>
@@ -6359,11 +6356,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1379"/>
+  <dimension ref="A1:G1378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C721" sqref="C721"/>
+      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1001" sqref="D1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17933,7 +17930,7 @@
         <v>527</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C930" s="7" t="s">
         <v>123</v>
@@ -17945,7 +17942,7 @@
         <v>527</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C931" s="7" t="s">
         <v>123</v>
@@ -17957,7 +17954,7 @@
         <v>527</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C932" s="7" t="s">
         <v>135</v>
@@ -17969,7 +17966,7 @@
         <v>528</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C933" t="s">
         <v>117</v>
@@ -17981,7 +17978,7 @@
         <v>528</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C934" t="s">
         <v>117</v>
@@ -17993,7 +17990,7 @@
         <v>528</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C935" t="s">
         <v>117</v>
@@ -18017,7 +18014,7 @@
         <v>528</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C937" t="s">
         <v>117</v>
@@ -18029,7 +18026,7 @@
         <v>528</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C938" t="s">
         <v>123</v>
@@ -18041,7 +18038,7 @@
         <v>528</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C939" t="s">
         <v>117</v>
@@ -18053,7 +18050,7 @@
         <v>528</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C940" s="7" t="s">
         <v>123</v>
@@ -18065,7 +18062,7 @@
         <v>528</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C941" s="7" t="s">
         <v>127</v>
@@ -18077,7 +18074,7 @@
         <v>528</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C942" s="7" t="s">
         <v>127</v>
@@ -18089,7 +18086,7 @@
         <v>528</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C943" s="7" t="s">
         <v>127</v>
@@ -18113,7 +18110,7 @@
         <v>528</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C945" s="7" t="s">
         <v>135</v>
@@ -18125,10 +18122,10 @@
         <v>528</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C946" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E946" s="8"/>
     </row>
@@ -18137,7 +18134,7 @@
         <v>528</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C947" s="7" t="s">
         <v>123</v>
@@ -18149,10 +18146,10 @@
         <v>528</v>
       </c>
       <c r="B948" s="8" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C948" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E948" s="8"/>
     </row>
@@ -18161,19 +18158,19 @@
         <v>528</v>
       </c>
       <c r="B949" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="C949" s="7" t="s">
-        <v>135</v>
+        <v>624</v>
+      </c>
+      <c r="C949" t="s">
+        <v>117</v>
       </c>
       <c r="E949" s="8"/>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
-        <v>528</v>
+        <v>704</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="C950" t="s">
         <v>117</v>
@@ -18185,7 +18182,7 @@
         <v>704</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C951" t="s">
         <v>117</v>
@@ -18197,7 +18194,7 @@
         <v>704</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C952" t="s">
         <v>117</v>
@@ -18209,10 +18206,10 @@
         <v>704</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C953" t="s">
-        <v>117</v>
+        <v>718</v>
+      </c>
+      <c r="C953" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E953" s="8"/>
     </row>
@@ -18221,10 +18218,10 @@
         <v>704</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C954" s="7" t="s">
-        <v>123</v>
+        <v>719</v>
+      </c>
+      <c r="C954" t="s">
+        <v>117</v>
       </c>
       <c r="E954" s="8"/>
     </row>
@@ -18233,7 +18230,7 @@
         <v>704</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C955" t="s">
         <v>117</v>
@@ -18245,7 +18242,7 @@
         <v>704</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C956" t="s">
         <v>117</v>
@@ -18257,10 +18254,10 @@
         <v>704</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="C957" t="s">
-        <v>117</v>
+        <v>722</v>
+      </c>
+      <c r="C957" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E957" s="8"/>
     </row>
@@ -18269,10 +18266,10 @@
         <v>704</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="C958" s="7" t="s">
-        <v>123</v>
+        <v>723</v>
+      </c>
+      <c r="C958" t="s">
+        <v>117</v>
       </c>
       <c r="E958" s="8"/>
     </row>
@@ -18281,7 +18278,7 @@
         <v>704</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C959" t="s">
         <v>117</v>
@@ -18293,7 +18290,7 @@
         <v>704</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C960" t="s">
         <v>117</v>
@@ -18305,7 +18302,7 @@
         <v>704</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C961" t="s">
         <v>117</v>
@@ -18314,10 +18311,10 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
-        <v>704</v>
+        <v>106</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C962" t="s">
         <v>117</v>
@@ -18329,7 +18326,7 @@
         <v>106</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C963" t="s">
         <v>117</v>
@@ -18341,7 +18338,7 @@
         <v>106</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C964" t="s">
         <v>117</v>
@@ -18353,7 +18350,7 @@
         <v>106</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C965" t="s">
         <v>117</v>
@@ -18365,7 +18362,7 @@
         <v>106</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C966" t="s">
         <v>117</v>
@@ -18377,7 +18374,7 @@
         <v>106</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C967" t="s">
         <v>117</v>
@@ -18389,7 +18386,7 @@
         <v>106</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C968" t="s">
         <v>117</v>
@@ -18401,7 +18398,7 @@
         <v>106</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C969" t="s">
         <v>117</v>
@@ -18413,22 +18410,22 @@
         <v>106</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="C970" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E970" s="8"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
-        <v>106</v>
+        <v>700</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="C971" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E971" s="8"/>
     </row>
@@ -18437,7 +18434,7 @@
         <v>700</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C972" t="s">
         <v>117</v>
@@ -18449,7 +18446,7 @@
         <v>700</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C973" t="s">
         <v>117</v>
@@ -18461,10 +18458,10 @@
         <v>700</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C974" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E974" s="8"/>
     </row>
@@ -18473,7 +18470,7 @@
         <v>700</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C975" t="s">
         <v>135</v>
@@ -18485,10 +18482,10 @@
         <v>700</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C976" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E976" s="8"/>
     </row>
@@ -18497,10 +18494,10 @@
         <v>700</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="C977" t="s">
-        <v>117</v>
+        <v>742</v>
+      </c>
+      <c r="C977" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E977" s="8"/>
     </row>
@@ -18509,10 +18506,10 @@
         <v>700</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C978" s="7" t="s">
-        <v>123</v>
+        <v>743</v>
+      </c>
+      <c r="C978" t="s">
+        <v>117</v>
       </c>
       <c r="E978" s="8"/>
     </row>
@@ -18521,7 +18518,7 @@
         <v>700</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C979" t="s">
         <v>117</v>
@@ -18533,7 +18530,7 @@
         <v>700</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C980" t="s">
         <v>117</v>
@@ -18542,10 +18539,10 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C981" t="s">
         <v>117</v>
@@ -18557,7 +18554,7 @@
         <v>702</v>
       </c>
       <c r="B982" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C982" t="s">
         <v>117</v>
@@ -18569,7 +18566,7 @@
         <v>702</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C983" t="s">
         <v>117</v>
@@ -18581,10 +18578,10 @@
         <v>702</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C984" t="s">
-        <v>117</v>
+        <v>748</v>
+      </c>
+      <c r="C984" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E984" s="8"/>
     </row>
@@ -18593,10 +18590,10 @@
         <v>702</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C985" s="7" t="s">
-        <v>123</v>
+        <v>749</v>
+      </c>
+      <c r="C985" t="s">
+        <v>135</v>
       </c>
       <c r="E985" s="8"/>
     </row>
@@ -18605,7 +18602,7 @@
         <v>702</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C986" t="s">
         <v>135</v>
@@ -18617,7 +18614,7 @@
         <v>702</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="C987" t="s">
         <v>135</v>
@@ -18626,10 +18623,10 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B988" s="8" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="C988" t="s">
         <v>135</v>
@@ -18641,7 +18638,7 @@
         <v>703</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="C989" t="s">
         <v>135</v>
@@ -18653,7 +18650,7 @@
         <v>703</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C990" t="s">
         <v>135</v>
@@ -18665,7 +18662,7 @@
         <v>703</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="C991" t="s">
         <v>135</v>
@@ -18677,10 +18674,10 @@
         <v>703</v>
       </c>
       <c r="B992" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C992" t="s">
-        <v>135</v>
+        <v>772</v>
+      </c>
+      <c r="C992" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="E992" s="8"/>
     </row>
@@ -18689,7 +18686,7 @@
         <v>703</v>
       </c>
       <c r="B993" s="8" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="C993" s="8" t="s">
         <v>123</v>
@@ -18697,15 +18694,9 @@
       <c r="E993" s="8"/>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A994" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="B994" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="C994" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="A994" s="7"/>
+      <c r="B994" s="8"/>
+      <c r="C994" s="8"/>
       <c r="E994" s="8"/>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
@@ -18717,11 +18708,10 @@
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996" s="7"/>
       <c r="B996" s="8"/>
-      <c r="C996" s="8"/>
+      <c r="C996" s="7"/>
       <c r="E996" s="8"/>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A997" s="7"/>
       <c r="B997" s="8"/>
       <c r="C997" s="7"/>
       <c r="E997" s="8"/>
@@ -20630,11 +20620,6 @@
       <c r="B1378" s="8"/>
       <c r="C1378" s="7"/>
       <c r="E1378" s="8"/>
-    </row>
-    <row r="1379" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1379" s="8"/>
-      <c r="C1379" s="7"/>
-      <c r="E1379" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD8B27-0C8F-4ACA-89A8-2898CF2D6197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B28C14-D276-4BD8-846D-D0D480BE0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="775">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2210,9 +2210,6 @@
     <t>mkexf_run_command</t>
   </si>
   <si>
-    <t>mkexf_lost_power_alarn</t>
-  </si>
-  <si>
     <t>mkexf_control_mode</t>
   </si>
   <si>
@@ -2358,6 +2355,9 @@
   </si>
   <si>
     <t>kfaf_02_filter_differential_pr_s</t>
+  </si>
+  <si>
+    <t>mkexf_lost_power_alarm</t>
   </si>
 </sst>
 </file>
@@ -6356,11 +6356,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1378"/>
+  <dimension ref="A1:G1380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1001" sqref="D1001"/>
+      <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C996" sqref="C996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17930,7 +17930,7 @@
         <v>527</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C930" s="7" t="s">
         <v>123</v>
@@ -17942,7 +17942,7 @@
         <v>527</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C931" s="7" t="s">
         <v>123</v>
@@ -17954,7 +17954,7 @@
         <v>527</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C932" s="7" t="s">
         <v>135</v>
@@ -17966,7 +17966,7 @@
         <v>528</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C933" t="s">
         <v>117</v>
@@ -17978,7 +17978,7 @@
         <v>528</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C934" t="s">
         <v>117</v>
@@ -17990,7 +17990,7 @@
         <v>528</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C935" t="s">
         <v>117</v>
@@ -18002,7 +18002,7 @@
         <v>528</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C936" t="s">
         <v>117</v>
@@ -18014,7 +18014,7 @@
         <v>528</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C937" t="s">
         <v>117</v>
@@ -18026,7 +18026,7 @@
         <v>528</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C938" t="s">
         <v>123</v>
@@ -18038,7 +18038,7 @@
         <v>528</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C939" t="s">
         <v>117</v>
@@ -18050,7 +18050,7 @@
         <v>528</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C940" s="7" t="s">
         <v>123</v>
@@ -18062,7 +18062,7 @@
         <v>528</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C941" s="7" t="s">
         <v>127</v>
@@ -18074,7 +18074,7 @@
         <v>528</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C942" s="7" t="s">
         <v>127</v>
@@ -18086,7 +18086,7 @@
         <v>528</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C943" s="7" t="s">
         <v>127</v>
@@ -18110,7 +18110,7 @@
         <v>528</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C945" s="7" t="s">
         <v>135</v>
@@ -18122,7 +18122,7 @@
         <v>528</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C946" s="7" t="s">
         <v>123</v>
@@ -18134,7 +18134,7 @@
         <v>528</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C947" s="7" t="s">
         <v>123</v>
@@ -18146,7 +18146,7 @@
         <v>528</v>
       </c>
       <c r="B948" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C948" s="7" t="s">
         <v>135</v>
@@ -18290,7 +18290,7 @@
         <v>704</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C960" t="s">
         <v>117</v>
@@ -18302,7 +18302,7 @@
         <v>704</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>725</v>
+        <v>774</v>
       </c>
       <c r="C961" t="s">
         <v>117</v>
@@ -18311,25 +18311,25 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
-        <v>106</v>
+        <v>704</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="C962" t="s">
-        <v>117</v>
+        <v>740</v>
+      </c>
+      <c r="C962" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E962" s="8"/>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
-        <v>106</v>
+        <v>704</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="C963" t="s">
-        <v>117</v>
+        <v>748</v>
+      </c>
+      <c r="C963" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E963" s="8"/>
     </row>
@@ -18338,7 +18338,7 @@
         <v>106</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C964" t="s">
         <v>117</v>
@@ -18350,7 +18350,7 @@
         <v>106</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C965" t="s">
         <v>117</v>
@@ -18362,7 +18362,7 @@
         <v>106</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C966" t="s">
         <v>117</v>
@@ -18374,7 +18374,7 @@
         <v>106</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C967" t="s">
         <v>117</v>
@@ -18386,7 +18386,7 @@
         <v>106</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C968" t="s">
         <v>117</v>
@@ -18398,7 +18398,7 @@
         <v>106</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C969" t="s">
         <v>117</v>
@@ -18410,19 +18410,19 @@
         <v>106</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C970" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E970" s="8"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
-        <v>700</v>
+        <v>106</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C971" t="s">
         <v>117</v>
@@ -18431,13 +18431,13 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
-        <v>700</v>
+        <v>106</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="C972" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E972" s="8"/>
     </row>
@@ -18446,7 +18446,7 @@
         <v>700</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C973" t="s">
         <v>117</v>
@@ -18458,10 +18458,10 @@
         <v>700</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C974" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E974" s="8"/>
     </row>
@@ -18470,10 +18470,10 @@
         <v>700</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C975" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E975" s="8"/>
     </row>
@@ -18482,10 +18482,10 @@
         <v>700</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C976" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E976" s="8"/>
     </row>
@@ -18494,10 +18494,10 @@
         <v>700</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C977" s="7" t="s">
-        <v>123</v>
+        <v>739</v>
+      </c>
+      <c r="C977" t="s">
+        <v>135</v>
       </c>
       <c r="E977" s="8"/>
     </row>
@@ -18506,7 +18506,7 @@
         <v>700</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C978" t="s">
         <v>117</v>
@@ -18518,10 +18518,10 @@
         <v>700</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="C979" t="s">
-        <v>117</v>
+        <v>741</v>
+      </c>
+      <c r="C979" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E979" s="8"/>
     </row>
@@ -18530,7 +18530,7 @@
         <v>700</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C980" t="s">
         <v>117</v>
@@ -18539,10 +18539,10 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C981" t="s">
         <v>117</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B982" s="8" t="s">
         <v>744</v>
@@ -18566,7 +18566,7 @@
         <v>702</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C983" t="s">
         <v>117</v>
@@ -18578,10 +18578,10 @@
         <v>702</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C984" s="7" t="s">
-        <v>123</v>
+        <v>743</v>
+      </c>
+      <c r="C984" t="s">
+        <v>117</v>
       </c>
       <c r="E984" s="8"/>
     </row>
@@ -18590,10 +18590,10 @@
         <v>702</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C985" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E985" s="8"/>
     </row>
@@ -18602,10 +18602,10 @@
         <v>702</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="C986" t="s">
-        <v>135</v>
+        <v>747</v>
+      </c>
+      <c r="C986" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E986" s="8"/>
     </row>
@@ -18614,7 +18614,7 @@
         <v>702</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C987" t="s">
         <v>135</v>
@@ -18623,10 +18623,10 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B988" s="8" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="C988" t="s">
         <v>135</v>
@@ -18635,10 +18635,10 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="C989" t="s">
         <v>135</v>
@@ -18650,7 +18650,7 @@
         <v>703</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C990" t="s">
         <v>135</v>
@@ -18662,7 +18662,7 @@
         <v>703</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C991" t="s">
         <v>135</v>
@@ -18674,10 +18674,10 @@
         <v>703</v>
       </c>
       <c r="B992" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="C992" s="8" t="s">
-        <v>123</v>
+        <v>769</v>
+      </c>
+      <c r="C992" t="s">
+        <v>135</v>
       </c>
       <c r="E992" s="8"/>
     </row>
@@ -18686,37 +18686,57 @@
         <v>703</v>
       </c>
       <c r="B993" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="C993" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C993" t="s">
+        <v>135</v>
+      </c>
+      <c r="E993" s="8"/>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B994" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C994" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E993" s="8"/>
-    </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A994" s="7"/>
-      <c r="B994" s="8"/>
-      <c r="C994" s="8"/>
       <c r="E994" s="8"/>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A995" s="7"/>
-      <c r="B995" s="8"/>
-      <c r="C995" s="8"/>
+      <c r="A995" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B995" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C995" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E995" s="8"/>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A996" s="7"/>
-      <c r="B996" s="8"/>
-      <c r="C996" s="7"/>
+      <c r="A996" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B996" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C996" t="s">
+        <v>135</v>
+      </c>
       <c r="E996" s="8"/>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997" s="7"/>
       <c r="B997" s="8"/>
-      <c r="C997" s="7"/>
+      <c r="C997" s="8"/>
       <c r="E997" s="8"/>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998" s="7"/>
       <c r="B998" s="8"/>
       <c r="C998" s="7"/>
       <c r="E998" s="8"/>
@@ -20620,6 +20640,16 @@
       <c r="B1378" s="8"/>
       <c r="C1378" s="7"/>
       <c r="E1378" s="8"/>
+    </row>
+    <row r="1379" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1379" s="8"/>
+      <c r="C1379" s="7"/>
+      <c r="E1379" s="8"/>
+    </row>
+    <row r="1380" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1380" s="8"/>
+      <c r="C1380" s="7"/>
+      <c r="E1380" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B28C14-D276-4BD8-846D-D0D480BE0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB1A29-A32E-4E76-8937-F4FAB811986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,9 +2072,6 @@
     <t>ef_04_run_status</t>
   </si>
   <si>
-    <t>ef_04_run_mode</t>
-  </si>
-  <si>
     <t>ef_04_lost_power_alarm</t>
   </si>
   <si>
@@ -2358,6 +2355,9 @@
   </si>
   <si>
     <t>mkexf_lost_power_alarm</t>
+  </si>
+  <si>
+    <t>ef_04_control_mode</t>
   </si>
 </sst>
 </file>
@@ -4366,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -4415,16 +4415,16 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M28" t="s">
         <v>60</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -4464,16 +4464,16 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M29" t="s">
         <v>60</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -4513,16 +4513,16 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M30" t="s">
         <v>60</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -4562,16 +4562,16 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J31" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M31" t="s">
         <v>60</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4599,7 +4599,7 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -4611,16 +4611,16 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J32" t="s">
         <v>57</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M32" t="s">
         <v>60</v>
@@ -6359,8 +6359,8 @@
   <dimension ref="A1:G1380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C996" sqref="C996"/>
+      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D908" sqref="D908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17690,7 +17690,7 @@
         <v>627</v>
       </c>
       <c r="B910" s="8" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="C910" t="s">
         <v>117</v>
@@ -17702,7 +17702,7 @@
         <v>627</v>
       </c>
       <c r="B911" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C911" t="s">
         <v>117</v>
@@ -17714,7 +17714,7 @@
         <v>612</v>
       </c>
       <c r="B912" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C912" t="s">
         <v>117</v>
@@ -17726,7 +17726,7 @@
         <v>612</v>
       </c>
       <c r="B913" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C913" t="s">
         <v>117</v>
@@ -17738,7 +17738,7 @@
         <v>612</v>
       </c>
       <c r="B914" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C914" t="s">
         <v>117</v>
@@ -17750,7 +17750,7 @@
         <v>612</v>
       </c>
       <c r="B915" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C915" t="s">
         <v>117</v>
@@ -17762,7 +17762,7 @@
         <v>527</v>
       </c>
       <c r="B916" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C916" t="s">
         <v>117</v>
@@ -17774,7 +17774,7 @@
         <v>527</v>
       </c>
       <c r="B917" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C917" t="s">
         <v>117</v>
@@ -17786,7 +17786,7 @@
         <v>527</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C918" t="s">
         <v>117</v>
@@ -17798,7 +17798,7 @@
         <v>527</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C919" t="s">
         <v>117</v>
@@ -17810,7 +17810,7 @@
         <v>527</v>
       </c>
       <c r="B920" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C920" t="s">
         <v>117</v>
@@ -17822,7 +17822,7 @@
         <v>527</v>
       </c>
       <c r="B921" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C921" t="s">
         <v>123</v>
@@ -17834,7 +17834,7 @@
         <v>527</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C922" t="s">
         <v>117</v>
@@ -17846,7 +17846,7 @@
         <v>527</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C923" s="7" t="s">
         <v>123</v>
@@ -17858,7 +17858,7 @@
         <v>527</v>
       </c>
       <c r="B924" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C924" s="7" t="s">
         <v>127</v>
@@ -17870,7 +17870,7 @@
         <v>527</v>
       </c>
       <c r="B925" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C925" s="7" t="s">
         <v>127</v>
@@ -17882,7 +17882,7 @@
         <v>527</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C926" s="7" t="s">
         <v>127</v>
@@ -17894,7 +17894,7 @@
         <v>527</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C927" t="s">
         <v>117</v>
@@ -17906,7 +17906,7 @@
         <v>527</v>
       </c>
       <c r="B928" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C928" t="s">
         <v>117</v>
@@ -17918,7 +17918,7 @@
         <v>527</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C929" s="7" t="s">
         <v>135</v>
@@ -17930,7 +17930,7 @@
         <v>527</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C930" s="7" t="s">
         <v>123</v>
@@ -17942,7 +17942,7 @@
         <v>527</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C931" s="7" t="s">
         <v>123</v>
@@ -17954,7 +17954,7 @@
         <v>527</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C932" s="7" t="s">
         <v>135</v>
@@ -17966,7 +17966,7 @@
         <v>528</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C933" t="s">
         <v>117</v>
@@ -17978,7 +17978,7 @@
         <v>528</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C934" t="s">
         <v>117</v>
@@ -17990,7 +17990,7 @@
         <v>528</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C935" t="s">
         <v>117</v>
@@ -18002,7 +18002,7 @@
         <v>528</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C936" t="s">
         <v>117</v>
@@ -18014,7 +18014,7 @@
         <v>528</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C937" t="s">
         <v>117</v>
@@ -18026,7 +18026,7 @@
         <v>528</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C938" t="s">
         <v>123</v>
@@ -18038,7 +18038,7 @@
         <v>528</v>
       </c>
       <c r="B939" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C939" t="s">
         <v>117</v>
@@ -18050,7 +18050,7 @@
         <v>528</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C940" s="7" t="s">
         <v>123</v>
@@ -18062,7 +18062,7 @@
         <v>528</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C941" s="7" t="s">
         <v>127</v>
@@ -18074,7 +18074,7 @@
         <v>528</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C942" s="7" t="s">
         <v>127</v>
@@ -18086,7 +18086,7 @@
         <v>528</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C943" s="7" t="s">
         <v>127</v>
@@ -18110,7 +18110,7 @@
         <v>528</v>
       </c>
       <c r="B945" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C945" s="7" t="s">
         <v>135</v>
@@ -18122,7 +18122,7 @@
         <v>528</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C946" s="7" t="s">
         <v>123</v>
@@ -18134,7 +18134,7 @@
         <v>528</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C947" s="7" t="s">
         <v>123</v>
@@ -18146,7 +18146,7 @@
         <v>528</v>
       </c>
       <c r="B948" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C948" s="7" t="s">
         <v>135</v>
@@ -18167,10 +18167,10 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B950" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C950" t="s">
         <v>117</v>
@@ -18179,10 +18179,10 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C951" t="s">
         <v>117</v>
@@ -18191,10 +18191,10 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B952" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C952" t="s">
         <v>117</v>
@@ -18203,10 +18203,10 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C953" s="7" t="s">
         <v>123</v>
@@ -18215,10 +18215,10 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B954" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C954" t="s">
         <v>117</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C955" t="s">
         <v>117</v>
@@ -18239,10 +18239,10 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C956" t="s">
         <v>117</v>
@@ -18251,10 +18251,10 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C957" s="7" t="s">
         <v>123</v>
@@ -18263,10 +18263,10 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C958" t="s">
         <v>117</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C959" t="s">
         <v>117</v>
@@ -18287,10 +18287,10 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B960" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C960" t="s">
         <v>117</v>
@@ -18299,10 +18299,10 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C961" t="s">
         <v>117</v>
@@ -18311,10 +18311,10 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C962" s="7" t="s">
         <v>135</v>
@@ -18323,10 +18323,10 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C963" s="7" t="s">
         <v>135</v>
@@ -18338,7 +18338,7 @@
         <v>106</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C964" t="s">
         <v>117</v>
@@ -18350,7 +18350,7 @@
         <v>106</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C965" t="s">
         <v>117</v>
@@ -18362,7 +18362,7 @@
         <v>106</v>
       </c>
       <c r="B966" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C966" t="s">
         <v>117</v>
@@ -18374,7 +18374,7 @@
         <v>106</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C967" t="s">
         <v>117</v>
@@ -18386,7 +18386,7 @@
         <v>106</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C968" t="s">
         <v>117</v>
@@ -18398,7 +18398,7 @@
         <v>106</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C969" t="s">
         <v>117</v>
@@ -18410,7 +18410,7 @@
         <v>106</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C970" t="s">
         <v>117</v>
@@ -18422,7 +18422,7 @@
         <v>106</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C971" t="s">
         <v>117</v>
@@ -18434,7 +18434,7 @@
         <v>106</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C972" t="s">
         <v>135</v>
@@ -18443,10 +18443,10 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C973" t="s">
         <v>117</v>
@@ -18455,10 +18455,10 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C974" t="s">
         <v>117</v>
@@ -18467,10 +18467,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C975" t="s">
         <v>117</v>
@@ -18479,10 +18479,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C976" t="s">
         <v>135</v>
@@ -18491,10 +18491,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C977" t="s">
         <v>135</v>
@@ -18503,10 +18503,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C978" t="s">
         <v>117</v>
@@ -18515,10 +18515,10 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C979" s="7" t="s">
         <v>123</v>
@@ -18527,10 +18527,10 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C980" t="s">
         <v>117</v>
@@ -18539,10 +18539,10 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C981" t="s">
         <v>117</v>
@@ -18551,10 +18551,10 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B982" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C982" t="s">
         <v>117</v>
@@ -18563,10 +18563,10 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C983" t="s">
         <v>117</v>
@@ -18575,10 +18575,10 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C984" t="s">
         <v>117</v>
@@ -18587,10 +18587,10 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C985" t="s">
         <v>117</v>
@@ -18599,10 +18599,10 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C986" s="7" t="s">
         <v>123</v>
@@ -18611,10 +18611,10 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C987" t="s">
         <v>135</v>
@@ -18623,10 +18623,10 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B988" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C988" t="s">
         <v>135</v>
@@ -18635,10 +18635,10 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C989" t="s">
         <v>135</v>
@@ -18647,10 +18647,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C990" t="s">
         <v>135</v>
@@ -18659,10 +18659,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C991" t="s">
         <v>135</v>
@@ -18671,10 +18671,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B992" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C992" t="s">
         <v>135</v>
@@ -18683,10 +18683,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B993" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C993" t="s">
         <v>135</v>
@@ -18695,10 +18695,10 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B994" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C994" s="8" t="s">
         <v>123</v>
@@ -18707,10 +18707,10 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B995" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C995" s="8" t="s">
         <v>123</v>
@@ -18719,10 +18719,10 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B996" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C996" t="s">
         <v>135</v>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB1A29-A32E-4E76-8937-F4FAB811986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D326FEE6-F034-44B0-B17E-6C43758FB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="776">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2358,6 +2358,9 @@
   </si>
   <si>
     <t>ef_04_control_mode</t>
+  </si>
+  <si>
+    <t>kfaf_02_supply_air_static_pr_sp</t>
   </si>
 </sst>
 </file>
@@ -6359,8 +6362,8 @@
   <dimension ref="A1:G1380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D908" sqref="D908"/>
+      <pane ySplit="1" topLeftCell="A986" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1000" sqref="D1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18722,7 +18725,7 @@
         <v>702</v>
       </c>
       <c r="B996" s="8" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C996" t="s">
         <v>135</v>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D326FEE6-F034-44B0-B17E-6C43758FB2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB6354-D15E-4B23-B9B2-CDB8BAFC8509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6362,8 +6362,8 @@
   <dimension ref="A1:G1380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A986" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1000" sqref="D1000"/>
+      <pane ySplit="1" topLeftCell="A958" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E972" sqref="E972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/DDCS/ahu-all-ddc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\DDCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB6354-D15E-4B23-B9B2-CDB8BAFC8509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF71B40-6371-4103-BE2B-672981C6F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -2985,9 +2985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6361,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A958" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E972" sqref="E972"/>
     </sheetView>
   </sheetViews>
